--- a/minhashing-example.xlsx
+++ b/minhashing-example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Documents\algorithms-for-big-data\imagenes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Documents\algorithms-for-big-data\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A384D8-782C-4485-835C-480BE621DB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4FBFA-5CB2-4D88-9171-6CE8D2DADBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matriz-1" sheetId="10" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Hoja6" sheetId="6" r:id="rId7"/>
     <sheet name="matrices" sheetId="7" r:id="rId8"/>
     <sheet name="recommendation" sheetId="8" r:id="rId9"/>
-    <sheet name="RMSE" sheetId="9" r:id="rId10"/>
-    <sheet name="docs" sheetId="11" r:id="rId11"/>
-    <sheet name="recommendation-2" sheetId="12" r:id="rId12"/>
+    <sheet name="Edirt distance" sheetId="13" r:id="rId10"/>
+    <sheet name="RMSE" sheetId="9" r:id="rId11"/>
+    <sheet name="docs" sheetId="11" r:id="rId12"/>
+    <sheet name="recommendation-2" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="321">
   <si>
     <t>Characteristic Matrix</t>
   </si>
@@ -1225,6 +1226,36 @@
       </rPr>
       <t>j,k</t>
     </r>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>subst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,6 +1541,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,7 +2075,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2773,16 +2816,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,16 +2825,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2815,10 +2904,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2830,13 +2931,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2859,6 +2954,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2896,39 +2994,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="349">
@@ -3916,25 +4016,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="316" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
       <c r="D1" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="300" t="s">
+      <c r="E1" s="317" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="300"/>
+      <c r="F1" s="317"/>
       <c r="G1" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="300" t="s">
+      <c r="H1" s="317" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="300"/>
+      <c r="I1" s="317"/>
       <c r="L1" s="3" t="s">
         <v>126</v>
       </c>
@@ -4262,7 +4362,7 @@
       <c r="AI4" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="AJ4" s="296">
+      <c r="AJ4" s="318">
         <v>7</v>
       </c>
     </row>
@@ -4330,11 +4430,11 @@
       <c r="AI5" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" s="296"/>
+      <c r="AJ5" s="318"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
       <c r="K6" s="208" t="s">
         <v>119</v>
       </c>
@@ -4388,7 +4488,7 @@
       <c r="AI6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ6" s="296">
+      <c r="AJ6" s="318">
         <v>5</v>
       </c>
     </row>
@@ -4448,7 +4548,7 @@
       <c r="AI7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="296"/>
+      <c r="AJ7" s="318"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E8" s="98"/>
@@ -4491,7 +4591,7 @@
       <c r="AI8" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" s="298">
+      <c r="AJ8" s="321">
         <v>4</v>
       </c>
     </row>
@@ -4536,7 +4636,7 @@
       <c r="AI9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="298"/>
+      <c r="AJ9" s="321"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q10" s="64"/>
@@ -4569,7 +4669,7 @@
       <c r="AI10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="296">
+      <c r="AJ10" s="318">
         <v>4</v>
       </c>
     </row>
@@ -4604,7 +4704,7 @@
       <c r="AI11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" s="296"/>
+      <c r="AJ11" s="318"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q12" s="64"/>
@@ -4620,11 +4720,11 @@
       <c r="AC12" s="207"/>
       <c r="AD12" s="207"/>
       <c r="AE12" s="207"/>
-      <c r="AG12" s="297" t="s">
+      <c r="AG12" s="320" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="297"/>
-      <c r="AI12" s="297"/>
+      <c r="AH12" s="320"/>
+      <c r="AI12" s="320"/>
       <c r="AJ12" s="220" t="s">
         <v>157</v>
       </c>
@@ -4834,7 +4934,7 @@
       <c r="AI19" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="AJ19" s="296">
+      <c r="AJ19" s="318">
         <v>7</v>
       </c>
     </row>
@@ -4873,7 +4973,7 @@
       <c r="AI20" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="AJ20" s="296"/>
+      <c r="AJ20" s="318"/>
     </row>
     <row r="21" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K21" s="223">
@@ -4910,7 +5010,7 @@
       <c r="AI21" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ21" s="296">
+      <c r="AJ21" s="318">
         <v>5</v>
       </c>
     </row>
@@ -4949,7 +5049,7 @@
       <c r="AI22" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ22" s="296"/>
+      <c r="AJ22" s="318"/>
     </row>
     <row r="23" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K23" s="208">
@@ -4986,7 +5086,7 @@
       <c r="AI23" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ23" s="298">
+      <c r="AJ23" s="321">
         <v>4</v>
       </c>
     </row>
@@ -5020,7 +5120,7 @@
       <c r="AI24" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ24" s="298"/>
+      <c r="AJ24" s="321"/>
     </row>
     <row r="25" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K25" s="221">
@@ -5052,7 +5152,7 @@
       <c r="AI25" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ25" s="296">
+      <c r="AJ25" s="318">
         <v>4</v>
       </c>
     </row>
@@ -5086,7 +5186,7 @@
       <c r="AI26" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ26" s="296"/>
+      <c r="AJ26" s="318"/>
     </row>
     <row r="27" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K27" s="223">
@@ -5109,11 +5209,11 @@
       <c r="S27" s="102">
         <v>1</v>
       </c>
-      <c r="AG27" s="297" t="s">
+      <c r="AG27" s="320" t="s">
         <v>138</v>
       </c>
-      <c r="AH27" s="297"/>
-      <c r="AI27" s="297"/>
+      <c r="AH27" s="320"/>
+      <c r="AI27" s="320"/>
       <c r="AJ27" s="220" t="s">
         <v>157</v>
       </c>
@@ -5259,12 +5359,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AJ25:AJ26"/>
     <mergeCell ref="AG27:AI27"/>
     <mergeCell ref="AJ8:AJ9"/>
@@ -5273,6 +5367,12 @@
     <mergeCell ref="AJ19:AJ20"/>
     <mergeCell ref="AJ21:AJ22"/>
     <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5284,6 +5384,1704 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E4583-A74F-4BE4-8E2C-5878D1C2F5DA}">
+  <dimension ref="B4:T48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D4" s="359" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="359" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="360" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="360" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="360" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="360" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="360" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" s="360" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" s="360" t="s">
+        <v>313</v>
+      </c>
+      <c r="O4" s="359" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="359" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q4" s="359" t="s">
+        <v>312</v>
+      </c>
+      <c r="R4" s="359" t="s">
+        <v>312</v>
+      </c>
+      <c r="S4" s="363" t="s">
+        <v>313</v>
+      </c>
+      <c r="T4" s="363" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="358" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="100">
+        <v>0</v>
+      </c>
+      <c r="E5" s="286">
+        <v>0</v>
+      </c>
+      <c r="F5" s="286">
+        <v>0</v>
+      </c>
+      <c r="G5" s="286">
+        <v>0</v>
+      </c>
+      <c r="H5" s="286">
+        <v>0</v>
+      </c>
+      <c r="I5" s="286">
+        <v>0</v>
+      </c>
+      <c r="J5" s="286">
+        <v>0</v>
+      </c>
+      <c r="K5" s="286">
+        <v>0</v>
+      </c>
+      <c r="L5" s="286">
+        <v>0</v>
+      </c>
+      <c r="M5" s="286">
+        <v>0</v>
+      </c>
+      <c r="N5" s="286">
+        <v>0</v>
+      </c>
+      <c r="O5" s="296">
+        <v>0</v>
+      </c>
+      <c r="P5" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="296">
+        <v>0</v>
+      </c>
+      <c r="R5" s="296">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="360" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="286">
+        <v>1</v>
+      </c>
+      <c r="E6" s="286">
+        <v>1</v>
+      </c>
+      <c r="F6" s="286">
+        <v>1</v>
+      </c>
+      <c r="G6" s="286">
+        <v>1</v>
+      </c>
+      <c r="H6" s="286">
+        <v>1</v>
+      </c>
+      <c r="I6" s="286">
+        <v>0</v>
+      </c>
+      <c r="J6" s="286">
+        <v>0</v>
+      </c>
+      <c r="K6" s="286">
+        <v>1</v>
+      </c>
+      <c r="L6" s="286">
+        <v>1</v>
+      </c>
+      <c r="M6" s="286">
+        <v>1</v>
+      </c>
+      <c r="N6" s="286">
+        <v>1</v>
+      </c>
+      <c r="O6" s="286">
+        <v>1</v>
+      </c>
+      <c r="P6" s="286">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="286">
+        <v>0</v>
+      </c>
+      <c r="R6" s="286">
+        <v>0</v>
+      </c>
+      <c r="S6" s="296">
+        <v>1</v>
+      </c>
+      <c r="T6" s="296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="360" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="286">
+        <v>2</v>
+      </c>
+      <c r="E7" s="286">
+        <v>2</v>
+      </c>
+      <c r="F7" s="286">
+        <v>2</v>
+      </c>
+      <c r="G7" s="286">
+        <v>2</v>
+      </c>
+      <c r="H7" s="286">
+        <v>2</v>
+      </c>
+      <c r="I7" s="286">
+        <v>1</v>
+      </c>
+      <c r="J7" s="286">
+        <v>1</v>
+      </c>
+      <c r="K7" s="286">
+        <v>0</v>
+      </c>
+      <c r="L7" s="286">
+        <v>1</v>
+      </c>
+      <c r="M7" s="286">
+        <v>2</v>
+      </c>
+      <c r="N7" s="286">
+        <v>2</v>
+      </c>
+      <c r="O7" s="286">
+        <v>2</v>
+      </c>
+      <c r="P7" s="286">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="286">
+        <v>1</v>
+      </c>
+      <c r="R7" s="286">
+        <v>1</v>
+      </c>
+      <c r="S7" s="296">
+        <v>1</v>
+      </c>
+      <c r="T7" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="360" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="286">
+        <v>3</v>
+      </c>
+      <c r="E8" s="286">
+        <v>3</v>
+      </c>
+      <c r="F8" s="286">
+        <v>3</v>
+      </c>
+      <c r="G8" s="286">
+        <v>3</v>
+      </c>
+      <c r="H8" s="286">
+        <v>3</v>
+      </c>
+      <c r="I8" s="286">
+        <v>2</v>
+      </c>
+      <c r="J8" s="286">
+        <v>1</v>
+      </c>
+      <c r="K8" s="286">
+        <v>1</v>
+      </c>
+      <c r="L8" s="286">
+        <v>1</v>
+      </c>
+      <c r="M8" s="286">
+        <v>2</v>
+      </c>
+      <c r="N8" s="286">
+        <v>3</v>
+      </c>
+      <c r="O8" s="286">
+        <v>3</v>
+      </c>
+      <c r="P8" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="286">
+        <v>1</v>
+      </c>
+      <c r="R8" s="286">
+        <v>1</v>
+      </c>
+      <c r="S8" s="296">
+        <v>2</v>
+      </c>
+      <c r="T8" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="360" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="286">
+        <v>4</v>
+      </c>
+      <c r="E9" s="286">
+        <v>3</v>
+      </c>
+      <c r="F9" s="286">
+        <v>4</v>
+      </c>
+      <c r="G9" s="286">
+        <v>3</v>
+      </c>
+      <c r="H9" s="286">
+        <v>3</v>
+      </c>
+      <c r="I9" s="286">
+        <v>3</v>
+      </c>
+      <c r="J9" s="286">
+        <v>2</v>
+      </c>
+      <c r="K9" s="286">
+        <v>2</v>
+      </c>
+      <c r="L9" s="286">
+        <v>1</v>
+      </c>
+      <c r="M9" s="286">
+        <v>2</v>
+      </c>
+      <c r="N9" s="286">
+        <v>2</v>
+      </c>
+      <c r="O9" s="286">
+        <v>3</v>
+      </c>
+      <c r="P9" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="286">
+        <v>2</v>
+      </c>
+      <c r="R9" s="286">
+        <v>2</v>
+      </c>
+      <c r="S9" s="296">
+        <v>1</v>
+      </c>
+      <c r="T9" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="360" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="286">
+        <v>5</v>
+      </c>
+      <c r="E10" s="286">
+        <v>4</v>
+      </c>
+      <c r="F10" s="286">
+        <v>3</v>
+      </c>
+      <c r="G10" s="286">
+        <v>4</v>
+      </c>
+      <c r="H10" s="286">
+        <v>4</v>
+      </c>
+      <c r="I10" s="286">
+        <v>4</v>
+      </c>
+      <c r="J10" s="286">
+        <v>3</v>
+      </c>
+      <c r="K10" s="286">
+        <v>3</v>
+      </c>
+      <c r="L10" s="286">
+        <v>2</v>
+      </c>
+      <c r="M10" s="286">
+        <v>1</v>
+      </c>
+      <c r="N10" s="286">
+        <v>2</v>
+      </c>
+      <c r="O10" s="286">
+        <v>2</v>
+      </c>
+      <c r="P10" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="286">
+        <v>3</v>
+      </c>
+      <c r="R10" s="286">
+        <v>3</v>
+      </c>
+      <c r="S10" s="296">
+        <v>2</v>
+      </c>
+      <c r="T10" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="360" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="286">
+        <v>6</v>
+      </c>
+      <c r="E11" s="286">
+        <v>5</v>
+      </c>
+      <c r="F11" s="286">
+        <v>4</v>
+      </c>
+      <c r="G11" s="286">
+        <v>3</v>
+      </c>
+      <c r="H11" s="286">
+        <v>4</v>
+      </c>
+      <c r="I11" s="286">
+        <v>5</v>
+      </c>
+      <c r="J11" s="286">
+        <v>4</v>
+      </c>
+      <c r="K11" s="286">
+        <v>4</v>
+      </c>
+      <c r="L11" s="286">
+        <v>3</v>
+      </c>
+      <c r="M11" s="286">
+        <v>2</v>
+      </c>
+      <c r="N11" s="286">
+        <v>1</v>
+      </c>
+      <c r="O11" s="286">
+        <v>2</v>
+      </c>
+      <c r="P11" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="286">
+        <v>4</v>
+      </c>
+      <c r="R11" s="286">
+        <v>4</v>
+      </c>
+      <c r="S11" s="296">
+        <v>3</v>
+      </c>
+      <c r="T11" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="360" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="286">
+        <v>7</v>
+      </c>
+      <c r="E12" s="286">
+        <v>6</v>
+      </c>
+      <c r="F12" s="286">
+        <v>5</v>
+      </c>
+      <c r="G12" s="286">
+        <v>4</v>
+      </c>
+      <c r="H12" s="286">
+        <v>4</v>
+      </c>
+      <c r="I12" s="286">
+        <v>4</v>
+      </c>
+      <c r="J12" s="286">
+        <v>5</v>
+      </c>
+      <c r="K12" s="286">
+        <v>5</v>
+      </c>
+      <c r="L12" s="286">
+        <v>4</v>
+      </c>
+      <c r="M12" s="286">
+        <v>3</v>
+      </c>
+      <c r="N12" s="286">
+        <v>2</v>
+      </c>
+      <c r="O12" s="286">
+        <v>2</v>
+      </c>
+      <c r="P12" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="286">
+        <v>3</v>
+      </c>
+      <c r="R12" s="286">
+        <v>4</v>
+      </c>
+      <c r="S12" s="296">
+        <v>4</v>
+      </c>
+      <c r="T12" s="296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="360" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="296">
+        <v>8</v>
+      </c>
+      <c r="E13" s="286">
+        <v>7</v>
+      </c>
+      <c r="F13" s="286">
+        <v>6</v>
+      </c>
+      <c r="G13" s="286">
+        <v>5</v>
+      </c>
+      <c r="H13" s="286">
+        <v>5</v>
+      </c>
+      <c r="I13" s="286">
+        <v>5</v>
+      </c>
+      <c r="J13" s="286">
+        <v>5</v>
+      </c>
+      <c r="K13" s="286">
+        <v>5</v>
+      </c>
+      <c r="L13" s="286">
+        <v>5</v>
+      </c>
+      <c r="M13" s="286">
+        <v>4</v>
+      </c>
+      <c r="N13" s="286">
+        <v>3</v>
+      </c>
+      <c r="O13" s="286">
+        <v>3</v>
+      </c>
+      <c r="P13" s="188">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="286">
+        <v>3</v>
+      </c>
+      <c r="R13" s="286">
+        <v>4</v>
+      </c>
+      <c r="S13" s="296">
+        <v>5</v>
+      </c>
+      <c r="T13" s="296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E16" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="359" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="297" t="s">
+        <v>313</v>
+      </c>
+      <c r="I16" s="297" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" s="361" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="361" t="s">
+        <v>276</v>
+      </c>
+      <c r="L16" s="362" t="s">
+        <v>313</v>
+      </c>
+      <c r="M16" s="297" t="s">
+        <v>274</v>
+      </c>
+      <c r="N16" s="297" t="s">
+        <v>313</v>
+      </c>
+      <c r="O16" s="307" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" s="359" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="359" t="s">
+        <v>312</v>
+      </c>
+      <c r="R16" s="359" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E17" s="311" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="311" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="311" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="311" t="s">
+        <v>313</v>
+      </c>
+      <c r="I17" s="311" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" s="311" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="311" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="311" t="s">
+        <v>276</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E18" s="296" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="296" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="296" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="296" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="296" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="305" t="s">
+        <v>312</v>
+      </c>
+      <c r="L18" s="296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E20" s="347" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="347"/>
+      <c r="G20" s="347"/>
+      <c r="H20" s="347"/>
+      <c r="I20" s="347"/>
+      <c r="J20" s="347"/>
+      <c r="K20" s="347"/>
+      <c r="L20" s="347"/>
+      <c r="M20" s="347"/>
+      <c r="N20" s="347"/>
+      <c r="O20" s="347"/>
+      <c r="P20" s="347"/>
+      <c r="Q20" s="347"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="359" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="359" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="361" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" s="361" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21" s="361" t="s">
+        <v>312</v>
+      </c>
+      <c r="K21" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="L21" s="361" t="s">
+        <v>274</v>
+      </c>
+      <c r="M21" s="361" t="s">
+        <v>276</v>
+      </c>
+      <c r="N21" s="297" t="s">
+        <v>312</v>
+      </c>
+      <c r="O21" s="297" t="s">
+        <v>313</v>
+      </c>
+      <c r="P21" s="297" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q21" s="297" t="s">
+        <v>276</v>
+      </c>
+      <c r="R21" s="300"/>
+      <c r="S21" s="300"/>
+      <c r="T21" s="300"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="365"/>
+      <c r="C22" s="358" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="100">
+        <v>0</v>
+      </c>
+      <c r="E22" s="286">
+        <v>0</v>
+      </c>
+      <c r="F22" s="286">
+        <v>0</v>
+      </c>
+      <c r="G22" s="367">
+        <v>0</v>
+      </c>
+      <c r="H22" s="286">
+        <v>0</v>
+      </c>
+      <c r="I22" s="286">
+        <v>0</v>
+      </c>
+      <c r="J22" s="286">
+        <v>0</v>
+      </c>
+      <c r="K22" s="286">
+        <v>0</v>
+      </c>
+      <c r="L22" s="286">
+        <v>0</v>
+      </c>
+      <c r="M22" s="286">
+        <v>0</v>
+      </c>
+      <c r="N22" s="286">
+        <v>0</v>
+      </c>
+      <c r="O22" s="296">
+        <v>0</v>
+      </c>
+      <c r="P22" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="296">
+        <v>0</v>
+      </c>
+      <c r="R22" s="298"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="366" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="364" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="286">
+        <v>1</v>
+      </c>
+      <c r="E23" s="286">
+        <v>1</v>
+      </c>
+      <c r="F23" s="286">
+        <v>1</v>
+      </c>
+      <c r="G23" s="367">
+        <v>0</v>
+      </c>
+      <c r="H23" s="286">
+        <v>1</v>
+      </c>
+      <c r="I23" s="286">
+        <v>1</v>
+      </c>
+      <c r="J23" s="286">
+        <v>1</v>
+      </c>
+      <c r="K23" s="286">
+        <v>1</v>
+      </c>
+      <c r="L23" s="286">
+        <v>0</v>
+      </c>
+      <c r="M23" s="286">
+        <v>1</v>
+      </c>
+      <c r="N23" s="286">
+        <v>1</v>
+      </c>
+      <c r="O23" s="286">
+        <v>1</v>
+      </c>
+      <c r="P23" s="286">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="286">
+        <v>1</v>
+      </c>
+      <c r="R23" s="298"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="366"/>
+      <c r="C24" s="364" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="286">
+        <v>2</v>
+      </c>
+      <c r="E24" s="286">
+        <v>1</v>
+      </c>
+      <c r="F24" s="286">
+        <v>2</v>
+      </c>
+      <c r="G24" s="286">
+        <v>1</v>
+      </c>
+      <c r="H24" s="367">
+        <v>0</v>
+      </c>
+      <c r="I24" s="367">
+        <v>1</v>
+      </c>
+      <c r="J24" s="286">
+        <v>2</v>
+      </c>
+      <c r="K24" s="286">
+        <v>1</v>
+      </c>
+      <c r="L24" s="286">
+        <v>1</v>
+      </c>
+      <c r="M24" s="286">
+        <v>1</v>
+      </c>
+      <c r="N24" s="286">
+        <v>2</v>
+      </c>
+      <c r="O24" s="286">
+        <v>1</v>
+      </c>
+      <c r="P24" s="286">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="286">
+        <v>1</v>
+      </c>
+      <c r="R24" s="298"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="366"/>
+      <c r="C25" s="364" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="286">
+        <v>3</v>
+      </c>
+      <c r="E25" s="286">
+        <v>2</v>
+      </c>
+      <c r="F25" s="286">
+        <v>1</v>
+      </c>
+      <c r="G25" s="286">
+        <v>2</v>
+      </c>
+      <c r="H25" s="286">
+        <v>1</v>
+      </c>
+      <c r="I25" s="286">
+        <v>1</v>
+      </c>
+      <c r="J25" s="367">
+        <v>1</v>
+      </c>
+      <c r="K25" s="286">
+        <v>2</v>
+      </c>
+      <c r="L25" s="286">
+        <v>2</v>
+      </c>
+      <c r="M25" s="286">
+        <v>2</v>
+      </c>
+      <c r="N25" s="286">
+        <v>1</v>
+      </c>
+      <c r="O25" s="286">
+        <v>2</v>
+      </c>
+      <c r="P25" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="286">
+        <v>2</v>
+      </c>
+      <c r="R25" s="298"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="366"/>
+      <c r="C26" s="364" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="286">
+        <v>4</v>
+      </c>
+      <c r="E26" s="286">
+        <v>3</v>
+      </c>
+      <c r="F26" s="286">
+        <v>2</v>
+      </c>
+      <c r="G26" s="286">
+        <v>2</v>
+      </c>
+      <c r="H26" s="286">
+        <v>2</v>
+      </c>
+      <c r="I26" s="286">
+        <v>2</v>
+      </c>
+      <c r="J26" s="286">
+        <v>2</v>
+      </c>
+      <c r="K26" s="367">
+        <v>1</v>
+      </c>
+      <c r="L26" s="286">
+        <v>2</v>
+      </c>
+      <c r="M26" s="286">
+        <v>3</v>
+      </c>
+      <c r="N26" s="286">
+        <v>2</v>
+      </c>
+      <c r="O26" s="286">
+        <v>1</v>
+      </c>
+      <c r="P26" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="286">
+        <v>3</v>
+      </c>
+      <c r="R26" s="298"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="366"/>
+      <c r="C27" s="364" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="286">
+        <v>5</v>
+      </c>
+      <c r="E27" s="286">
+        <v>4</v>
+      </c>
+      <c r="F27" s="286">
+        <v>3</v>
+      </c>
+      <c r="G27" s="286">
+        <v>3</v>
+      </c>
+      <c r="H27" s="286">
+        <v>2</v>
+      </c>
+      <c r="I27" s="286">
+        <v>3</v>
+      </c>
+      <c r="J27" s="286">
+        <v>3</v>
+      </c>
+      <c r="K27" s="367">
+        <v>2</v>
+      </c>
+      <c r="L27" s="286">
+        <v>2</v>
+      </c>
+      <c r="M27" s="286">
+        <v>3</v>
+      </c>
+      <c r="N27" s="286">
+        <v>3</v>
+      </c>
+      <c r="O27" s="286">
+        <v>2</v>
+      </c>
+      <c r="P27" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="286">
+        <v>3</v>
+      </c>
+      <c r="R27" s="298"/>
+      <c r="S27" s="298"/>
+      <c r="T27" s="298"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="366"/>
+      <c r="C28" s="364" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="286">
+        <v>6</v>
+      </c>
+      <c r="E28" s="286">
+        <v>5</v>
+      </c>
+      <c r="F28" s="286">
+        <v>4</v>
+      </c>
+      <c r="G28" s="286">
+        <v>3</v>
+      </c>
+      <c r="H28" s="286">
+        <v>3</v>
+      </c>
+      <c r="I28" s="286">
+        <v>3</v>
+      </c>
+      <c r="J28" s="286">
+        <v>4</v>
+      </c>
+      <c r="K28" s="286">
+        <v>3</v>
+      </c>
+      <c r="L28" s="367">
+        <v>2</v>
+      </c>
+      <c r="M28" s="286">
+        <v>3</v>
+      </c>
+      <c r="N28" s="286">
+        <v>4</v>
+      </c>
+      <c r="O28" s="286">
+        <v>3</v>
+      </c>
+      <c r="P28" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="286">
+        <v>3</v>
+      </c>
+      <c r="R28" s="298"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="366"/>
+      <c r="C29" s="364" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="286">
+        <v>7</v>
+      </c>
+      <c r="E29" s="286">
+        <v>6</v>
+      </c>
+      <c r="F29" s="286">
+        <v>5</v>
+      </c>
+      <c r="G29" s="286">
+        <v>4</v>
+      </c>
+      <c r="H29" s="286">
+        <v>3</v>
+      </c>
+      <c r="I29" s="286">
+        <v>4</v>
+      </c>
+      <c r="J29" s="286">
+        <v>4</v>
+      </c>
+      <c r="K29" s="286">
+        <v>4</v>
+      </c>
+      <c r="L29" s="286">
+        <v>3</v>
+      </c>
+      <c r="M29" s="367">
+        <v>3</v>
+      </c>
+      <c r="N29" s="286">
+        <v>4</v>
+      </c>
+      <c r="O29" s="286">
+        <v>4</v>
+      </c>
+      <c r="P29" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="286">
+        <v>3</v>
+      </c>
+      <c r="R29" s="298"/>
+      <c r="S29" s="298"/>
+      <c r="T29" s="298"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="366"/>
+      <c r="C30" s="364" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="296">
+        <v>8</v>
+      </c>
+      <c r="E30" s="286">
+        <v>7</v>
+      </c>
+      <c r="F30" s="286">
+        <v>6</v>
+      </c>
+      <c r="G30" s="286">
+        <v>5</v>
+      </c>
+      <c r="H30" s="286">
+        <v>4</v>
+      </c>
+      <c r="I30" s="286">
+        <v>4</v>
+      </c>
+      <c r="J30" s="286">
+        <v>4</v>
+      </c>
+      <c r="K30" s="286">
+        <v>5</v>
+      </c>
+      <c r="L30" s="286">
+        <v>4</v>
+      </c>
+      <c r="M30" s="286">
+        <v>4</v>
+      </c>
+      <c r="N30" s="367">
+        <v>3</v>
+      </c>
+      <c r="O30" s="286">
+        <v>4</v>
+      </c>
+      <c r="P30" s="286">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="286">
+        <v>4</v>
+      </c>
+      <c r="R30" s="298"/>
+      <c r="S30" s="298"/>
+      <c r="T30" s="298"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E32" s="301" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="301" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="301" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="301" t="s">
+        <v>318</v>
+      </c>
+      <c r="I32" s="301" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="301" t="s">
+        <v>312</v>
+      </c>
+      <c r="K32" s="301" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" s="91" t="s">
+        <v>320</v>
+      </c>
+      <c r="M32" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="N32" s="368" t="s">
+        <v>314</v>
+      </c>
+      <c r="O32" s="301" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="301" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="301" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="301" t="s">
+        <v>274</v>
+      </c>
+      <c r="H33" s="301" t="s">
+        <v>318</v>
+      </c>
+      <c r="I33" s="301" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" s="301" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" s="301" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" s="301" t="s">
+        <v>274</v>
+      </c>
+      <c r="N33" s="368" t="s">
+        <v>313</v>
+      </c>
+      <c r="O33" s="301" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D36" s="359" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="359" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" s="361" t="s">
+        <v>274</v>
+      </c>
+      <c r="H36" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="I36" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" s="361" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" s="361" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" s="361" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="358" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="100">
+        <v>0</v>
+      </c>
+      <c r="E37" s="286">
+        <v>0</v>
+      </c>
+      <c r="F37" s="286">
+        <v>0</v>
+      </c>
+      <c r="G37" s="286">
+        <v>0</v>
+      </c>
+      <c r="H37" s="286">
+        <v>0</v>
+      </c>
+      <c r="I37" s="286">
+        <v>0</v>
+      </c>
+      <c r="J37" s="286">
+        <v>0</v>
+      </c>
+      <c r="K37" s="286">
+        <v>0</v>
+      </c>
+      <c r="L37" s="286">
+        <v>0</v>
+      </c>
+      <c r="M37" s="286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="364" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="286">
+        <v>1</v>
+      </c>
+      <c r="E38" s="286">
+        <v>0</v>
+      </c>
+      <c r="F38" s="286">
+        <v>1</v>
+      </c>
+      <c r="G38" s="286">
+        <v>0</v>
+      </c>
+      <c r="H38" s="286">
+        <v>1</v>
+      </c>
+      <c r="I38" s="286">
+        <v>1</v>
+      </c>
+      <c r="J38" s="286">
+        <v>0</v>
+      </c>
+      <c r="K38" s="286">
+        <v>1</v>
+      </c>
+      <c r="L38" s="286">
+        <v>1</v>
+      </c>
+      <c r="M38" s="286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="364" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="286">
+        <v>2</v>
+      </c>
+      <c r="E39" s="286">
+        <v>1</v>
+      </c>
+      <c r="F39" s="286">
+        <v>0</v>
+      </c>
+      <c r="G39" s="286">
+        <v>1</v>
+      </c>
+      <c r="H39" s="286">
+        <v>0</v>
+      </c>
+      <c r="I39" s="286">
+        <v>1</v>
+      </c>
+      <c r="J39" s="286">
+        <v>1</v>
+      </c>
+      <c r="K39" s="286">
+        <v>0</v>
+      </c>
+      <c r="L39" s="286">
+        <v>1</v>
+      </c>
+      <c r="M39" s="286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="364" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="286">
+        <v>3</v>
+      </c>
+      <c r="E40" s="286">
+        <v>2</v>
+      </c>
+      <c r="F40" s="286">
+        <v>1</v>
+      </c>
+      <c r="G40" s="286">
+        <v>1</v>
+      </c>
+      <c r="H40" s="286">
+        <v>1</v>
+      </c>
+      <c r="I40" s="286">
+        <v>0</v>
+      </c>
+      <c r="J40" s="286">
+        <v>1</v>
+      </c>
+      <c r="K40" s="286">
+        <v>1</v>
+      </c>
+      <c r="L40" s="286">
+        <v>0</v>
+      </c>
+      <c r="M40" s="286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="364" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="286">
+        <v>4</v>
+      </c>
+      <c r="E41" s="286">
+        <v>3</v>
+      </c>
+      <c r="F41" s="286">
+        <v>2</v>
+      </c>
+      <c r="G41" s="286">
+        <v>2</v>
+      </c>
+      <c r="H41" s="286">
+        <v>2</v>
+      </c>
+      <c r="I41" s="286">
+        <v>1</v>
+      </c>
+      <c r="J41" s="286">
+        <v>1</v>
+      </c>
+      <c r="K41" s="286">
+        <v>2</v>
+      </c>
+      <c r="L41" s="286">
+        <v>1</v>
+      </c>
+      <c r="M41" s="286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="364" t="s">
+        <v>313</v>
+      </c>
+      <c r="D42" s="286">
+        <v>5</v>
+      </c>
+      <c r="E42" s="286">
+        <v>4</v>
+      </c>
+      <c r="F42" s="286">
+        <v>3</v>
+      </c>
+      <c r="G42" s="286">
+        <v>3</v>
+      </c>
+      <c r="H42" s="286">
+        <v>2</v>
+      </c>
+      <c r="I42" s="286">
+        <v>2</v>
+      </c>
+      <c r="J42" s="286">
+        <v>2</v>
+      </c>
+      <c r="K42" s="286">
+        <v>1</v>
+      </c>
+      <c r="L42" s="286">
+        <v>2</v>
+      </c>
+      <c r="M42" s="286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="364" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="286">
+        <v>6</v>
+      </c>
+      <c r="E43" s="286">
+        <v>5</v>
+      </c>
+      <c r="F43" s="286">
+        <v>4</v>
+      </c>
+      <c r="G43" s="286">
+        <v>3</v>
+      </c>
+      <c r="H43" s="286">
+        <v>3</v>
+      </c>
+      <c r="I43" s="286">
+        <v>3</v>
+      </c>
+      <c r="J43" s="286">
+        <v>2</v>
+      </c>
+      <c r="K43" s="286">
+        <v>2</v>
+      </c>
+      <c r="L43" s="286">
+        <v>2</v>
+      </c>
+      <c r="M43" s="286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="364" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="286">
+        <v>7</v>
+      </c>
+      <c r="E44" s="286">
+        <v>6</v>
+      </c>
+      <c r="F44" s="286">
+        <v>5</v>
+      </c>
+      <c r="G44" s="286">
+        <v>4</v>
+      </c>
+      <c r="H44" s="286">
+        <v>4</v>
+      </c>
+      <c r="I44" s="286">
+        <v>4</v>
+      </c>
+      <c r="J44" s="286">
+        <v>3</v>
+      </c>
+      <c r="K44" s="286">
+        <v>3</v>
+      </c>
+      <c r="L44" s="305">
+        <v>2</v>
+      </c>
+      <c r="M44" s="286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E46" s="359" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="359" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="361" t="s">
+        <v>320</v>
+      </c>
+      <c r="H46" s="203" t="s">
+        <v>274</v>
+      </c>
+      <c r="I46" s="302" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" s="361" t="s">
+        <v>274</v>
+      </c>
+      <c r="L46" s="361" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" s="361" t="s">
+        <v>276</v>
+      </c>
+      <c r="N46" s="361" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E47" s="296" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="296" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="296" t="s">
+        <v>276</v>
+      </c>
+      <c r="H47" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="I47" s="296" t="s">
+        <v>313</v>
+      </c>
+      <c r="J47" s="296" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="296" t="s">
+        <v>274</v>
+      </c>
+      <c r="L47" s="296" t="s">
+        <v>320</v>
+      </c>
+      <c r="M47" s="296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G48" s="369" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="299" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="299"/>
+      <c r="J48" s="299" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="299"/>
+      <c r="L48" s="299" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="E20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
@@ -5305,38 +7103,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="G1" s="299" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="G1" s="316" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="299"/>
-      <c r="J1" s="300" t="s">
+      <c r="H1" s="316"/>
+      <c r="J1" s="317" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="P1" s="300" t="s">
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="317"/>
+      <c r="P1" s="317" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="300"/>
-      <c r="S1" s="300"/>
-      <c r="T1" s="300"/>
-      <c r="V1" s="309" t="s">
+      <c r="Q1" s="317"/>
+      <c r="R1" s="317"/>
+      <c r="S1" s="317"/>
+      <c r="T1" s="317"/>
+      <c r="V1" s="327" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="309"/>
-      <c r="X1" s="309"/>
-      <c r="Y1" s="309"/>
-      <c r="Z1" s="309"/>
+      <c r="W1" s="327"/>
+      <c r="X1" s="327"/>
+      <c r="Y1" s="327"/>
+      <c r="Z1" s="327"/>
       <c r="AA1" t="s">
         <v>157</v>
       </c>
@@ -5716,13 +7514,13 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V7" s="333" t="s">
+      <c r="V7" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="333"/>
-      <c r="X7" s="333"/>
-      <c r="Y7" s="333"/>
-      <c r="Z7" s="334"/>
+      <c r="W7" s="354"/>
+      <c r="X7" s="354"/>
+      <c r="Y7" s="354"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="185">
         <f>SUM(AA2:AA6)</f>
         <v>52.155432816864746</v>
@@ -5732,13 +7530,13 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V8" s="335" t="s">
+      <c r="V8" s="356" t="s">
         <v>133</v>
       </c>
-      <c r="W8" s="335"/>
-      <c r="X8" s="335"/>
-      <c r="Y8" s="335"/>
-      <c r="Z8" s="336"/>
+      <c r="W8" s="356"/>
+      <c r="X8" s="356"/>
+      <c r="Y8" s="356"/>
+      <c r="Z8" s="357"/>
       <c r="AA8" s="3">
         <v>23</v>
       </c>
@@ -5747,13 +7545,13 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V9" s="297" t="s">
+      <c r="V9" s="320" t="s">
         <v>204</v>
       </c>
-      <c r="W9" s="297"/>
-      <c r="X9" s="297"/>
-      <c r="Y9" s="297"/>
-      <c r="Z9" s="297"/>
+      <c r="W9" s="320"/>
+      <c r="X9" s="320"/>
+      <c r="Y9" s="320"/>
+      <c r="Z9" s="320"/>
       <c r="AA9" s="175">
         <f>SQRT(AA7/AA8)</f>
         <v>1.5058643742969444</v>
@@ -5783,7 +7581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:K11"/>
   <sheetViews>
@@ -5798,19 +7596,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="346" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
+      <c r="B2" s="347"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
@@ -6150,7 +7948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:CD105"/>
   <sheetViews>
@@ -6183,15 +7981,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="347" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
       <c r="V1" s="120" t="s">
         <v>154</v>
       </c>
@@ -6323,16 +8121,16 @@
       <c r="G2" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="331" t="s">
+      <c r="I2" s="352" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="331"/>
-      <c r="K2" s="331"/>
-      <c r="L2" s="331"/>
-      <c r="M2" s="331"/>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
+      <c r="J2" s="352"/>
+      <c r="K2" s="352"/>
+      <c r="L2" s="352"/>
+      <c r="M2" s="352"/>
+      <c r="N2" s="352"/>
+      <c r="O2" s="352"/>
+      <c r="P2" s="352"/>
       <c r="U2" s="3" t="s">
         <v>143</v>
       </c>
@@ -8419,17 +10217,17 @@
       </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A16" s="327" t="s">
+      <c r="A16" s="348" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="328"/>
-      <c r="C16" s="328"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="328"/>
-      <c r="F16" s="328"/>
-      <c r="G16" s="328"/>
-      <c r="H16" s="328"/>
-      <c r="I16" s="328"/>
+      <c r="B16" s="349"/>
+      <c r="C16" s="349"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="349"/>
+      <c r="F16" s="349"/>
+      <c r="G16" s="349"/>
+      <c r="H16" s="349"/>
+      <c r="I16" s="349"/>
       <c r="U16" s="3" t="s">
         <v>143</v>
       </c>
@@ -10103,17 +11901,17 @@
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="I28" s="325" t="s">
+      <c r="I28" s="346" t="s">
         <v>268</v>
       </c>
-      <c r="J28" s="326"/>
-      <c r="K28" s="326"/>
-      <c r="L28" s="326"/>
-      <c r="M28" s="326"/>
-      <c r="N28" s="326"/>
-      <c r="O28" s="326"/>
-      <c r="P28" s="326"/>
-      <c r="Q28" s="326"/>
+      <c r="J28" s="347"/>
+      <c r="K28" s="347"/>
+      <c r="L28" s="347"/>
+      <c r="M28" s="347"/>
+      <c r="N28" s="347"/>
+      <c r="O28" s="347"/>
+      <c r="P28" s="347"/>
+      <c r="Q28" s="347"/>
     </row>
     <row r="29" spans="1:75" ht="30" x14ac:dyDescent="0.25">
       <c r="I29" s="173" t="s">
@@ -16598,31 +18396,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="317" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="G1" s="300" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="G1" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="306" t="s">
+      <c r="M1" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="307"/>
-      <c r="S1" s="307"/>
-      <c r="T1" s="308"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
+      <c r="S1" s="325"/>
+      <c r="T1" s="326"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -16967,35 +18765,35 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M8" s="303" t="s">
+      <c r="M8" s="323" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="303"/>
-      <c r="Q8" s="303"/>
-      <c r="R8" s="303"/>
-      <c r="S8" s="303"/>
-      <c r="T8" s="303"/>
+      <c r="N8" s="323"/>
+      <c r="O8" s="323"/>
+      <c r="P8" s="323"/>
+      <c r="Q8" s="323"/>
+      <c r="R8" s="323"/>
+      <c r="S8" s="323"/>
+      <c r="T8" s="323"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="309" t="s">
+      <c r="M9" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="309"/>
-      <c r="R9" s="309"/>
-      <c r="S9" s="309"/>
-      <c r="T9" s="309"/>
-      <c r="V9" s="302" t="s">
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="327"/>
+      <c r="S9" s="327"/>
+      <c r="T9" s="327"/>
+      <c r="V9" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="302"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="302"/>
-      <c r="Z9" s="302"/>
+      <c r="W9" s="322"/>
+      <c r="X9" s="322"/>
+      <c r="Y9" s="322"/>
+      <c r="Z9" s="322"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V10" s="181" t="s">
@@ -17015,14 +18813,14 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F11" s="304" t="s">
+      <c r="F11" s="328" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="305"/>
-      <c r="H11" s="305"/>
-      <c r="I11" s="305"/>
-      <c r="J11" s="305"/>
-      <c r="K11" s="305"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="329"/>
+      <c r="K11" s="329"/>
       <c r="M11" s="293"/>
       <c r="N11" s="293" t="s">
         <v>22</v>
@@ -17143,13 +18941,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="285"/>
-      <c r="V13" s="303" t="s">
+      <c r="V13" s="323" t="s">
         <v>223</v>
       </c>
-      <c r="W13" s="303"/>
-      <c r="X13" s="303"/>
-      <c r="Y13" s="303"/>
-      <c r="Z13" s="303"/>
+      <c r="W13" s="323"/>
+      <c r="X13" s="323"/>
+      <c r="Y13" s="323"/>
+      <c r="Z13" s="323"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" s="8">
@@ -17190,13 +18988,13 @@
         <v>1</v>
       </c>
       <c r="T14" s="285"/>
-      <c r="V14" s="302" t="s">
+      <c r="V14" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="302"/>
-      <c r="X14" s="302"/>
-      <c r="Y14" s="302"/>
-      <c r="Z14" s="302"/>
+      <c r="W14" s="322"/>
+      <c r="X14" s="322"/>
+      <c r="Y14" s="322"/>
+      <c r="Z14" s="322"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" s="8">
@@ -17364,25 +19162,25 @@
       </c>
     </row>
     <row r="18" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="V18" s="303" t="s">
+      <c r="V18" s="323" t="s">
         <v>224</v>
       </c>
-      <c r="W18" s="303"/>
-      <c r="X18" s="303"/>
-      <c r="Y18" s="303"/>
-      <c r="Z18" s="303"/>
+      <c r="W18" s="323"/>
+      <c r="X18" s="323"/>
+      <c r="Y18" s="323"/>
+      <c r="Z18" s="323"/>
     </row>
     <row r="19" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M19" s="293"/>
-      <c r="N19" s="300" t="s">
+      <c r="N19" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="300"/>
-      <c r="P19" s="300"/>
-      <c r="Q19" s="300"/>
-      <c r="R19" s="300"/>
-      <c r="S19" s="300"/>
-      <c r="T19" s="300"/>
+      <c r="O19" s="317"/>
+      <c r="P19" s="317"/>
+      <c r="Q19" s="317"/>
+      <c r="R19" s="317"/>
+      <c r="S19" s="317"/>
+      <c r="T19" s="317"/>
     </row>
     <row r="20" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M20" s="4"/>
@@ -17517,13 +19315,13 @@
       </c>
     </row>
     <row r="26" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="N26" s="302" t="s">
+      <c r="N26" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="302"/>
-      <c r="P26" s="302"/>
-      <c r="Q26" s="302"/>
-      <c r="R26" s="302"/>
+      <c r="O26" s="322"/>
+      <c r="P26" s="322"/>
+      <c r="Q26" s="322"/>
+      <c r="R26" s="322"/>
     </row>
     <row r="27" spans="6:36" x14ac:dyDescent="0.25">
       <c r="N27" s="12" t="s">
@@ -17577,27 +19375,27 @@
       </c>
     </row>
     <row r="30" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="N30" s="302" t="s">
+      <c r="N30" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="302"/>
-      <c r="P30" s="302"/>
-      <c r="Q30" s="302"/>
-      <c r="R30" s="302"/>
-      <c r="V30" s="302" t="s">
+      <c r="O30" s="322"/>
+      <c r="P30" s="322"/>
+      <c r="Q30" s="322"/>
+      <c r="R30" s="322"/>
+      <c r="V30" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="W30" s="302"/>
-      <c r="X30" s="302"/>
-      <c r="Y30" s="302"/>
-      <c r="Z30" s="302"/>
-      <c r="AD30" s="302" t="s">
+      <c r="W30" s="322"/>
+      <c r="X30" s="322"/>
+      <c r="Y30" s="322"/>
+      <c r="Z30" s="322"/>
+      <c r="AD30" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="AE30" s="302"/>
-      <c r="AF30" s="302"/>
-      <c r="AG30" s="302"/>
-      <c r="AH30" s="302"/>
+      <c r="AE30" s="322"/>
+      <c r="AF30" s="322"/>
+      <c r="AG30" s="322"/>
+      <c r="AH30" s="322"/>
     </row>
     <row r="31" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L31" s="5"/>
@@ -17778,53 +19576,53 @@
     </row>
     <row r="34" spans="12:36" x14ac:dyDescent="0.25">
       <c r="L34" s="5"/>
-      <c r="N34" s="303" t="s">
+      <c r="N34" s="323" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="303"/>
-      <c r="P34" s="303"/>
-      <c r="Q34" s="303"/>
-      <c r="R34" s="303"/>
+      <c r="O34" s="323"/>
+      <c r="P34" s="323"/>
+      <c r="Q34" s="323"/>
+      <c r="R34" s="323"/>
       <c r="S34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T34" s="13"/>
-      <c r="V34" s="303" t="s">
+      <c r="V34" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="W34" s="303"/>
-      <c r="X34" s="303"/>
-      <c r="Y34" s="303"/>
-      <c r="Z34" s="303"/>
+      <c r="W34" s="323"/>
+      <c r="X34" s="323"/>
+      <c r="Y34" s="323"/>
+      <c r="Z34" s="323"/>
       <c r="AA34" t="s">
         <v>37</v>
       </c>
-      <c r="AD34" s="303" t="s">
+      <c r="AD34" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="AE34" s="303"/>
-      <c r="AF34" s="303"/>
-      <c r="AG34" s="303"/>
-      <c r="AH34" s="303"/>
+      <c r="AE34" s="323"/>
+      <c r="AF34" s="323"/>
+      <c r="AG34" s="323"/>
+      <c r="AH34" s="323"/>
       <c r="AI34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="12:36" x14ac:dyDescent="0.25">
-      <c r="N35" s="302" t="s">
+      <c r="N35" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="O35" s="302"/>
-      <c r="P35" s="302"/>
-      <c r="Q35" s="302"/>
-      <c r="R35" s="302"/>
-      <c r="V35" s="302" t="s">
+      <c r="O35" s="322"/>
+      <c r="P35" s="322"/>
+      <c r="Q35" s="322"/>
+      <c r="R35" s="322"/>
+      <c r="V35" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="302"/>
-      <c r="X35" s="302"/>
-      <c r="Y35" s="302"/>
-      <c r="Z35" s="302"/>
+      <c r="W35" s="322"/>
+      <c r="X35" s="322"/>
+      <c r="Y35" s="322"/>
+      <c r="Z35" s="322"/>
     </row>
     <row r="36" spans="12:36" x14ac:dyDescent="0.25">
       <c r="L36" s="5"/>
@@ -17947,51 +19745,51 @@
       </c>
     </row>
     <row r="39" spans="12:36" x14ac:dyDescent="0.25">
-      <c r="N39" s="303" t="s">
+      <c r="N39" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="303"/>
-      <c r="P39" s="303"/>
-      <c r="Q39" s="303"/>
-      <c r="R39" s="303"/>
+      <c r="O39" s="323"/>
+      <c r="P39" s="323"/>
+      <c r="Q39" s="323"/>
+      <c r="R39" s="323"/>
       <c r="S39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="303" t="s">
+      <c r="V39" s="323" t="s">
         <v>35</v>
       </c>
-      <c r="W39" s="303"/>
-      <c r="X39" s="303"/>
-      <c r="Y39" s="303"/>
-      <c r="Z39" s="303"/>
+      <c r="W39" s="323"/>
+      <c r="X39" s="323"/>
+      <c r="Y39" s="323"/>
+      <c r="Z39" s="323"/>
       <c r="AA39" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V39:Z39"/>
     <mergeCell ref="N19:T19"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="N30:R30"/>
     <mergeCell ref="N35:R35"/>
     <mergeCell ref="V35:Z35"/>
     <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="F11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18034,50 +19832,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="317" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="M1" s="310" t="s">
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="M1" s="337" t="s">
         <v>298</v>
       </c>
-      <c r="N1" s="310"/>
-      <c r="O1" s="310"/>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="310"/>
-      <c r="S1" s="310"/>
-      <c r="Y1" s="310" t="s">
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
+      <c r="P1" s="337"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="337"/>
+      <c r="Y1" s="337" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="310"/>
-      <c r="AA1" s="310"/>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="310"/>
-      <c r="AD1" s="310"/>
-      <c r="AE1" s="310"/>
+      <c r="Z1" s="337"/>
+      <c r="AA1" s="337"/>
+      <c r="AB1" s="337"/>
+      <c r="AC1" s="337"/>
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
+      <c r="A2" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
       <c r="H2" s="176" t="s">
         <v>18</v>
       </c>
@@ -18090,26 +19888,26 @@
       <c r="K2" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="311" t="s">
+      <c r="M2" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-      <c r="P2" s="311"/>
-      <c r="Q2" s="311"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="311"/>
+      <c r="N2" s="331"/>
+      <c r="O2" s="331"/>
+      <c r="P2" s="331"/>
+      <c r="Q2" s="331"/>
+      <c r="R2" s="331"/>
+      <c r="S2" s="331"/>
       <c r="T2" s="178"/>
       <c r="U2" s="178"/>
-      <c r="Y2" s="311" t="s">
+      <c r="Y2" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="311"/>
-      <c r="AA2" s="311"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="311"/>
-      <c r="AD2" s="311"/>
-      <c r="AE2" s="311"/>
+      <c r="Z2" s="331"/>
+      <c r="AA2" s="331"/>
+      <c r="AB2" s="331"/>
+      <c r="AC2" s="331"/>
+      <c r="AD2" s="331"/>
+      <c r="AE2" s="331"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -18577,15 +20375,15 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M8" s="315" t="s">
+      <c r="M8" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="315"/>
-      <c r="O8" s="315"/>
-      <c r="P8" s="315"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
+      <c r="N8" s="332"/>
+      <c r="O8" s="332"/>
+      <c r="P8" s="332"/>
+      <c r="Q8" s="332"/>
+      <c r="R8" s="332"/>
+      <c r="S8" s="332"/>
       <c r="T8" s="178"/>
       <c r="U8" s="7"/>
       <c r="V8" s="177" t="s">
@@ -18636,13 +20434,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="312"/>
-      <c r="N9" s="313"/>
-      <c r="O9" s="313"/>
-      <c r="P9" s="313"/>
-      <c r="Q9" s="313"/>
-      <c r="R9" s="313"/>
-      <c r="S9" s="314"/>
+      <c r="M9" s="334"/>
+      <c r="N9" s="335"/>
+      <c r="O9" s="335"/>
+      <c r="P9" s="335"/>
+      <c r="Q9" s="335"/>
+      <c r="R9" s="335"/>
+      <c r="S9" s="336"/>
       <c r="T9" s="7"/>
       <c r="U9" s="177"/>
       <c r="Y9" s="178"/>
@@ -18761,16 +20559,16 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="306" t="s">
+      <c r="A12" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="307"/>
-      <c r="C12" s="307"/>
-      <c r="D12" s="307"/>
-      <c r="E12" s="307"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="307"/>
-      <c r="H12" s="307"/>
+      <c r="B12" s="325"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="325"/>
       <c r="I12" s="204"/>
       <c r="J12" s="186"/>
       <c r="K12" s="186"/>
@@ -18962,30 +20760,30 @@
       </c>
       <c r="J15" s="181"/>
       <c r="K15" s="181"/>
-      <c r="M15" s="315" t="s">
+      <c r="M15" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="315"/>
-      <c r="O15" s="315"/>
-      <c r="P15" s="315"/>
-      <c r="Q15" s="315"/>
-      <c r="R15" s="315"/>
-      <c r="S15" s="315"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
+      <c r="P15" s="332"/>
+      <c r="Q15" s="332"/>
+      <c r="R15" s="332"/>
+      <c r="S15" s="332"/>
       <c r="T15" s="178"/>
       <c r="U15" s="177"/>
       <c r="V15" s="179" t="s">
         <v>213</v>
       </c>
       <c r="W15" s="178"/>
-      <c r="Y15" s="316" t="s">
+      <c r="Y15" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="Z15" s="316"/>
-      <c r="AA15" s="316"/>
-      <c r="AB15" s="316"/>
-      <c r="AC15" s="316"/>
-      <c r="AD15" s="316"/>
-      <c r="AE15" s="316"/>
+      <c r="Z15" s="333"/>
+      <c r="AA15" s="333"/>
+      <c r="AB15" s="333"/>
+      <c r="AC15" s="333"/>
+      <c r="AD15" s="333"/>
+      <c r="AE15" s="333"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -19018,15 +20816,15 @@
       </c>
       <c r="J16" s="181"/>
       <c r="K16" s="181"/>
-      <c r="M16" s="311" t="s">
+      <c r="M16" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="311"/>
-      <c r="O16" s="311"/>
-      <c r="P16" s="311"/>
-      <c r="Q16" s="311"/>
-      <c r="R16" s="311"/>
-      <c r="S16" s="311"/>
+      <c r="N16" s="331"/>
+      <c r="O16" s="331"/>
+      <c r="P16" s="331"/>
+      <c r="Q16" s="331"/>
+      <c r="R16" s="331"/>
+      <c r="S16" s="331"/>
       <c r="T16" s="178"/>
       <c r="U16" s="178"/>
       <c r="Y16" s="181" t="s">
@@ -19380,17 +21178,17 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="300" t="s">
+      <c r="A21" s="317" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
-      <c r="I21" s="300"/>
+      <c r="B21" s="317"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="317"/>
+      <c r="F21" s="317"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
       <c r="J21" s="186"/>
       <c r="K21" s="186"/>
       <c r="M21" s="285" t="s">
@@ -19421,15 +21219,15 @@
       <c r="V21" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="Y21" s="309" t="s">
+      <c r="Y21" s="327" t="s">
         <v>225</v>
       </c>
-      <c r="Z21" s="309"/>
-      <c r="AA21" s="309"/>
-      <c r="AB21" s="309"/>
-      <c r="AC21" s="309"/>
-      <c r="AD21" s="309"/>
-      <c r="AE21" s="309"/>
+      <c r="Z21" s="327"/>
+      <c r="AA21" s="327"/>
+      <c r="AB21" s="327"/>
+      <c r="AC21" s="327"/>
+      <c r="AD21" s="327"/>
+      <c r="AE21" s="327"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -19463,27 +21261,27 @@
         <v>41</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="M22" s="315" t="s">
+      <c r="M22" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="315"/>
-      <c r="O22" s="315"/>
-      <c r="P22" s="315"/>
-      <c r="Q22" s="315"/>
-      <c r="R22" s="315"/>
-      <c r="S22" s="315"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="332"/>
+      <c r="Q22" s="332"/>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
       <c r="T22" s="179"/>
       <c r="U22" s="178"/>
       <c r="V22" s="5"/>
-      <c r="Y22" s="316" t="s">
+      <c r="Y22" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="Z22" s="316"/>
-      <c r="AA22" s="316"/>
-      <c r="AB22" s="316"/>
-      <c r="AC22" s="316"/>
-      <c r="AD22" s="316"/>
-      <c r="AE22" s="316"/>
+      <c r="Z22" s="333"/>
+      <c r="AA22" s="333"/>
+      <c r="AB22" s="333"/>
+      <c r="AC22" s="333"/>
+      <c r="AD22" s="333"/>
+      <c r="AE22" s="333"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="180">
@@ -19519,15 +21317,15 @@
         <v>0</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="M23" s="311" t="s">
+      <c r="M23" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="311"/>
-      <c r="O23" s="311"/>
-      <c r="P23" s="311"/>
-      <c r="Q23" s="311"/>
-      <c r="R23" s="311"/>
-      <c r="S23" s="311"/>
+      <c r="N23" s="331"/>
+      <c r="O23" s="331"/>
+      <c r="P23" s="331"/>
+      <c r="Q23" s="331"/>
+      <c r="R23" s="331"/>
+      <c r="S23" s="331"/>
       <c r="T23" s="179"/>
       <c r="U23" s="179"/>
       <c r="Y23" s="181" t="s">
@@ -19952,15 +21750,15 @@
         <v>213</v>
       </c>
       <c r="W28" s="179"/>
-      <c r="Y28" s="309" t="s">
+      <c r="Y28" s="327" t="s">
         <v>226</v>
       </c>
-      <c r="Z28" s="309"/>
-      <c r="AA28" s="309"/>
-      <c r="AB28" s="309"/>
-      <c r="AC28" s="309"/>
-      <c r="AD28" s="309"/>
-      <c r="AE28" s="309"/>
+      <c r="Z28" s="327"/>
+      <c r="AA28" s="327"/>
+      <c r="AB28" s="327"/>
+      <c r="AC28" s="327"/>
+      <c r="AD28" s="327"/>
+      <c r="AE28" s="327"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -19995,55 +21793,55 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M29" s="297" t="s">
+      <c r="M29" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="297"/>
-      <c r="O29" s="297"/>
-      <c r="P29" s="297"/>
-      <c r="Q29" s="297"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="297"/>
+      <c r="N29" s="320"/>
+      <c r="O29" s="320"/>
+      <c r="P29" s="320"/>
+      <c r="Q29" s="320"/>
+      <c r="R29" s="320"/>
+      <c r="S29" s="320"/>
       <c r="T29" s="193"/>
       <c r="U29" s="193"/>
       <c r="V29" s="179"/>
       <c r="W29" s="179"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="306" t="s">
+      <c r="A30" s="324" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="307"/>
-      <c r="C30" s="307"/>
-      <c r="D30" s="307"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="307"/>
-      <c r="H30" s="307"/>
-      <c r="I30" s="307"/>
+      <c r="B30" s="325"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="325"/>
+      <c r="I30" s="325"/>
       <c r="J30" s="186"/>
       <c r="K30" s="186"/>
-      <c r="M30" s="311" t="s">
+      <c r="M30" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="311"/>
-      <c r="O30" s="311"/>
-      <c r="P30" s="311"/>
-      <c r="Q30" s="311"/>
-      <c r="R30" s="311"/>
-      <c r="S30" s="311"/>
+      <c r="N30" s="331"/>
+      <c r="O30" s="331"/>
+      <c r="P30" s="331"/>
+      <c r="Q30" s="331"/>
+      <c r="R30" s="331"/>
+      <c r="S30" s="331"/>
       <c r="T30" s="193"/>
       <c r="U30" s="193"/>
       <c r="V30" s="177"/>
-      <c r="Y30" s="297" t="s">
+      <c r="Y30" s="320" t="s">
         <v>222</v>
       </c>
-      <c r="Z30" s="297"/>
-      <c r="AA30" s="297"/>
-      <c r="AB30" s="297"/>
-      <c r="AC30" s="297"/>
-      <c r="AD30" s="297"/>
-      <c r="AE30" s="297"/>
+      <c r="Z30" s="320"/>
+      <c r="AA30" s="320"/>
+      <c r="AB30" s="320"/>
+      <c r="AC30" s="320"/>
+      <c r="AD30" s="320"/>
+      <c r="AE30" s="320"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -20279,15 +22077,15 @@
         <v>29</v>
       </c>
       <c r="W33" s="179"/>
-      <c r="Y33" s="297" t="s">
+      <c r="Y33" s="320" t="s">
         <v>219</v>
       </c>
-      <c r="Z33" s="297"/>
-      <c r="AA33" s="297"/>
-      <c r="AB33" s="297"/>
-      <c r="AC33" s="297"/>
-      <c r="AD33" s="297"/>
-      <c r="AE33" s="297"/>
+      <c r="Z33" s="320"/>
+      <c r="AA33" s="320"/>
+      <c r="AB33" s="320"/>
+      <c r="AC33" s="320"/>
+      <c r="AD33" s="320"/>
+      <c r="AE33" s="320"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -20497,26 +22295,26 @@
         <v>4</v>
       </c>
       <c r="L36" s="193"/>
-      <c r="M36" s="311" t="s">
+      <c r="M36" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="311"/>
-      <c r="O36" s="311"/>
-      <c r="P36" s="311"/>
-      <c r="Q36" s="311"/>
-      <c r="R36" s="311"/>
-      <c r="S36" s="311"/>
+      <c r="N36" s="331"/>
+      <c r="O36" s="331"/>
+      <c r="P36" s="331"/>
+      <c r="Q36" s="331"/>
+      <c r="R36" s="331"/>
+      <c r="S36" s="331"/>
       <c r="T36" s="178"/>
       <c r="U36" s="178"/>
-      <c r="Y36" s="297" t="s">
+      <c r="Y36" s="320" t="s">
         <v>220</v>
       </c>
-      <c r="Z36" s="297"/>
-      <c r="AA36" s="297"/>
-      <c r="AB36" s="297"/>
-      <c r="AC36" s="297"/>
-      <c r="AD36" s="297"/>
-      <c r="AE36" s="297"/>
+      <c r="Z36" s="320"/>
+      <c r="AA36" s="320"/>
+      <c r="AB36" s="320"/>
+      <c r="AC36" s="320"/>
+      <c r="AD36" s="320"/>
+      <c r="AE36" s="320"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="180">
@@ -20695,15 +22493,15 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="317"/>
-      <c r="B39" s="317"/>
-      <c r="C39" s="317"/>
-      <c r="D39" s="317"/>
-      <c r="E39" s="317"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
+      <c r="A39" s="330"/>
+      <c r="B39" s="330"/>
+      <c r="C39" s="330"/>
+      <c r="D39" s="330"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
       <c r="J39" s="197"/>
       <c r="K39" s="197"/>
       <c r="L39" s="177"/>
@@ -20736,25 +22534,25 @@
         <v>42</v>
       </c>
       <c r="W39" s="179"/>
-      <c r="Y39" s="297" t="s">
+      <c r="Y39" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="Z39" s="297"/>
-      <c r="AA39" s="297"/>
-      <c r="AB39" s="297"/>
-      <c r="AC39" s="297"/>
-      <c r="AD39" s="297"/>
-      <c r="AE39" s="297"/>
+      <c r="Z39" s="320"/>
+      <c r="AA39" s="320"/>
+      <c r="AB39" s="320"/>
+      <c r="AC39" s="320"/>
+      <c r="AD39" s="320"/>
+      <c r="AE39" s="320"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="178"/>
-      <c r="B40" s="301"/>
-      <c r="C40" s="301"/>
-      <c r="D40" s="301"/>
-      <c r="E40" s="301"/>
-      <c r="F40" s="301"/>
-      <c r="G40" s="301"/>
-      <c r="H40" s="301"/>
+      <c r="B40" s="319"/>
+      <c r="C40" s="319"/>
+      <c r="D40" s="319"/>
+      <c r="E40" s="319"/>
+      <c r="F40" s="319"/>
+      <c r="G40" s="319"/>
+      <c r="H40" s="319"/>
       <c r="I40" s="7"/>
       <c r="J40" s="178"/>
       <c r="K40" s="178"/>
@@ -20886,15 +22684,15 @@
       <c r="I42" s="178"/>
       <c r="J42" s="178"/>
       <c r="K42" s="178"/>
-      <c r="M42" s="297" t="s">
+      <c r="M42" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="297"/>
-      <c r="O42" s="297"/>
-      <c r="P42" s="297"/>
-      <c r="Q42" s="297"/>
-      <c r="R42" s="297"/>
-      <c r="S42" s="297"/>
+      <c r="N42" s="320"/>
+      <c r="O42" s="320"/>
+      <c r="P42" s="320"/>
+      <c r="Q42" s="320"/>
+      <c r="R42" s="320"/>
+      <c r="S42" s="320"/>
       <c r="T42" s="201"/>
       <c r="U42" s="178"/>
     </row>
@@ -20910,15 +22708,15 @@
       <c r="I43" s="178"/>
       <c r="J43" s="178"/>
       <c r="K43" s="178"/>
-      <c r="M43" s="311" t="s">
+      <c r="M43" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="311"/>
-      <c r="O43" s="311"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="311"/>
-      <c r="R43" s="311"/>
-      <c r="S43" s="311"/>
+      <c r="N43" s="331"/>
+      <c r="O43" s="331"/>
+      <c r="P43" s="331"/>
+      <c r="Q43" s="331"/>
+      <c r="R43" s="331"/>
+      <c r="S43" s="331"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="178"/>
@@ -20959,13 +22757,13 @@
       <c r="V44" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="X44" s="301"/>
-      <c r="Y44" s="301"/>
-      <c r="Z44" s="301"/>
-      <c r="AA44" s="301"/>
-      <c r="AB44" s="301"/>
-      <c r="AC44" s="301"/>
-      <c r="AD44" s="301"/>
+      <c r="X44" s="319"/>
+      <c r="Y44" s="319"/>
+      <c r="Z44" s="319"/>
+      <c r="AA44" s="319"/>
+      <c r="AB44" s="319"/>
+      <c r="AC44" s="319"/>
+      <c r="AD44" s="319"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="178"/>
@@ -21112,15 +22910,15 @@
       <c r="AD47" s="178"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="317"/>
-      <c r="B48" s="317"/>
-      <c r="C48" s="317"/>
-      <c r="D48" s="317"/>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
+      <c r="A48" s="330"/>
+      <c r="B48" s="330"/>
+      <c r="C48" s="330"/>
+      <c r="D48" s="330"/>
+      <c r="E48" s="330"/>
+      <c r="F48" s="330"/>
+      <c r="G48" s="330"/>
+      <c r="H48" s="330"/>
+      <c r="I48" s="330"/>
       <c r="J48" s="197"/>
       <c r="K48" s="197"/>
       <c r="M48" s="180" t="s">
@@ -21171,15 +22969,15 @@
       <c r="I49" s="7"/>
       <c r="J49" s="178"/>
       <c r="K49" s="178"/>
-      <c r="M49" s="297" t="s">
+      <c r="M49" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="N49" s="297"/>
-      <c r="O49" s="297"/>
-      <c r="P49" s="297"/>
-      <c r="Q49" s="297"/>
-      <c r="R49" s="297"/>
-      <c r="S49" s="297"/>
+      <c r="N49" s="320"/>
+      <c r="O49" s="320"/>
+      <c r="P49" s="320"/>
+      <c r="Q49" s="320"/>
+      <c r="R49" s="320"/>
+      <c r="S49" s="320"/>
       <c r="T49" s="178"/>
       <c r="U49" s="178"/>
       <c r="X49" s="178"/>
@@ -21202,18 +23000,40 @@
       <c r="I50" s="178"/>
       <c r="J50" s="178"/>
       <c r="K50" s="178"/>
-      <c r="M50" s="297"/>
-      <c r="N50" s="297"/>
-      <c r="O50" s="297"/>
-      <c r="P50" s="297"/>
-      <c r="Q50" s="297"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="297"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
+      <c r="O50" s="320"/>
+      <c r="P50" s="320"/>
+      <c r="Q50" s="320"/>
+      <c r="R50" s="320"/>
+      <c r="S50" s="320"/>
       <c r="T50" s="178"/>
       <c r="U50" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="M42:S42"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="X44:AD44"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="Y30:AE30"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="Y36:AE36"/>
+    <mergeCell ref="Y39:AE39"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y28:AE28"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="M2:S2"/>
@@ -21227,28 +23047,6 @@
     <mergeCell ref="M30:S30"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A30:I30"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="Y30:AE30"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="Y36:AE36"/>
-    <mergeCell ref="Y39:AE39"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y28:AE28"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="M42:S42"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Y2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -21299,15 +23097,15 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="319" t="s">
+      <c r="B2" s="339" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
       <c r="J2" s="45" t="s">
         <v>65</v>
       </c>
@@ -21385,7 +23183,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="340" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -21438,7 +23236,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="320"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="37" t="s">
         <v>290</v>
       </c>
@@ -21491,7 +23289,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="320" t="s">
+      <c r="A6" s="340" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -21545,7 +23343,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="320"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="40" t="s">
         <v>292</v>
       </c>
@@ -21595,7 +23393,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="320" t="s">
+      <c r="A8" s="340" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -21645,7 +23443,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="320"/>
+      <c r="A9" s="340"/>
       <c r="B9" s="37" t="s">
         <v>294</v>
       </c>
@@ -21709,11 +23507,11 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="J11" s="318" t="s">
+      <c r="J11" s="338" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="318"/>
-      <c r="L11" s="318"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="338"/>
       <c r="R11" s="283"/>
       <c r="S11" s="283"/>
       <c r="T11" s="283"/>
@@ -21778,15 +23576,15 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
+      <c r="B13" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="339"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="339"/>
+      <c r="F13" s="339"/>
+      <c r="G13" s="339"/>
+      <c r="H13" s="339"/>
       <c r="I13" s="283"/>
       <c r="J13" s="283"/>
       <c r="K13" s="283"/>
@@ -22125,12 +23923,12 @@
       <c r="S18" s="283"/>
       <c r="T18" s="283"/>
       <c r="U18" s="283"/>
-      <c r="V18" s="318" t="s">
+      <c r="V18" s="338" t="s">
         <v>288</v>
       </c>
-      <c r="W18" s="318"/>
-      <c r="X18" s="318"/>
-      <c r="Y18" s="318"/>
+      <c r="W18" s="338"/>
+      <c r="X18" s="338"/>
+      <c r="Y18" s="338"/>
       <c r="Z18" s="283">
         <v>7</v>
       </c>
@@ -22566,12 +24364,12 @@
       <c r="B43">
         <v>0.47005071531687659</v>
       </c>
-      <c r="F43" s="321" t="s">
+      <c r="F43" s="341" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="321"/>
-      <c r="H43" s="321"/>
-      <c r="I43" s="321"/>
+      <c r="G43" s="341"/>
+      <c r="H43" s="341"/>
+      <c r="I43" s="341"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
@@ -22723,11 +24521,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="343" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
       <c r="E1" s="77" t="s">
         <v>92</v>
       </c>
@@ -22751,12 +24549,12 @@
       <c r="O1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="322"/>
-      <c r="S1" s="322"/>
-      <c r="T1" s="322"/>
-      <c r="U1" s="322"/>
-      <c r="V1" s="322"/>
-      <c r="W1" s="322"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342"/>
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
@@ -22917,11 +24715,11 @@
       <c r="W5" s="61"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="323" t="s">
+      <c r="A6" s="343" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
+      <c r="B6" s="343"/>
+      <c r="C6" s="343"/>
       <c r="E6" s="74">
         <v>5</v>
       </c>
@@ -23095,11 +24893,11 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="323" t="s">
+      <c r="A11" s="343" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="323"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
       <c r="D11" s="65"/>
       <c r="E11" s="73">
         <v>2</v>
@@ -23283,11 +25081,11 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="323" t="s">
+      <c r="A16" s="343" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="323"/>
-      <c r="C16" s="323"/>
+      <c r="B16" s="343"/>
+      <c r="C16" s="343"/>
       <c r="D16" s="65"/>
       <c r="E16" s="73">
         <v>7</v>
@@ -23441,9 +25239,9 @@
       <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="322"/>
-      <c r="B21" s="322"/>
-      <c r="C21" s="322"/>
+      <c r="A21" s="342"/>
+      <c r="B21" s="342"/>
+      <c r="C21" s="342"/>
       <c r="D21" s="65"/>
       <c r="E21" s="73">
         <v>4</v>
@@ -23898,7 +25696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
@@ -23926,20 +25724,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="E1" s="300" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="E1" s="317" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="300"/>
+      <c r="F1" s="317"/>
       <c r="G1" s="89"/>
-      <c r="H1" s="300" t="s">
+      <c r="H1" s="317" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="300"/>
+      <c r="I1" s="317"/>
       <c r="K1" s="288" t="s">
         <v>300</v>
       </c>
@@ -23958,30 +25756,30 @@
       <c r="P1" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="Q1" s="337"/>
-      <c r="R1" s="320" t="s">
+      <c r="Q1" s="303"/>
+      <c r="R1" s="340" t="s">
         <v>308</v>
       </c>
-      <c r="S1" s="347" t="s">
+      <c r="S1" s="313" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="347" t="s">
+      <c r="T1" s="313" t="s">
         <v>130</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>307</v>
       </c>
       <c r="V1" s="103"/>
-      <c r="W1" s="350" t="s">
+      <c r="W1" s="345" t="s">
         <v>309</v>
       </c>
-      <c r="X1" s="347" t="s">
+      <c r="X1" s="313" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" s="347" t="s">
+      <c r="Y1" s="313" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" s="347" t="s">
+      <c r="Z1" s="313" t="s">
         <v>310</v>
       </c>
       <c r="AA1" s="64"/>
@@ -24038,37 +25836,37 @@
       <c r="I2" s="88">
         <v>4</v>
       </c>
-      <c r="K2" s="339" t="s">
+      <c r="K2" s="305" t="s">
         <v>301</v>
       </c>
-      <c r="L2" s="340" t="s">
+      <c r="L2" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="340" t="s">
+      <c r="M2" s="306" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="340" t="s">
+      <c r="N2" s="306" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="341">
-        <v>2</v>
-      </c>
-      <c r="P2" s="342">
+      <c r="O2" s="307">
+        <v>2</v>
+      </c>
+      <c r="P2" s="308">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q2" s="348"/>
-      <c r="R2" s="320"/>
+      <c r="Q2" s="314"/>
+      <c r="R2" s="340"/>
       <c r="S2" s="291">
         <v>1</v>
       </c>
-      <c r="T2" s="343">
+      <c r="T2" s="309">
         <v>1</v>
       </c>
       <c r="U2" s="292">
         <v>1</v>
       </c>
       <c r="V2" s="289"/>
-      <c r="W2" s="350"/>
+      <c r="W2" s="345"/>
       <c r="X2" s="203">
         <v>1</v>
       </c>
@@ -24141,23 +25939,23 @@
       <c r="O3" s="91">
         <v>4</v>
       </c>
-      <c r="P3" s="338">
+      <c r="P3" s="304">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="349"/>
-      <c r="R3" s="320"/>
+      <c r="Q3" s="315"/>
+      <c r="R3" s="340"/>
       <c r="S3" s="291">
         <v>2</v>
       </c>
-      <c r="T3" s="343">
+      <c r="T3" s="309">
         <v>1</v>
       </c>
       <c r="U3" s="292">
         <v>3</v>
       </c>
       <c r="V3" s="289"/>
-      <c r="W3" s="350"/>
-      <c r="X3" s="345">
+      <c r="W3" s="345"/>
+      <c r="X3" s="311">
         <v>2</v>
       </c>
       <c r="Y3" s="291">
@@ -24214,38 +26012,38 @@
       <c r="I4" s="88">
         <v>4</v>
       </c>
-      <c r="K4" s="339" t="s">
+      <c r="K4" s="305" t="s">
         <v>303</v>
       </c>
-      <c r="L4" s="340" t="s">
+      <c r="L4" s="306" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="340" t="s">
+      <c r="M4" s="306" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="340" t="s">
+      <c r="N4" s="306" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="341">
+      <c r="O4" s="307">
         <v>7</v>
       </c>
-      <c r="P4" s="342">
+      <c r="P4" s="308">
         <v>2.1</v>
       </c>
-      <c r="Q4" s="348"/>
-      <c r="R4" s="320"/>
+      <c r="Q4" s="314"/>
+      <c r="R4" s="340"/>
       <c r="S4" s="291">
         <v>3</v>
       </c>
-      <c r="T4" s="343">
+      <c r="T4" s="309">
         <v>1</v>
       </c>
       <c r="U4" s="292">
         <v>1</v>
       </c>
       <c r="V4" s="289"/>
-      <c r="W4" s="350"/>
-      <c r="X4" s="345">
+      <c r="W4" s="345"/>
+      <c r="X4" s="311">
         <v>2</v>
       </c>
       <c r="Y4" s="291">
@@ -24276,7 +26074,7 @@
       <c r="AI4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="AJ4" s="296">
+      <c r="AJ4" s="318">
         <v>7</v>
       </c>
     </row>
@@ -24306,23 +26104,23 @@
       <c r="O5" s="91">
         <v>5</v>
       </c>
-      <c r="P5" s="338">
+      <c r="P5" s="304">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="320"/>
+      <c r="Q5" s="315"/>
+      <c r="R5" s="340"/>
       <c r="S5" s="291">
         <v>2</v>
       </c>
-      <c r="T5" s="344">
+      <c r="T5" s="310">
         <v>2</v>
       </c>
       <c r="U5" s="292">
         <v>1</v>
       </c>
       <c r="V5" s="289"/>
-      <c r="W5" s="350"/>
-      <c r="X5" s="346">
+      <c r="W5" s="345"/>
+      <c r="X5" s="312">
         <v>3</v>
       </c>
       <c r="Y5" s="291">
@@ -24353,43 +26151,43 @@
       <c r="AI5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" s="296"/>
+      <c r="AJ5" s="318"/>
     </row>
     <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="290"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="339" t="s">
+      <c r="K6" s="305" t="s">
         <v>305</v>
       </c>
-      <c r="L6" s="340" t="s">
+      <c r="L6" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="340" t="s">
+      <c r="M6" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="340" t="s">
+      <c r="N6" s="306" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="341">
-        <v>4</v>
-      </c>
-      <c r="P6" s="342">
+      <c r="O6" s="307">
+        <v>4</v>
+      </c>
+      <c r="P6" s="308">
         <v>3.1</v>
       </c>
-      <c r="Q6" s="348"/>
-      <c r="R6" s="320"/>
+      <c r="Q6" s="314"/>
+      <c r="R6" s="340"/>
       <c r="S6" s="291">
         <v>3</v>
       </c>
-      <c r="T6" s="344">
+      <c r="T6" s="310">
         <v>2</v>
       </c>
       <c r="U6" s="292">
@@ -24420,7 +26218,7 @@
       <c r="AI6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ6" s="296">
+      <c r="AJ6" s="318">
         <v>5</v>
       </c>
     </row>
@@ -24450,15 +26248,15 @@
       <c r="O7" s="91">
         <v>4</v>
       </c>
-      <c r="P7" s="338">
+      <c r="P7" s="304">
         <v>3.2</v>
       </c>
-      <c r="Q7" s="349"/>
-      <c r="R7" s="320"/>
+      <c r="Q7" s="315"/>
+      <c r="R7" s="340"/>
       <c r="S7" s="291">
         <v>1</v>
       </c>
-      <c r="T7" s="346">
+      <c r="T7" s="312">
         <v>3</v>
       </c>
       <c r="U7" s="292">
@@ -24489,16 +26287,16 @@
       <c r="AI7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="296"/>
+      <c r="AJ7" s="318"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E8" s="98"/>
       <c r="F8" s="98"/>
-      <c r="R8" s="320"/>
+      <c r="R8" s="340"/>
       <c r="S8" s="291">
         <v>2</v>
       </c>
-      <c r="T8" s="346">
+      <c r="T8" s="312">
         <v>3</v>
       </c>
       <c r="U8" s="292">
@@ -24529,18 +26327,18 @@
       <c r="AI8" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" s="298">
+      <c r="AJ8" s="321">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E9" s="98"/>
       <c r="F9" s="98"/>
-      <c r="R9" s="320"/>
+      <c r="R9" s="340"/>
       <c r="S9" s="291">
         <v>3</v>
       </c>
-      <c r="T9" s="346">
+      <c r="T9" s="312">
         <v>3</v>
       </c>
       <c r="U9" s="292">
@@ -24571,7 +26369,7 @@
       <c r="AI9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="298"/>
+      <c r="AJ9" s="321"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S10" s="33"/>
@@ -24602,7 +26400,7 @@
       <c r="AI10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="296">
+      <c r="AJ10" s="318">
         <v>4</v>
       </c>
     </row>
@@ -24635,7 +26433,7 @@
       <c r="AI11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" s="296"/>
+      <c r="AJ11" s="318"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S12" s="33"/>
@@ -24649,11 +26447,11 @@
       <c r="AC12" s="60"/>
       <c r="AD12" s="60"/>
       <c r="AE12" s="60"/>
-      <c r="AG12" s="297" t="s">
+      <c r="AG12" s="320" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="297"/>
-      <c r="AI12" s="297"/>
+      <c r="AH12" s="320"/>
+      <c r="AI12" s="320"/>
       <c r="AJ12" s="105"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -24943,9 +26741,9 @@
         <v>2</v>
       </c>
       <c r="T24" s="3"/>
-      <c r="AG24" s="324"/>
-      <c r="AH24" s="324"/>
-      <c r="AI24" s="324"/>
+      <c r="AG24" s="344"/>
+      <c r="AH24" s="344"/>
+      <c r="AI24" s="344"/>
     </row>
     <row r="25" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D25" s="87"/>
@@ -25168,11 +26966,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AG12:AI12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
@@ -25180,6 +26973,11 @@
     <mergeCell ref="AG24:AI24"/>
     <mergeCell ref="R1:R9"/>
     <mergeCell ref="W1:W5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AG12:AI12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -25228,17 +27026,17 @@
       <c r="U1" s="235"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="348" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="349"/>
+      <c r="I2" s="349"/>
       <c r="J2" s="151"/>
     </row>
     <row r="3" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25611,24 +27409,24 @@
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="331" t="s">
+      <c r="A13" s="352" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="331"/>
-      <c r="C13" s="331"/>
-      <c r="D13" s="331"/>
-      <c r="E13" s="331"/>
-      <c r="F13" s="331"/>
-      <c r="G13" s="331"/>
-      <c r="K13" s="332" t="s">
+      <c r="B13" s="352"/>
+      <c r="C13" s="352"/>
+      <c r="D13" s="352"/>
+      <c r="E13" s="352"/>
+      <c r="F13" s="352"/>
+      <c r="G13" s="352"/>
+      <c r="K13" s="353" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="332"/>
-      <c r="M13" s="332"/>
-      <c r="N13" s="332"/>
-      <c r="O13" s="332"/>
-      <c r="P13" s="332"/>
-      <c r="Q13" s="332"/>
+      <c r="L13" s="353"/>
+      <c r="M13" s="353"/>
+      <c r="N13" s="353"/>
+      <c r="O13" s="353"/>
+      <c r="P13" s="353"/>
+      <c r="Q13" s="353"/>
       <c r="R13" s="64"/>
       <c r="S13" s="142"/>
       <c r="T13" s="33"/>
@@ -26158,28 +27956,28 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="352" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="331"/>
-      <c r="C24" s="331"/>
-      <c r="D24" s="331"/>
-      <c r="E24" s="331"/>
-      <c r="F24" s="331"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="331"/>
-      <c r="I24" s="331"/>
-      <c r="K24" s="331" t="s">
+      <c r="B24" s="352"/>
+      <c r="C24" s="352"/>
+      <c r="D24" s="352"/>
+      <c r="E24" s="352"/>
+      <c r="F24" s="352"/>
+      <c r="G24" s="352"/>
+      <c r="H24" s="352"/>
+      <c r="I24" s="352"/>
+      <c r="K24" s="352" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="331"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="331"/>
-      <c r="O24" s="331"/>
-      <c r="P24" s="331"/>
-      <c r="Q24" s="331"/>
-      <c r="R24" s="331"/>
-      <c r="S24" s="331"/>
+      <c r="L24" s="352"/>
+      <c r="M24" s="352"/>
+      <c r="N24" s="352"/>
+      <c r="O24" s="352"/>
+      <c r="P24" s="352"/>
+      <c r="Q24" s="352"/>
+      <c r="R24" s="352"/>
+      <c r="S24" s="352"/>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="121"/>
@@ -26572,17 +28370,17 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K32" s="330" t="s">
+      <c r="K32" s="351" t="s">
         <v>172</v>
       </c>
-      <c r="L32" s="330"/>
-      <c r="M32" s="330"/>
-      <c r="N32" s="330"/>
-      <c r="O32" s="330"/>
-      <c r="P32" s="330"/>
-      <c r="Q32" s="330"/>
-      <c r="R32" s="330"/>
-      <c r="S32" s="330"/>
+      <c r="L32" s="351"/>
+      <c r="M32" s="351"/>
+      <c r="N32" s="351"/>
+      <c r="O32" s="351"/>
+      <c r="P32" s="351"/>
+      <c r="Q32" s="351"/>
+      <c r="R32" s="351"/>
+      <c r="S32" s="351"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K33" s="33"/>
@@ -26609,14 +28407,14 @@
       <c r="H34" s="145"/>
       <c r="I34" s="145"/>
       <c r="K34" s="33"/>
-      <c r="L34" s="329" t="s">
+      <c r="L34" s="350" t="s">
         <v>181</v>
       </c>
-      <c r="M34" s="329"/>
-      <c r="N34" s="329"/>
-      <c r="O34" s="329"/>
-      <c r="P34" s="329"/>
-      <c r="Q34" s="329"/>
+      <c r="M34" s="350"/>
+      <c r="N34" s="350"/>
+      <c r="O34" s="350"/>
+      <c r="P34" s="350"/>
+      <c r="Q34" s="350"/>
       <c r="R34" s="64"/>
       <c r="S34" s="243"/>
       <c r="T34" s="244" t="s">
@@ -27219,10 +29017,10 @@
         <f>J41/K44</f>
         <v>-4.8410748142123552E-2</v>
       </c>
-      <c r="O45" s="321" t="s">
+      <c r="O45" s="341" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="321"/>
+      <c r="P45" s="341"/>
       <c r="Q45" s="126">
         <f>Q44/O44</f>
         <v>0.25</v>
@@ -27254,24 +29052,24 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="332" t="s">
+      <c r="A47" s="353" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="332"/>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
-      <c r="K47" s="332" t="s">
+      <c r="B47" s="353"/>
+      <c r="C47" s="353"/>
+      <c r="D47" s="353"/>
+      <c r="E47" s="353"/>
+      <c r="F47" s="353"/>
+      <c r="G47" s="353"/>
+      <c r="K47" s="353" t="s">
         <v>195</v>
       </c>
-      <c r="L47" s="332"/>
-      <c r="M47" s="332"/>
-      <c r="N47" s="332"/>
-      <c r="O47" s="332"/>
-      <c r="P47" s="332"/>
-      <c r="Q47" s="332"/>
+      <c r="L47" s="353"/>
+      <c r="M47" s="353"/>
+      <c r="N47" s="353"/>
+      <c r="O47" s="353"/>
+      <c r="P47" s="353"/>
+      <c r="Q47" s="353"/>
     </row>
     <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="121" t="s">
@@ -27937,18 +29735,18 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="325" t="s">
+      <c r="A64" s="346" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="326"/>
-      <c r="C64" s="326"/>
-      <c r="D64" s="326"/>
-      <c r="E64" s="326"/>
-      <c r="F64" s="326"/>
-      <c r="G64" s="326"/>
-      <c r="H64" s="326"/>
-      <c r="I64" s="326"/>
-      <c r="J64" s="326"/>
+      <c r="B64" s="347"/>
+      <c r="C64" s="347"/>
+      <c r="D64" s="347"/>
+      <c r="E64" s="347"/>
+      <c r="F64" s="347"/>
+      <c r="G64" s="347"/>
+      <c r="H64" s="347"/>
+      <c r="I64" s="347"/>
+      <c r="J64" s="347"/>
     </row>
     <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">

--- a/minhashing-example.xlsx
+++ b/minhashing-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Documents\algorithms-for-big-data\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4FBFA-5CB2-4D88-9171-6CE8D2DADBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827EBB2D-B11D-48A9-8D84-922E5F1491EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matriz-1" sheetId="10" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="recommendation-2" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="324">
   <si>
     <t>Characteristic Matrix</t>
   </si>
@@ -1256,6 +1257,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>edist</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1552,7 +1562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor rgb="FFF1F9A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,7 +2091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2828,13 +2844,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2871,14 +2893,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2886,10 +2947,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2904,22 +2980,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2931,7 +2995,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2982,6 +3052,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2994,40 +3067,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3386,6 +3432,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8585"/>
+      <color rgb="FFF1F9A7"/>
       <color rgb="FFFFFF7D"/>
     </mruColors>
   </colors>
@@ -3627,7 +3675,7 @@
                   <a14:compatExt spid="_x0000_s18433"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001480000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001480000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4016,25 +4064,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="337" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
       <c r="D1" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="317" t="s">
+      <c r="E1" s="338" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="317"/>
+      <c r="F1" s="338"/>
       <c r="G1" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="317" t="s">
+      <c r="H1" s="338" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="317"/>
+      <c r="I1" s="338"/>
       <c r="L1" s="3" t="s">
         <v>126</v>
       </c>
@@ -4362,7 +4410,7 @@
       <c r="AI4" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="AJ4" s="318">
+      <c r="AJ4" s="334">
         <v>7</v>
       </c>
     </row>
@@ -4430,11 +4478,11 @@
       <c r="AI5" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" s="318"/>
+      <c r="AJ5" s="334"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
       <c r="K6" s="208" t="s">
         <v>119</v>
       </c>
@@ -4488,7 +4536,7 @@
       <c r="AI6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ6" s="318">
+      <c r="AJ6" s="334">
         <v>5</v>
       </c>
     </row>
@@ -4548,7 +4596,7 @@
       <c r="AI7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="318"/>
+      <c r="AJ7" s="334"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E8" s="98"/>
@@ -4591,7 +4639,7 @@
       <c r="AI8" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" s="321">
+      <c r="AJ8" s="336">
         <v>4</v>
       </c>
     </row>
@@ -4636,7 +4684,7 @@
       <c r="AI9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="321"/>
+      <c r="AJ9" s="336"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q10" s="64"/>
@@ -4669,7 +4717,7 @@
       <c r="AI10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="318">
+      <c r="AJ10" s="334">
         <v>4</v>
       </c>
     </row>
@@ -4704,7 +4752,7 @@
       <c r="AI11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" s="318"/>
+      <c r="AJ11" s="334"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q12" s="64"/>
@@ -4720,11 +4768,11 @@
       <c r="AC12" s="207"/>
       <c r="AD12" s="207"/>
       <c r="AE12" s="207"/>
-      <c r="AG12" s="320" t="s">
+      <c r="AG12" s="335" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="320"/>
-      <c r="AI12" s="320"/>
+      <c r="AH12" s="335"/>
+      <c r="AI12" s="335"/>
       <c r="AJ12" s="220" t="s">
         <v>157</v>
       </c>
@@ -4934,7 +4982,7 @@
       <c r="AI19" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="AJ19" s="318">
+      <c r="AJ19" s="334">
         <v>7</v>
       </c>
     </row>
@@ -4973,7 +5021,7 @@
       <c r="AI20" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="AJ20" s="318"/>
+      <c r="AJ20" s="334"/>
     </row>
     <row r="21" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K21" s="223">
@@ -5010,7 +5058,7 @@
       <c r="AI21" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ21" s="318">
+      <c r="AJ21" s="334">
         <v>5</v>
       </c>
     </row>
@@ -5049,7 +5097,7 @@
       <c r="AI22" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ22" s="318"/>
+      <c r="AJ22" s="334"/>
     </row>
     <row r="23" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K23" s="208">
@@ -5086,7 +5134,7 @@
       <c r="AI23" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ23" s="321">
+      <c r="AJ23" s="336">
         <v>4</v>
       </c>
     </row>
@@ -5120,7 +5168,7 @@
       <c r="AI24" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ24" s="321"/>
+      <c r="AJ24" s="336"/>
     </row>
     <row r="25" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K25" s="221">
@@ -5152,7 +5200,7 @@
       <c r="AI25" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ25" s="318">
+      <c r="AJ25" s="334">
         <v>4</v>
       </c>
     </row>
@@ -5186,7 +5234,7 @@
       <c r="AI26" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ26" s="318"/>
+      <c r="AJ26" s="334"/>
     </row>
     <row r="27" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K27" s="223">
@@ -5209,11 +5257,11 @@
       <c r="S27" s="102">
         <v>1</v>
       </c>
-      <c r="AG27" s="320" t="s">
+      <c r="AG27" s="335" t="s">
         <v>138</v>
       </c>
-      <c r="AH27" s="320"/>
-      <c r="AI27" s="320"/>
+      <c r="AH27" s="335"/>
+      <c r="AI27" s="335"/>
       <c r="AJ27" s="220" t="s">
         <v>157</v>
       </c>
@@ -5359,6 +5407,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AJ25:AJ26"/>
     <mergeCell ref="AG27:AI27"/>
     <mergeCell ref="AJ8:AJ9"/>
@@ -5367,12 +5421,6 @@
     <mergeCell ref="AJ19:AJ20"/>
     <mergeCell ref="AJ21:AJ22"/>
     <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5385,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E4583-A74F-4BE4-8E2C-5878D1C2F5DA}">
-  <dimension ref="B4:T48"/>
+  <dimension ref="B4:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,60 +5469,60 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D4" s="359" t="s">
+      <c r="D4" s="325" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="325" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="359" t="s">
+      <c r="F4" s="325" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="359" t="s">
+      <c r="G4" s="325" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="360" t="s">
+      <c r="H4" s="326" t="s">
         <v>313</v>
       </c>
-      <c r="I4" s="360" t="s">
+      <c r="I4" s="326" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="360" t="s">
+      <c r="J4" s="326" t="s">
         <v>312</v>
       </c>
-      <c r="K4" s="360" t="s">
+      <c r="K4" s="326" t="s">
         <v>276</v>
       </c>
-      <c r="L4" s="360" t="s">
+      <c r="L4" s="326" t="s">
         <v>313</v>
       </c>
-      <c r="M4" s="360" t="s">
+      <c r="M4" s="326" t="s">
         <v>274</v>
       </c>
-      <c r="N4" s="360" t="s">
+      <c r="N4" s="326" t="s">
         <v>313</v>
       </c>
-      <c r="O4" s="359" t="s">
+      <c r="O4" s="325" t="s">
         <v>274</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="325" t="s">
         <v>276</v>
       </c>
-      <c r="Q4" s="359" t="s">
+      <c r="Q4" s="325" t="s">
         <v>312</v>
       </c>
-      <c r="R4" s="359" t="s">
+      <c r="R4" s="325" t="s">
         <v>312</v>
       </c>
-      <c r="S4" s="363" t="s">
+      <c r="S4" s="329" t="s">
         <v>313</v>
       </c>
-      <c r="T4" s="363" t="s">
+      <c r="T4" s="329" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="358" t="s">
+      <c r="C5" s="324" t="s">
         <v>315</v>
       </c>
       <c r="D5" s="100">
@@ -5530,7 +5578,7 @@
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="360" t="s">
+      <c r="C6" s="326" t="s">
         <v>312</v>
       </c>
       <c r="D6" s="286">
@@ -5551,7 +5599,7 @@
       <c r="I6" s="286">
         <v>0</v>
       </c>
-      <c r="J6" s="286">
+      <c r="J6" s="188">
         <v>0</v>
       </c>
       <c r="K6" s="286">
@@ -5586,7 +5634,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="360" t="s">
+      <c r="C7" s="326" t="s">
         <v>276</v>
       </c>
       <c r="D7" s="286">
@@ -5610,7 +5658,7 @@
       <c r="J7" s="286">
         <v>1</v>
       </c>
-      <c r="K7" s="286">
+      <c r="K7" s="188">
         <v>0</v>
       </c>
       <c r="L7" s="286">
@@ -5642,7 +5690,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="360" t="s">
+      <c r="C8" s="326" t="s">
         <v>312</v>
       </c>
       <c r="D8" s="286">
@@ -5666,7 +5714,7 @@
       <c r="J8" s="286">
         <v>1</v>
       </c>
-      <c r="K8" s="286">
+      <c r="K8" s="188">
         <v>1</v>
       </c>
       <c r="L8" s="286">
@@ -5698,7 +5746,7 @@
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="360" t="s">
+      <c r="C9" s="326" t="s">
         <v>313</v>
       </c>
       <c r="D9" s="286">
@@ -5725,7 +5773,7 @@
       <c r="K9" s="286">
         <v>2</v>
       </c>
-      <c r="L9" s="286">
+      <c r="L9" s="188">
         <v>1</v>
       </c>
       <c r="M9" s="286">
@@ -5754,7 +5802,7 @@
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="360" t="s">
+      <c r="C10" s="326" t="s">
         <v>274</v>
       </c>
       <c r="D10" s="286">
@@ -5784,7 +5832,7 @@
       <c r="L10" s="286">
         <v>2</v>
       </c>
-      <c r="M10" s="286">
+      <c r="M10" s="188">
         <v>1</v>
       </c>
       <c r="N10" s="286">
@@ -5810,7 +5858,7 @@
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="360" t="s">
+      <c r="C11" s="326" t="s">
         <v>313</v>
       </c>
       <c r="D11" s="286">
@@ -5843,7 +5891,7 @@
       <c r="M11" s="286">
         <v>2</v>
       </c>
-      <c r="N11" s="286">
+      <c r="N11" s="188">
         <v>1</v>
       </c>
       <c r="O11" s="286">
@@ -5866,7 +5914,7 @@
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="360" t="s">
+      <c r="C12" s="326" t="s">
         <v>312</v>
       </c>
       <c r="D12" s="286">
@@ -5902,7 +5950,7 @@
       <c r="N12" s="286">
         <v>2</v>
       </c>
-      <c r="O12" s="286">
+      <c r="O12" s="188">
         <v>2</v>
       </c>
       <c r="P12" s="286">
@@ -5922,7 +5970,7 @@
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="360" t="s">
+      <c r="C13" s="326" t="s">
         <v>276</v>
       </c>
       <c r="D13" s="296">
@@ -5978,13 +6026,13 @@
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E16" s="359" t="s">
+      <c r="E16" s="325" t="s">
         <v>313</v>
       </c>
-      <c r="F16" s="359" t="s">
+      <c r="F16" s="325" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="359" t="s">
+      <c r="G16" s="325" t="s">
         <v>313</v>
       </c>
       <c r="H16" s="297" t="s">
@@ -5993,13 +6041,13 @@
       <c r="I16" s="297" t="s">
         <v>312</v>
       </c>
-      <c r="J16" s="361" t="s">
+      <c r="J16" s="327" t="s">
         <v>312</v>
       </c>
-      <c r="K16" s="361" t="s">
+      <c r="K16" s="327" t="s">
         <v>276</v>
       </c>
-      <c r="L16" s="362" t="s">
+      <c r="L16" s="328" t="s">
         <v>313</v>
       </c>
       <c r="M16" s="297" t="s">
@@ -6008,42 +6056,42 @@
       <c r="N16" s="297" t="s">
         <v>313</v>
       </c>
-      <c r="O16" s="307" t="s">
+      <c r="O16" s="309" t="s">
         <v>274</v>
       </c>
-      <c r="P16" s="359" t="s">
+      <c r="P16" s="325" t="s">
         <v>276</v>
       </c>
-      <c r="Q16" s="359" t="s">
+      <c r="Q16" s="325" t="s">
         <v>312</v>
       </c>
-      <c r="R16" s="359" t="s">
+      <c r="R16" s="325" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E17" s="311" t="s">
+      <c r="E17" s="313" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="311" t="s">
+      <c r="F17" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="311" t="s">
+      <c r="G17" s="313" t="s">
         <v>312</v>
       </c>
-      <c r="H17" s="311" t="s">
+      <c r="H17" s="313" t="s">
         <v>313</v>
       </c>
-      <c r="I17" s="311" t="s">
+      <c r="I17" s="313" t="s">
         <v>274</v>
       </c>
-      <c r="J17" s="311" t="s">
+      <c r="J17" s="313" t="s">
         <v>313</v>
       </c>
-      <c r="K17" s="311" t="s">
+      <c r="K17" s="313" t="s">
         <v>312</v>
       </c>
-      <c r="L17" s="311" t="s">
+      <c r="L17" s="313" t="s">
         <v>276</v>
       </c>
       <c r="M17" s="4"/>
@@ -6072,7 +6120,7 @@
       <c r="J18" s="296" t="s">
         <v>313</v>
       </c>
-      <c r="K18" s="305" t="s">
+      <c r="K18" s="307" t="s">
         <v>312</v>
       </c>
       <c r="L18" s="296" t="s">
@@ -6088,51 +6136,51 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E20" s="347" t="s">
+      <c r="E20" s="365" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="347"/>
-      <c r="G20" s="347"/>
-      <c r="H20" s="347"/>
-      <c r="I20" s="347"/>
-      <c r="J20" s="347"/>
-      <c r="K20" s="347"/>
-      <c r="L20" s="347"/>
-      <c r="M20" s="347"/>
-      <c r="N20" s="347"/>
-      <c r="O20" s="347"/>
-      <c r="P20" s="347"/>
-      <c r="Q20" s="347"/>
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="365"/>
+      <c r="I20" s="365"/>
+      <c r="J20" s="365"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="365"/>
+      <c r="M20" s="365"/>
+      <c r="N20" s="365"/>
+      <c r="O20" s="365"/>
+      <c r="P20" s="365"/>
+      <c r="Q20" s="365"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="359" t="s">
+      <c r="D21" s="302" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="359" t="s">
+      <c r="E21" s="302" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="359" t="s">
+      <c r="F21" s="302" t="s">
         <v>312</v>
       </c>
-      <c r="G21" s="361" t="s">
+      <c r="G21" s="333" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="361" t="s">
+      <c r="H21" s="333" t="s">
         <v>313</v>
       </c>
-      <c r="I21" s="361" t="s">
+      <c r="I21" s="333" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="361" t="s">
+      <c r="J21" s="333" t="s">
         <v>312</v>
       </c>
-      <c r="K21" s="361" t="s">
+      <c r="K21" s="333" t="s">
         <v>313</v>
       </c>
-      <c r="L21" s="361" t="s">
+      <c r="L21" s="333" t="s">
         <v>274</v>
       </c>
-      <c r="M21" s="361" t="s">
+      <c r="M21" s="333" t="s">
         <v>276</v>
       </c>
       <c r="N21" s="297" t="s">
@@ -6147,13 +6195,13 @@
       <c r="Q21" s="297" t="s">
         <v>276</v>
       </c>
-      <c r="R21" s="300"/>
-      <c r="S21" s="300"/>
-      <c r="T21" s="300"/>
+      <c r="R21" s="301"/>
+      <c r="S21" s="301"/>
+      <c r="T21" s="301"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="365"/>
-      <c r="C22" s="358" t="s">
+      <c r="B22" s="331"/>
+      <c r="C22" s="324" t="s">
         <v>315</v>
       </c>
       <c r="D22" s="100">
@@ -6165,7 +6213,7 @@
       <c r="F22" s="286">
         <v>0</v>
       </c>
-      <c r="G22" s="367">
+      <c r="G22" s="286">
         <v>0</v>
       </c>
       <c r="H22" s="286">
@@ -6203,10 +6251,10 @@
       <c r="T22" s="298"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="366" t="s">
+      <c r="B23" s="372" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="364" t="s">
+      <c r="C23" s="333" t="s">
         <v>274</v>
       </c>
       <c r="D23" s="286">
@@ -6218,7 +6266,7 @@
       <c r="F23" s="286">
         <v>1</v>
       </c>
-      <c r="G23" s="367">
+      <c r="G23" s="300">
         <v>0</v>
       </c>
       <c r="H23" s="286">
@@ -6256,8 +6304,8 @@
       <c r="T23" s="298"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="366"/>
-      <c r="C24" s="364" t="s">
+      <c r="B24" s="372"/>
+      <c r="C24" s="333" t="s">
         <v>313</v>
       </c>
       <c r="D24" s="286">
@@ -6272,10 +6320,10 @@
       <c r="G24" s="286">
         <v>1</v>
       </c>
-      <c r="H24" s="367">
-        <v>0</v>
-      </c>
-      <c r="I24" s="367">
+      <c r="H24" s="300">
+        <v>0</v>
+      </c>
+      <c r="I24" s="300">
         <v>1</v>
       </c>
       <c r="J24" s="286">
@@ -6307,8 +6355,8 @@
       <c r="T24" s="298"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="366"/>
-      <c r="C25" s="364" t="s">
+      <c r="B25" s="372"/>
+      <c r="C25" s="333" t="s">
         <v>312</v>
       </c>
       <c r="D25" s="286">
@@ -6320,7 +6368,7 @@
       <c r="F25" s="286">
         <v>1</v>
       </c>
-      <c r="G25" s="286">
+      <c r="G25" s="113">
         <v>2</v>
       </c>
       <c r="H25" s="286">
@@ -6329,7 +6377,7 @@
       <c r="I25" s="286">
         <v>1</v>
       </c>
-      <c r="J25" s="367">
+      <c r="J25" s="300">
         <v>1</v>
       </c>
       <c r="K25" s="286">
@@ -6358,8 +6406,8 @@
       <c r="T25" s="298"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="366"/>
-      <c r="C26" s="364" t="s">
+      <c r="B26" s="372"/>
+      <c r="C26" s="333" t="s">
         <v>313</v>
       </c>
       <c r="D26" s="286">
@@ -6383,7 +6431,7 @@
       <c r="J26" s="286">
         <v>2</v>
       </c>
-      <c r="K26" s="367">
+      <c r="K26" s="300">
         <v>1</v>
       </c>
       <c r="L26" s="286">
@@ -6409,8 +6457,8 @@
       <c r="T26" s="298"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="366"/>
-      <c r="C27" s="364" t="s">
+      <c r="B27" s="372"/>
+      <c r="C27" s="333" t="s">
         <v>313</v>
       </c>
       <c r="D27" s="286">
@@ -6434,7 +6482,7 @@
       <c r="J27" s="286">
         <v>3</v>
       </c>
-      <c r="K27" s="367">
+      <c r="K27" s="300">
         <v>2</v>
       </c>
       <c r="L27" s="286">
@@ -6460,8 +6508,8 @@
       <c r="T27" s="298"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="366"/>
-      <c r="C28" s="364" t="s">
+      <c r="B28" s="372"/>
+      <c r="C28" s="333" t="s">
         <v>274</v>
       </c>
       <c r="D28" s="286">
@@ -6488,7 +6536,7 @@
       <c r="K28" s="286">
         <v>3</v>
       </c>
-      <c r="L28" s="367">
+      <c r="L28" s="300">
         <v>2</v>
       </c>
       <c r="M28" s="286">
@@ -6511,8 +6559,8 @@
       <c r="T28" s="298"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="366"/>
-      <c r="C29" s="364" t="s">
+      <c r="B29" s="372"/>
+      <c r="C29" s="333" t="s">
         <v>313</v>
       </c>
       <c r="D29" s="286">
@@ -6542,7 +6590,7 @@
       <c r="L29" s="286">
         <v>3</v>
       </c>
-      <c r="M29" s="367">
+      <c r="M29" s="300">
         <v>3</v>
       </c>
       <c r="N29" s="286">
@@ -6562,8 +6610,8 @@
       <c r="T29" s="298"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="366"/>
-      <c r="C30" s="364" t="s">
+      <c r="B30" s="372"/>
+      <c r="C30" s="333" t="s">
         <v>312</v>
       </c>
       <c r="D30" s="296">
@@ -6596,7 +6644,7 @@
       <c r="M30" s="286">
         <v>4</v>
       </c>
-      <c r="N30" s="367">
+      <c r="N30" s="300">
         <v>3</v>
       </c>
       <c r="O30" s="286">
@@ -6613,25 +6661,25 @@
       <c r="T30" s="298"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E32" s="301" t="s">
+      <c r="E32" s="304" t="s">
         <v>313</v>
       </c>
-      <c r="F32" s="301" t="s">
+      <c r="F32" s="304" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="301" t="s">
+      <c r="G32" s="304" t="s">
         <v>274</v>
       </c>
-      <c r="H32" s="301" t="s">
+      <c r="H32" s="304" t="s">
         <v>318</v>
       </c>
-      <c r="I32" s="301" t="s">
+      <c r="I32" s="304" t="s">
         <v>276</v>
       </c>
-      <c r="J32" s="301" t="s">
+      <c r="J32" s="304" t="s">
         <v>312</v>
       </c>
-      <c r="K32" s="301" t="s">
+      <c r="K32" s="304" t="s">
         <v>313</v>
       </c>
       <c r="L32" s="91" t="s">
@@ -6640,152 +6688,262 @@
       <c r="M32" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="N32" s="368" t="s">
+      <c r="N32" s="332" t="s">
         <v>314</v>
       </c>
-      <c r="O32" s="301" t="s">
+      <c r="O32" s="304" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="301" t="s">
+      <c r="P32" s="303"/>
+      <c r="Q32" s="303"/>
+      <c r="R32" s="303"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E33" s="304" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="301" t="s">
+      <c r="F33" s="304" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="301" t="s">
+      <c r="G33" s="304" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="301" t="s">
+      <c r="H33" s="304" t="s">
         <v>318</v>
       </c>
-      <c r="I33" s="301" t="s">
+      <c r="I33" s="304" t="s">
         <v>320</v>
       </c>
-      <c r="J33" s="301" t="s">
+      <c r="J33" s="304" t="s">
         <v>312</v>
       </c>
-      <c r="K33" s="301" t="s">
+      <c r="K33" s="304" t="s">
         <v>313</v>
       </c>
       <c r="L33" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="M33" s="301" t="s">
+      <c r="M33" s="304" t="s">
         <v>274</v>
       </c>
-      <c r="N33" s="368" t="s">
+      <c r="N33" s="332" t="s">
         <v>313</v>
       </c>
-      <c r="O33" s="301" t="s">
+      <c r="O33" s="304" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D36" s="359" t="s">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C36" s="318" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="325" t="s">
         <v>311</v>
       </c>
-      <c r="E36" s="359" t="s">
+      <c r="E36" s="325" t="s">
         <v>274</v>
       </c>
-      <c r="F36" s="359" t="s">
+      <c r="F36" s="325" t="s">
         <v>313</v>
       </c>
-      <c r="G36" s="361" t="s">
+      <c r="G36" s="326" t="s">
         <v>274</v>
       </c>
-      <c r="H36" s="361" t="s">
+      <c r="H36" s="326" t="s">
+        <v>312</v>
+      </c>
+      <c r="I36" s="326" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" s="326" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" s="326" t="s">
         <v>313</v>
       </c>
-      <c r="I36" s="361" t="s">
+      <c r="L36" s="326" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" s="322"/>
+      <c r="Q36" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="R36" s="325" t="s">
+        <v>311</v>
+      </c>
+      <c r="S36" s="325" t="s">
+        <v>274</v>
+      </c>
+      <c r="T36" s="325" t="s">
         <v>313</v>
       </c>
-      <c r="J36" s="361" t="s">
+      <c r="U36" s="326" t="s">
         <v>274</v>
       </c>
-      <c r="K36" s="361" t="s">
+      <c r="V36" s="326" t="s">
         <v>313</v>
       </c>
-      <c r="L36" s="361" t="s">
+      <c r="W36" s="326" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" s="326" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y36" s="326" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z36" s="326" t="s">
         <v>276</v>
       </c>
-      <c r="M36" s="361" t="s">
+      <c r="AA36" s="326" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="358" t="s">
-        <v>315</v>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C37" s="324" t="s">
+        <v>311</v>
       </c>
       <c r="D37" s="100">
         <v>0</v>
       </c>
       <c r="E37" s="286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="286">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="286">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" s="286">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J37" s="286">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K37" s="286">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L37" s="286">
-        <v>0</v>
-      </c>
-      <c r="M37" s="286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="364" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="319"/>
+      <c r="Q37" s="324" t="s">
+        <v>311</v>
+      </c>
+      <c r="R37" s="100">
+        <v>0</v>
+      </c>
+      <c r="S37" s="286">
+        <v>1</v>
+      </c>
+      <c r="T37" s="286">
+        <v>2</v>
+      </c>
+      <c r="U37" s="286">
+        <v>3</v>
+      </c>
+      <c r="V37" s="286">
+        <v>4</v>
+      </c>
+      <c r="W37" s="286">
+        <v>5</v>
+      </c>
+      <c r="X37" s="286">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="286">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="286">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C38" s="326" t="s">
         <v>274</v>
       </c>
       <c r="D38" s="286">
         <v>1</v>
       </c>
-      <c r="E38" s="286">
+      <c r="E38" s="377">
         <v>0</v>
       </c>
       <c r="F38" s="286">
         <v>1</v>
       </c>
       <c r="G38" s="286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" s="286">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K38" s="286">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L38" s="286">
-        <v>1</v>
-      </c>
-      <c r="M38" s="286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="319"/>
+      <c r="Q38" s="326" t="s">
+        <v>274</v>
+      </c>
+      <c r="R38" s="286">
+        <v>1</v>
+      </c>
+      <c r="S38" s="286">
+        <v>0</v>
+      </c>
+      <c r="T38" s="286">
+        <v>1</v>
+      </c>
+      <c r="U38" s="286">
+        <v>2</v>
+      </c>
+      <c r="V38" s="286">
+        <v>3</v>
+      </c>
+      <c r="W38" s="286">
+        <v>4</v>
+      </c>
+      <c r="X38" s="286">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="286">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="286">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C39" s="326" t="s">
         <v>313</v>
       </c>
       <c r="D39" s="286">
@@ -6794,33 +6952,64 @@
       <c r="E39" s="286">
         <v>1</v>
       </c>
-      <c r="F39" s="286">
+      <c r="F39" s="377">
         <v>0</v>
       </c>
       <c r="G39" s="286">
         <v>1</v>
       </c>
       <c r="H39" s="286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" s="286">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39" s="286">
-        <v>1</v>
-      </c>
-      <c r="M39" s="286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="364" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="319"/>
+      <c r="Q39" s="326" t="s">
+        <v>313</v>
+      </c>
+      <c r="R39" s="286">
+        <v>2</v>
+      </c>
+      <c r="S39" s="286">
+        <v>1</v>
+      </c>
+      <c r="T39" s="286">
+        <v>0</v>
+      </c>
+      <c r="U39" s="286">
+        <v>1</v>
+      </c>
+      <c r="V39" s="286">
+        <v>2</v>
+      </c>
+      <c r="W39" s="286">
+        <v>3</v>
+      </c>
+      <c r="X39" s="286">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="286">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="286">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C40" s="326" t="s">
         <v>276</v>
       </c>
       <c r="D40" s="286">
@@ -6832,30 +7021,61 @@
       <c r="F40" s="286">
         <v>1</v>
       </c>
-      <c r="G40" s="286">
+      <c r="G40" s="377">
         <v>1</v>
       </c>
       <c r="H40" s="286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="286">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="286">
-        <v>1</v>
-      </c>
-      <c r="K40" s="286">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K40" s="100">
+        <v>4</v>
       </c>
       <c r="L40" s="286">
-        <v>0</v>
-      </c>
-      <c r="M40" s="286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="364" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="319"/>
+      <c r="Q40" s="326" t="s">
+        <v>276</v>
+      </c>
+      <c r="R40" s="286">
+        <v>3</v>
+      </c>
+      <c r="S40" s="286">
+        <v>2</v>
+      </c>
+      <c r="T40" s="286">
+        <v>1</v>
+      </c>
+      <c r="U40" s="286">
+        <v>1</v>
+      </c>
+      <c r="V40" s="286">
+        <v>2</v>
+      </c>
+      <c r="W40" s="286">
+        <v>3</v>
+      </c>
+      <c r="X40" s="286">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="286">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="286">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C41" s="326" t="s">
         <v>312</v>
       </c>
       <c r="D41" s="286">
@@ -6870,27 +7090,58 @@
       <c r="G41" s="286">
         <v>2</v>
       </c>
-      <c r="H41" s="286">
-        <v>2</v>
+      <c r="H41" s="377">
+        <v>1</v>
       </c>
       <c r="I41" s="286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" s="286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L41" s="286">
-        <v>1</v>
-      </c>
-      <c r="M41" s="286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="364" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="319"/>
+      <c r="Q41" s="326" t="s">
+        <v>312</v>
+      </c>
+      <c r="R41" s="286">
+        <v>4</v>
+      </c>
+      <c r="S41" s="286">
+        <v>3</v>
+      </c>
+      <c r="T41" s="286">
+        <v>2</v>
+      </c>
+      <c r="U41" s="286">
+        <v>2</v>
+      </c>
+      <c r="V41" s="286">
+        <v>2</v>
+      </c>
+      <c r="W41" s="286">
+        <v>3</v>
+      </c>
+      <c r="X41" s="286">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="286">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="286">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C42" s="326" t="s">
         <v>313</v>
       </c>
       <c r="D42" s="286">
@@ -6905,27 +7156,58 @@
       <c r="G42" s="286">
         <v>3</v>
       </c>
-      <c r="H42" s="286">
+      <c r="H42" s="377">
         <v>2</v>
       </c>
       <c r="I42" s="286">
         <v>2</v>
       </c>
       <c r="J42" s="286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" s="286">
-        <v>1</v>
-      </c>
-      <c r="L42" s="286">
-        <v>2</v>
-      </c>
-      <c r="M42" s="286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="364" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="100">
+        <v>4</v>
+      </c>
+      <c r="M42" s="319"/>
+      <c r="Q42" s="326" t="s">
+        <v>313</v>
+      </c>
+      <c r="R42" s="286">
+        <v>5</v>
+      </c>
+      <c r="S42" s="286">
+        <v>4</v>
+      </c>
+      <c r="T42" s="286">
+        <v>3</v>
+      </c>
+      <c r="U42" s="286">
+        <v>3</v>
+      </c>
+      <c r="V42" s="286">
+        <v>2</v>
+      </c>
+      <c r="W42" s="286">
+        <v>2</v>
+      </c>
+      <c r="X42" s="286">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="286">
+        <v>4</v>
+      </c>
+      <c r="Z42" s="286">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C43" s="326" t="s">
         <v>274</v>
       </c>
       <c r="D43" s="286">
@@ -6938,30 +7220,61 @@
         <v>4</v>
       </c>
       <c r="G43" s="286">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="286">
         <v>3</v>
       </c>
-      <c r="I43" s="286">
-        <v>3</v>
-      </c>
-      <c r="J43" s="286">
-        <v>2</v>
+      <c r="I43" s="377">
+        <v>2</v>
+      </c>
+      <c r="J43" s="377">
+        <v>3</v>
       </c>
       <c r="K43" s="286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43" s="286">
-        <v>2</v>
-      </c>
-      <c r="M43" s="286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="364" t="s">
-        <v>276</v>
+        <v>4</v>
+      </c>
+      <c r="M43" s="319"/>
+      <c r="Q43" s="326" t="s">
+        <v>274</v>
+      </c>
+      <c r="R43" s="286">
+        <v>6</v>
+      </c>
+      <c r="S43" s="286">
+        <v>5</v>
+      </c>
+      <c r="T43" s="286">
+        <v>4</v>
+      </c>
+      <c r="U43" s="286">
+        <v>3</v>
+      </c>
+      <c r="V43" s="286">
+        <v>3</v>
+      </c>
+      <c r="W43" s="286">
+        <v>3</v>
+      </c>
+      <c r="X43" s="286">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="286">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="286">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C44" s="326" t="s">
+        <v>313</v>
       </c>
       <c r="D44" s="286">
         <v>7</v>
@@ -6973,103 +7286,216 @@
         <v>5</v>
       </c>
       <c r="G44" s="286">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="286">
         <v>4</v>
       </c>
       <c r="I44" s="286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" s="286">
         <v>3</v>
       </c>
-      <c r="K44" s="286">
-        <v>3</v>
-      </c>
-      <c r="L44" s="305">
-        <v>2</v>
-      </c>
-      <c r="M44" s="286">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="359" t="s">
+      <c r="K44" s="377">
+        <v>3</v>
+      </c>
+      <c r="L44" s="379">
+        <v>4</v>
+      </c>
+      <c r="M44" s="319"/>
+      <c r="Q44" s="326" t="s">
+        <v>276</v>
+      </c>
+      <c r="R44" s="286">
+        <v>7</v>
+      </c>
+      <c r="S44" s="286">
+        <v>6</v>
+      </c>
+      <c r="T44" s="286">
+        <v>5</v>
+      </c>
+      <c r="U44" s="286">
+        <v>4</v>
+      </c>
+      <c r="V44" s="286">
+        <v>4</v>
+      </c>
+      <c r="W44" s="286">
+        <v>4</v>
+      </c>
+      <c r="X44" s="286">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="286">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="29">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D46" s="323" t="s">
         <v>274</v>
       </c>
-      <c r="F46" s="359" t="s">
+      <c r="E46" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="361" t="s">
+      <c r="F46" s="330" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" s="286" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="328" t="s">
         <v>320</v>
       </c>
-      <c r="H46" s="203" t="s">
+      <c r="I46" s="323" t="s">
         <v>274</v>
       </c>
-      <c r="I46" s="302" t="s">
+      <c r="J46" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="J46" s="361" t="s">
+      <c r="L46" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="M46" s="322"/>
+      <c r="N46" s="322"/>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D47" s="286" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="286" t="s">
         <v>313</v>
       </c>
-      <c r="K46" s="361" t="s">
+      <c r="F47" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="286" t="s">
+        <v>312</v>
+      </c>
+      <c r="H47" s="203" t="s">
+        <v>313</v>
+      </c>
+      <c r="I47" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="L46" s="361" t="s">
+      <c r="J47" s="286" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="286" t="s">
         <v>313</v>
       </c>
-      <c r="M46" s="361" t="s">
+      <c r="L47" s="286" t="s">
+        <v>320</v>
+      </c>
+      <c r="M47" s="319"/>
+      <c r="N47" s="319"/>
+      <c r="R47" s="325" t="s">
+        <v>274</v>
+      </c>
+      <c r="S47" s="325" t="s">
+        <v>313</v>
+      </c>
+      <c r="T47" s="327" t="s">
+        <v>320</v>
+      </c>
+      <c r="U47" s="203" t="s">
+        <v>274</v>
+      </c>
+      <c r="V47" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="W47" s="327" t="s">
+        <v>313</v>
+      </c>
+      <c r="X47" s="327" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y47" s="327" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z47" s="327" t="s">
         <v>276</v>
       </c>
-      <c r="N46" s="361" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="296" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="296" t="s">
-        <v>313</v>
-      </c>
-      <c r="G47" s="296" t="s">
-        <v>276</v>
-      </c>
-      <c r="H47" s="203" t="s">
-        <v>312</v>
-      </c>
-      <c r="I47" s="296" t="s">
-        <v>313</v>
-      </c>
-      <c r="J47" s="296" t="s">
-        <v>320</v>
-      </c>
-      <c r="K47" s="296" t="s">
-        <v>274</v>
-      </c>
-      <c r="L47" s="296" t="s">
-        <v>320</v>
-      </c>
-      <c r="M47" s="296" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="G48" s="369" t="s">
-        <v>8</v>
-      </c>
+      <c r="AA47" s="327"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="378"/>
       <c r="H48" s="299" t="s">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="I48" s="299"/>
       <c r="J48" s="299" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="K48" s="299"/>
       <c r="L48" s="299" t="s">
+        <v>323</v>
+      </c>
+      <c r="M48" s="321"/>
+      <c r="N48" s="5"/>
+      <c r="R48" s="320" t="s">
+        <v>274</v>
+      </c>
+      <c r="S48" s="320" t="s">
+        <v>313</v>
+      </c>
+      <c r="T48" s="320" t="s">
+        <v>276</v>
+      </c>
+      <c r="U48" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="V48" s="320" t="s">
+        <v>313</v>
+      </c>
+      <c r="W48" s="320" t="s">
+        <v>320</v>
+      </c>
+      <c r="X48" s="320" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y48" s="320" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z48" s="320" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA48" s="19"/>
+    </row>
+    <row r="49" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N49" s="5"/>
+      <c r="T49" s="321" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="321" t="s">
+        <v>72</v>
+      </c>
+      <c r="V49" s="321"/>
+      <c r="W49" s="321" t="s">
         <v>132</v>
       </c>
+      <c r="X49" s="321"/>
+      <c r="Y49" s="321" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z49" s="321"/>
+      <c r="AA49" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7103,38 +7529,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="G1" s="316" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="G1" s="337" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="316"/>
-      <c r="J1" s="317" t="s">
+      <c r="H1" s="337"/>
+      <c r="J1" s="338" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="P1" s="317" t="s">
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="P1" s="338" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="317"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="317"/>
-      <c r="T1" s="317"/>
-      <c r="V1" s="327" t="s">
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
+      <c r="S1" s="338"/>
+      <c r="T1" s="338"/>
+      <c r="V1" s="347" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="327"/>
-      <c r="X1" s="327"/>
-      <c r="Y1" s="327"/>
-      <c r="Z1" s="327"/>
+      <c r="W1" s="347"/>
+      <c r="X1" s="347"/>
+      <c r="Y1" s="347"/>
+      <c r="Z1" s="347"/>
       <c r="AA1" t="s">
         <v>157</v>
       </c>
@@ -7514,13 +7940,13 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V7" s="354" t="s">
+      <c r="V7" s="373" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="354"/>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="355"/>
+      <c r="W7" s="373"/>
+      <c r="X7" s="373"/>
+      <c r="Y7" s="373"/>
+      <c r="Z7" s="374"/>
       <c r="AA7" s="185">
         <f>SUM(AA2:AA6)</f>
         <v>52.155432816864746</v>
@@ -7530,13 +7956,13 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V8" s="356" t="s">
+      <c r="V8" s="375" t="s">
         <v>133</v>
       </c>
-      <c r="W8" s="356"/>
-      <c r="X8" s="356"/>
-      <c r="Y8" s="356"/>
-      <c r="Z8" s="357"/>
+      <c r="W8" s="375"/>
+      <c r="X8" s="375"/>
+      <c r="Y8" s="375"/>
+      <c r="Z8" s="376"/>
       <c r="AA8" s="3">
         <v>23</v>
       </c>
@@ -7545,13 +7971,13 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V9" s="320" t="s">
+      <c r="V9" s="335" t="s">
         <v>204</v>
       </c>
-      <c r="W9" s="320"/>
-      <c r="X9" s="320"/>
-      <c r="Y9" s="320"/>
-      <c r="Z9" s="320"/>
+      <c r="W9" s="335"/>
+      <c r="X9" s="335"/>
+      <c r="Y9" s="335"/>
+      <c r="Z9" s="335"/>
       <c r="AA9" s="175">
         <f>SQRT(AA7/AA8)</f>
         <v>1.5058643742969444</v>
@@ -7596,19 +8022,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="364" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
@@ -7981,15 +8407,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A1" s="347" t="s">
+      <c r="A1" s="365" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
       <c r="V1" s="120" t="s">
         <v>154</v>
       </c>
@@ -8121,16 +8547,16 @@
       <c r="G2" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="352" t="s">
+      <c r="I2" s="370" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="352"/>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
-      <c r="N2" s="352"/>
-      <c r="O2" s="352"/>
-      <c r="P2" s="352"/>
+      <c r="J2" s="370"/>
+      <c r="K2" s="370"/>
+      <c r="L2" s="370"/>
+      <c r="M2" s="370"/>
+      <c r="N2" s="370"/>
+      <c r="O2" s="370"/>
+      <c r="P2" s="370"/>
       <c r="U2" s="3" t="s">
         <v>143</v>
       </c>
@@ -10217,17 +10643,17 @@
       </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A16" s="348" t="s">
+      <c r="A16" s="366" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="349"/>
-      <c r="C16" s="349"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="349"/>
-      <c r="F16" s="349"/>
-      <c r="G16" s="349"/>
-      <c r="H16" s="349"/>
-      <c r="I16" s="349"/>
+      <c r="B16" s="367"/>
+      <c r="C16" s="367"/>
+      <c r="D16" s="367"/>
+      <c r="E16" s="367"/>
+      <c r="F16" s="367"/>
+      <c r="G16" s="367"/>
+      <c r="H16" s="367"/>
+      <c r="I16" s="367"/>
       <c r="U16" s="3" t="s">
         <v>143</v>
       </c>
@@ -11901,17 +12327,17 @@
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="I28" s="346" t="s">
+      <c r="I28" s="364" t="s">
         <v>268</v>
       </c>
-      <c r="J28" s="347"/>
-      <c r="K28" s="347"/>
-      <c r="L28" s="347"/>
-      <c r="M28" s="347"/>
-      <c r="N28" s="347"/>
-      <c r="O28" s="347"/>
-      <c r="P28" s="347"/>
-      <c r="Q28" s="347"/>
+      <c r="J28" s="365"/>
+      <c r="K28" s="365"/>
+      <c r="L28" s="365"/>
+      <c r="M28" s="365"/>
+      <c r="N28" s="365"/>
+      <c r="O28" s="365"/>
+      <c r="P28" s="365"/>
+      <c r="Q28" s="365"/>
     </row>
     <row r="29" spans="1:75" ht="30" x14ac:dyDescent="0.25">
       <c r="I29" s="173" t="s">
@@ -18396,31 +18822,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="338" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="G1" s="317" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="G1" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="324" t="s">
+      <c r="M1" s="344" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="325"/>
-      <c r="T1" s="326"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="345"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
+      <c r="R1" s="345"/>
+      <c r="S1" s="345"/>
+      <c r="T1" s="346"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -18765,35 +19191,35 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M8" s="323" t="s">
+      <c r="M8" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="323"/>
-      <c r="O8" s="323"/>
-      <c r="P8" s="323"/>
-      <c r="Q8" s="323"/>
-      <c r="R8" s="323"/>
-      <c r="S8" s="323"/>
-      <c r="T8" s="323"/>
+      <c r="N8" s="341"/>
+      <c r="O8" s="341"/>
+      <c r="P8" s="341"/>
+      <c r="Q8" s="341"/>
+      <c r="R8" s="341"/>
+      <c r="S8" s="341"/>
+      <c r="T8" s="341"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="327" t="s">
+      <c r="M9" s="347" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="327"/>
-      <c r="S9" s="327"/>
-      <c r="T9" s="327"/>
-      <c r="V9" s="322" t="s">
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
+      <c r="T9" s="347"/>
+      <c r="V9" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="322"/>
-      <c r="X9" s="322"/>
-      <c r="Y9" s="322"/>
-      <c r="Z9" s="322"/>
+      <c r="W9" s="340"/>
+      <c r="X9" s="340"/>
+      <c r="Y9" s="340"/>
+      <c r="Z9" s="340"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V10" s="181" t="s">
@@ -18813,14 +19239,14 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F11" s="328" t="s">
+      <c r="F11" s="342" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="329"/>
-      <c r="H11" s="329"/>
-      <c r="I11" s="329"/>
-      <c r="J11" s="329"/>
-      <c r="K11" s="329"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
+      <c r="I11" s="343"/>
+      <c r="J11" s="343"/>
+      <c r="K11" s="343"/>
       <c r="M11" s="293"/>
       <c r="N11" s="293" t="s">
         <v>22</v>
@@ -18941,13 +19367,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="285"/>
-      <c r="V13" s="323" t="s">
+      <c r="V13" s="341" t="s">
         <v>223</v>
       </c>
-      <c r="W13" s="323"/>
-      <c r="X13" s="323"/>
-      <c r="Y13" s="323"/>
-      <c r="Z13" s="323"/>
+      <c r="W13" s="341"/>
+      <c r="X13" s="341"/>
+      <c r="Y13" s="341"/>
+      <c r="Z13" s="341"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" s="8">
@@ -18988,13 +19414,13 @@
         <v>1</v>
       </c>
       <c r="T14" s="285"/>
-      <c r="V14" s="322" t="s">
+      <c r="V14" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="322"/>
-      <c r="X14" s="322"/>
-      <c r="Y14" s="322"/>
-      <c r="Z14" s="322"/>
+      <c r="W14" s="340"/>
+      <c r="X14" s="340"/>
+      <c r="Y14" s="340"/>
+      <c r="Z14" s="340"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" s="8">
@@ -19162,25 +19588,25 @@
       </c>
     </row>
     <row r="18" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="V18" s="323" t="s">
+      <c r="V18" s="341" t="s">
         <v>224</v>
       </c>
-      <c r="W18" s="323"/>
-      <c r="X18" s="323"/>
-      <c r="Y18" s="323"/>
-      <c r="Z18" s="323"/>
+      <c r="W18" s="341"/>
+      <c r="X18" s="341"/>
+      <c r="Y18" s="341"/>
+      <c r="Z18" s="341"/>
     </row>
     <row r="19" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M19" s="293"/>
-      <c r="N19" s="317" t="s">
+      <c r="N19" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="317"/>
-      <c r="P19" s="317"/>
-      <c r="Q19" s="317"/>
-      <c r="R19" s="317"/>
-      <c r="S19" s="317"/>
-      <c r="T19" s="317"/>
+      <c r="O19" s="338"/>
+      <c r="P19" s="338"/>
+      <c r="Q19" s="338"/>
+      <c r="R19" s="338"/>
+      <c r="S19" s="338"/>
+      <c r="T19" s="338"/>
     </row>
     <row r="20" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M20" s="4"/>
@@ -19315,13 +19741,13 @@
       </c>
     </row>
     <row r="26" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="N26" s="322" t="s">
+      <c r="N26" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="322"/>
-      <c r="P26" s="322"/>
-      <c r="Q26" s="322"/>
-      <c r="R26" s="322"/>
+      <c r="O26" s="340"/>
+      <c r="P26" s="340"/>
+      <c r="Q26" s="340"/>
+      <c r="R26" s="340"/>
     </row>
     <row r="27" spans="6:36" x14ac:dyDescent="0.25">
       <c r="N27" s="12" t="s">
@@ -19375,27 +19801,27 @@
       </c>
     </row>
     <row r="30" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="N30" s="322" t="s">
+      <c r="N30" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="322"/>
-      <c r="P30" s="322"/>
-      <c r="Q30" s="322"/>
-      <c r="R30" s="322"/>
-      <c r="V30" s="322" t="s">
+      <c r="O30" s="340"/>
+      <c r="P30" s="340"/>
+      <c r="Q30" s="340"/>
+      <c r="R30" s="340"/>
+      <c r="V30" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="W30" s="322"/>
-      <c r="X30" s="322"/>
-      <c r="Y30" s="322"/>
-      <c r="Z30" s="322"/>
-      <c r="AD30" s="322" t="s">
+      <c r="W30" s="340"/>
+      <c r="X30" s="340"/>
+      <c r="Y30" s="340"/>
+      <c r="Z30" s="340"/>
+      <c r="AD30" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="AE30" s="322"/>
-      <c r="AF30" s="322"/>
-      <c r="AG30" s="322"/>
-      <c r="AH30" s="322"/>
+      <c r="AE30" s="340"/>
+      <c r="AF30" s="340"/>
+      <c r="AG30" s="340"/>
+      <c r="AH30" s="340"/>
     </row>
     <row r="31" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L31" s="5"/>
@@ -19576,53 +20002,53 @@
     </row>
     <row r="34" spans="12:36" x14ac:dyDescent="0.25">
       <c r="L34" s="5"/>
-      <c r="N34" s="323" t="s">
+      <c r="N34" s="341" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="323"/>
-      <c r="P34" s="323"/>
-      <c r="Q34" s="323"/>
-      <c r="R34" s="323"/>
+      <c r="O34" s="341"/>
+      <c r="P34" s="341"/>
+      <c r="Q34" s="341"/>
+      <c r="R34" s="341"/>
       <c r="S34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T34" s="13"/>
-      <c r="V34" s="323" t="s">
+      <c r="V34" s="341" t="s">
         <v>33</v>
       </c>
-      <c r="W34" s="323"/>
-      <c r="X34" s="323"/>
-      <c r="Y34" s="323"/>
-      <c r="Z34" s="323"/>
+      <c r="W34" s="341"/>
+      <c r="X34" s="341"/>
+      <c r="Y34" s="341"/>
+      <c r="Z34" s="341"/>
       <c r="AA34" t="s">
         <v>37</v>
       </c>
-      <c r="AD34" s="323" t="s">
+      <c r="AD34" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="AE34" s="323"/>
-      <c r="AF34" s="323"/>
-      <c r="AG34" s="323"/>
-      <c r="AH34" s="323"/>
+      <c r="AE34" s="341"/>
+      <c r="AF34" s="341"/>
+      <c r="AG34" s="341"/>
+      <c r="AH34" s="341"/>
       <c r="AI34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="12:36" x14ac:dyDescent="0.25">
-      <c r="N35" s="322" t="s">
+      <c r="N35" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="O35" s="322"/>
-      <c r="P35" s="322"/>
-      <c r="Q35" s="322"/>
-      <c r="R35" s="322"/>
-      <c r="V35" s="322" t="s">
+      <c r="O35" s="340"/>
+      <c r="P35" s="340"/>
+      <c r="Q35" s="340"/>
+      <c r="R35" s="340"/>
+      <c r="V35" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="322"/>
-      <c r="X35" s="322"/>
-      <c r="Y35" s="322"/>
-      <c r="Z35" s="322"/>
+      <c r="W35" s="340"/>
+      <c r="X35" s="340"/>
+      <c r="Y35" s="340"/>
+      <c r="Z35" s="340"/>
     </row>
     <row r="36" spans="12:36" x14ac:dyDescent="0.25">
       <c r="L36" s="5"/>
@@ -19745,51 +20171,51 @@
       </c>
     </row>
     <row r="39" spans="12:36" x14ac:dyDescent="0.25">
-      <c r="N39" s="323" t="s">
+      <c r="N39" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="323"/>
-      <c r="P39" s="323"/>
-      <c r="Q39" s="323"/>
-      <c r="R39" s="323"/>
+      <c r="O39" s="341"/>
+      <c r="P39" s="341"/>
+      <c r="Q39" s="341"/>
+      <c r="R39" s="341"/>
       <c r="S39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="323" t="s">
+      <c r="V39" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="W39" s="323"/>
-      <c r="X39" s="323"/>
-      <c r="Y39" s="323"/>
-      <c r="Z39" s="323"/>
+      <c r="W39" s="341"/>
+      <c r="X39" s="341"/>
+      <c r="Y39" s="341"/>
+      <c r="Z39" s="341"/>
       <c r="AA39" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V30:Z30"/>
     <mergeCell ref="AD34:AH34"/>
     <mergeCell ref="AD30:AH30"/>
     <mergeCell ref="N39:R39"/>
     <mergeCell ref="N34:R34"/>
     <mergeCell ref="V34:Z34"/>
     <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="F11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -19832,50 +20258,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="338" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="M1" s="337" t="s">
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="M1" s="348" t="s">
         <v>298</v>
       </c>
-      <c r="N1" s="337"/>
-      <c r="O1" s="337"/>
-      <c r="P1" s="337"/>
-      <c r="Q1" s="337"/>
-      <c r="R1" s="337"/>
-      <c r="S1" s="337"/>
-      <c r="Y1" s="337" t="s">
+      <c r="N1" s="348"/>
+      <c r="O1" s="348"/>
+      <c r="P1" s="348"/>
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348"/>
+      <c r="S1" s="348"/>
+      <c r="Y1" s="348" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="337"/>
-      <c r="AA1" s="337"/>
-      <c r="AB1" s="337"/>
-      <c r="AC1" s="337"/>
-      <c r="AD1" s="337"/>
-      <c r="AE1" s="337"/>
+      <c r="Z1" s="348"/>
+      <c r="AA1" s="348"/>
+      <c r="AB1" s="348"/>
+      <c r="AC1" s="348"/>
+      <c r="AD1" s="348"/>
+      <c r="AE1" s="348"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
+      <c r="A2" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="343"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
       <c r="H2" s="176" t="s">
         <v>18</v>
       </c>
@@ -19888,26 +20314,26 @@
       <c r="K2" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="331" t="s">
+      <c r="M2" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="331"/>
-      <c r="R2" s="331"/>
-      <c r="S2" s="331"/>
+      <c r="N2" s="349"/>
+      <c r="O2" s="349"/>
+      <c r="P2" s="349"/>
+      <c r="Q2" s="349"/>
+      <c r="R2" s="349"/>
+      <c r="S2" s="349"/>
       <c r="T2" s="178"/>
       <c r="U2" s="178"/>
-      <c r="Y2" s="331" t="s">
+      <c r="Y2" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
-      <c r="AC2" s="331"/>
-      <c r="AD2" s="331"/>
-      <c r="AE2" s="331"/>
+      <c r="Z2" s="349"/>
+      <c r="AA2" s="349"/>
+      <c r="AB2" s="349"/>
+      <c r="AC2" s="349"/>
+      <c r="AD2" s="349"/>
+      <c r="AE2" s="349"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -20375,15 +20801,15 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M8" s="332" t="s">
+      <c r="M8" s="353" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="332"/>
-      <c r="O8" s="332"/>
-      <c r="P8" s="332"/>
-      <c r="Q8" s="332"/>
-      <c r="R8" s="332"/>
-      <c r="S8" s="332"/>
+      <c r="N8" s="353"/>
+      <c r="O8" s="353"/>
+      <c r="P8" s="353"/>
+      <c r="Q8" s="353"/>
+      <c r="R8" s="353"/>
+      <c r="S8" s="353"/>
       <c r="T8" s="178"/>
       <c r="U8" s="7"/>
       <c r="V8" s="177" t="s">
@@ -20434,13 +20860,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="334"/>
-      <c r="N9" s="335"/>
-      <c r="O9" s="335"/>
-      <c r="P9" s="335"/>
-      <c r="Q9" s="335"/>
-      <c r="R9" s="335"/>
-      <c r="S9" s="336"/>
+      <c r="M9" s="350"/>
+      <c r="N9" s="351"/>
+      <c r="O9" s="351"/>
+      <c r="P9" s="351"/>
+      <c r="Q9" s="351"/>
+      <c r="R9" s="351"/>
+      <c r="S9" s="352"/>
       <c r="T9" s="7"/>
       <c r="U9" s="177"/>
       <c r="Y9" s="178"/>
@@ -20559,16 +20985,16 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="324" t="s">
+      <c r="A12" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="325"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="325"/>
+      <c r="B12" s="345"/>
+      <c r="C12" s="345"/>
+      <c r="D12" s="345"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="345"/>
       <c r="I12" s="204"/>
       <c r="J12" s="186"/>
       <c r="K12" s="186"/>
@@ -20760,30 +21186,30 @@
       </c>
       <c r="J15" s="181"/>
       <c r="K15" s="181"/>
-      <c r="M15" s="332" t="s">
+      <c r="M15" s="353" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="332"/>
-      <c r="O15" s="332"/>
-      <c r="P15" s="332"/>
-      <c r="Q15" s="332"/>
-      <c r="R15" s="332"/>
-      <c r="S15" s="332"/>
+      <c r="N15" s="353"/>
+      <c r="O15" s="353"/>
+      <c r="P15" s="353"/>
+      <c r="Q15" s="353"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="353"/>
       <c r="T15" s="178"/>
       <c r="U15" s="177"/>
       <c r="V15" s="179" t="s">
         <v>213</v>
       </c>
       <c r="W15" s="178"/>
-      <c r="Y15" s="333" t="s">
+      <c r="Y15" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="Z15" s="333"/>
-      <c r="AA15" s="333"/>
-      <c r="AB15" s="333"/>
-      <c r="AC15" s="333"/>
-      <c r="AD15" s="333"/>
-      <c r="AE15" s="333"/>
+      <c r="Z15" s="354"/>
+      <c r="AA15" s="354"/>
+      <c r="AB15" s="354"/>
+      <c r="AC15" s="354"/>
+      <c r="AD15" s="354"/>
+      <c r="AE15" s="354"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -20816,15 +21242,15 @@
       </c>
       <c r="J16" s="181"/>
       <c r="K16" s="181"/>
-      <c r="M16" s="331" t="s">
+      <c r="M16" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="331"/>
-      <c r="O16" s="331"/>
-      <c r="P16" s="331"/>
-      <c r="Q16" s="331"/>
-      <c r="R16" s="331"/>
-      <c r="S16" s="331"/>
+      <c r="N16" s="349"/>
+      <c r="O16" s="349"/>
+      <c r="P16" s="349"/>
+      <c r="Q16" s="349"/>
+      <c r="R16" s="349"/>
+      <c r="S16" s="349"/>
       <c r="T16" s="178"/>
       <c r="U16" s="178"/>
       <c r="Y16" s="181" t="s">
@@ -21178,17 +21604,17 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="317" t="s">
+      <c r="A21" s="338" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="317"/>
-      <c r="C21" s="317"/>
-      <c r="D21" s="317"/>
-      <c r="E21" s="317"/>
-      <c r="F21" s="317"/>
-      <c r="G21" s="317"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
+      <c r="B21" s="338"/>
+      <c r="C21" s="338"/>
+      <c r="D21" s="338"/>
+      <c r="E21" s="338"/>
+      <c r="F21" s="338"/>
+      <c r="G21" s="338"/>
+      <c r="H21" s="338"/>
+      <c r="I21" s="338"/>
       <c r="J21" s="186"/>
       <c r="K21" s="186"/>
       <c r="M21" s="285" t="s">
@@ -21219,15 +21645,15 @@
       <c r="V21" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="Y21" s="327" t="s">
+      <c r="Y21" s="347" t="s">
         <v>225</v>
       </c>
-      <c r="Z21" s="327"/>
-      <c r="AA21" s="327"/>
-      <c r="AB21" s="327"/>
-      <c r="AC21" s="327"/>
-      <c r="AD21" s="327"/>
-      <c r="AE21" s="327"/>
+      <c r="Z21" s="347"/>
+      <c r="AA21" s="347"/>
+      <c r="AB21" s="347"/>
+      <c r="AC21" s="347"/>
+      <c r="AD21" s="347"/>
+      <c r="AE21" s="347"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -21261,27 +21687,27 @@
         <v>41</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="M22" s="332" t="s">
+      <c r="M22" s="353" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="332"/>
-      <c r="O22" s="332"/>
-      <c r="P22" s="332"/>
-      <c r="Q22" s="332"/>
-      <c r="R22" s="332"/>
-      <c r="S22" s="332"/>
+      <c r="N22" s="353"/>
+      <c r="O22" s="353"/>
+      <c r="P22" s="353"/>
+      <c r="Q22" s="353"/>
+      <c r="R22" s="353"/>
+      <c r="S22" s="353"/>
       <c r="T22" s="179"/>
       <c r="U22" s="178"/>
       <c r="V22" s="5"/>
-      <c r="Y22" s="333" t="s">
+      <c r="Y22" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="Z22" s="333"/>
-      <c r="AA22" s="333"/>
-      <c r="AB22" s="333"/>
-      <c r="AC22" s="333"/>
-      <c r="AD22" s="333"/>
-      <c r="AE22" s="333"/>
+      <c r="Z22" s="354"/>
+      <c r="AA22" s="354"/>
+      <c r="AB22" s="354"/>
+      <c r="AC22" s="354"/>
+      <c r="AD22" s="354"/>
+      <c r="AE22" s="354"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="180">
@@ -21317,15 +21743,15 @@
         <v>0</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="M23" s="331" t="s">
+      <c r="M23" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="331"/>
-      <c r="O23" s="331"/>
-      <c r="P23" s="331"/>
-      <c r="Q23" s="331"/>
-      <c r="R23" s="331"/>
-      <c r="S23" s="331"/>
+      <c r="N23" s="349"/>
+      <c r="O23" s="349"/>
+      <c r="P23" s="349"/>
+      <c r="Q23" s="349"/>
+      <c r="R23" s="349"/>
+      <c r="S23" s="349"/>
       <c r="T23" s="179"/>
       <c r="U23" s="179"/>
       <c r="Y23" s="181" t="s">
@@ -21750,15 +22176,15 @@
         <v>213</v>
       </c>
       <c r="W28" s="179"/>
-      <c r="Y28" s="327" t="s">
+      <c r="Y28" s="347" t="s">
         <v>226</v>
       </c>
-      <c r="Z28" s="327"/>
-      <c r="AA28" s="327"/>
-      <c r="AB28" s="327"/>
-      <c r="AC28" s="327"/>
-      <c r="AD28" s="327"/>
-      <c r="AE28" s="327"/>
+      <c r="Z28" s="347"/>
+      <c r="AA28" s="347"/>
+      <c r="AB28" s="347"/>
+      <c r="AC28" s="347"/>
+      <c r="AD28" s="347"/>
+      <c r="AE28" s="347"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -21793,55 +22219,55 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M29" s="320" t="s">
+      <c r="M29" s="335" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="320"/>
-      <c r="O29" s="320"/>
-      <c r="P29" s="320"/>
-      <c r="Q29" s="320"/>
-      <c r="R29" s="320"/>
-      <c r="S29" s="320"/>
+      <c r="N29" s="335"/>
+      <c r="O29" s="335"/>
+      <c r="P29" s="335"/>
+      <c r="Q29" s="335"/>
+      <c r="R29" s="335"/>
+      <c r="S29" s="335"/>
       <c r="T29" s="193"/>
       <c r="U29" s="193"/>
       <c r="V29" s="179"/>
       <c r="W29" s="179"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="324" t="s">
+      <c r="A30" s="344" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="325"/>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
-      <c r="E30" s="325"/>
-      <c r="F30" s="325"/>
-      <c r="G30" s="325"/>
-      <c r="H30" s="325"/>
-      <c r="I30" s="325"/>
+      <c r="B30" s="345"/>
+      <c r="C30" s="345"/>
+      <c r="D30" s="345"/>
+      <c r="E30" s="345"/>
+      <c r="F30" s="345"/>
+      <c r="G30" s="345"/>
+      <c r="H30" s="345"/>
+      <c r="I30" s="345"/>
       <c r="J30" s="186"/>
       <c r="K30" s="186"/>
-      <c r="M30" s="331" t="s">
+      <c r="M30" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="331"/>
-      <c r="O30" s="331"/>
-      <c r="P30" s="331"/>
-      <c r="Q30" s="331"/>
-      <c r="R30" s="331"/>
-      <c r="S30" s="331"/>
+      <c r="N30" s="349"/>
+      <c r="O30" s="349"/>
+      <c r="P30" s="349"/>
+      <c r="Q30" s="349"/>
+      <c r="R30" s="349"/>
+      <c r="S30" s="349"/>
       <c r="T30" s="193"/>
       <c r="U30" s="193"/>
       <c r="V30" s="177"/>
-      <c r="Y30" s="320" t="s">
+      <c r="Y30" s="335" t="s">
         <v>222</v>
       </c>
-      <c r="Z30" s="320"/>
-      <c r="AA30" s="320"/>
-      <c r="AB30" s="320"/>
-      <c r="AC30" s="320"/>
-      <c r="AD30" s="320"/>
-      <c r="AE30" s="320"/>
+      <c r="Z30" s="335"/>
+      <c r="AA30" s="335"/>
+      <c r="AB30" s="335"/>
+      <c r="AC30" s="335"/>
+      <c r="AD30" s="335"/>
+      <c r="AE30" s="335"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -22077,15 +22503,15 @@
         <v>29</v>
       </c>
       <c r="W33" s="179"/>
-      <c r="Y33" s="320" t="s">
+      <c r="Y33" s="335" t="s">
         <v>219</v>
       </c>
-      <c r="Z33" s="320"/>
-      <c r="AA33" s="320"/>
-      <c r="AB33" s="320"/>
-      <c r="AC33" s="320"/>
-      <c r="AD33" s="320"/>
-      <c r="AE33" s="320"/>
+      <c r="Z33" s="335"/>
+      <c r="AA33" s="335"/>
+      <c r="AB33" s="335"/>
+      <c r="AC33" s="335"/>
+      <c r="AD33" s="335"/>
+      <c r="AE33" s="335"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -22295,26 +22721,26 @@
         <v>4</v>
       </c>
       <c r="L36" s="193"/>
-      <c r="M36" s="331" t="s">
+      <c r="M36" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="331"/>
-      <c r="O36" s="331"/>
-      <c r="P36" s="331"/>
-      <c r="Q36" s="331"/>
-      <c r="R36" s="331"/>
-      <c r="S36" s="331"/>
+      <c r="N36" s="349"/>
+      <c r="O36" s="349"/>
+      <c r="P36" s="349"/>
+      <c r="Q36" s="349"/>
+      <c r="R36" s="349"/>
+      <c r="S36" s="349"/>
       <c r="T36" s="178"/>
       <c r="U36" s="178"/>
-      <c r="Y36" s="320" t="s">
+      <c r="Y36" s="335" t="s">
         <v>220</v>
       </c>
-      <c r="Z36" s="320"/>
-      <c r="AA36" s="320"/>
-      <c r="AB36" s="320"/>
-      <c r="AC36" s="320"/>
-      <c r="AD36" s="320"/>
-      <c r="AE36" s="320"/>
+      <c r="Z36" s="335"/>
+      <c r="AA36" s="335"/>
+      <c r="AB36" s="335"/>
+      <c r="AC36" s="335"/>
+      <c r="AD36" s="335"/>
+      <c r="AE36" s="335"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="180">
@@ -22493,15 +22919,15 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="330"/>
-      <c r="B39" s="330"/>
-      <c r="C39" s="330"/>
-      <c r="D39" s="330"/>
-      <c r="E39" s="330"/>
-      <c r="F39" s="330"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
+      <c r="A39" s="355"/>
+      <c r="B39" s="355"/>
+      <c r="C39" s="355"/>
+      <c r="D39" s="355"/>
+      <c r="E39" s="355"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="355"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="355"/>
       <c r="J39" s="197"/>
       <c r="K39" s="197"/>
       <c r="L39" s="177"/>
@@ -22534,25 +22960,25 @@
         <v>42</v>
       </c>
       <c r="W39" s="179"/>
-      <c r="Y39" s="320" t="s">
+      <c r="Y39" s="335" t="s">
         <v>221</v>
       </c>
-      <c r="Z39" s="320"/>
-      <c r="AA39" s="320"/>
-      <c r="AB39" s="320"/>
-      <c r="AC39" s="320"/>
-      <c r="AD39" s="320"/>
-      <c r="AE39" s="320"/>
+      <c r="Z39" s="335"/>
+      <c r="AA39" s="335"/>
+      <c r="AB39" s="335"/>
+      <c r="AC39" s="335"/>
+      <c r="AD39" s="335"/>
+      <c r="AE39" s="335"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="178"/>
-      <c r="B40" s="319"/>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="319"/>
-      <c r="G40" s="319"/>
-      <c r="H40" s="319"/>
+      <c r="B40" s="339"/>
+      <c r="C40" s="339"/>
+      <c r="D40" s="339"/>
+      <c r="E40" s="339"/>
+      <c r="F40" s="339"/>
+      <c r="G40" s="339"/>
+      <c r="H40" s="339"/>
       <c r="I40" s="7"/>
       <c r="J40" s="178"/>
       <c r="K40" s="178"/>
@@ -22684,15 +23110,15 @@
       <c r="I42" s="178"/>
       <c r="J42" s="178"/>
       <c r="K42" s="178"/>
-      <c r="M42" s="320" t="s">
+      <c r="M42" s="335" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="320"/>
-      <c r="O42" s="320"/>
-      <c r="P42" s="320"/>
-      <c r="Q42" s="320"/>
-      <c r="R42" s="320"/>
-      <c r="S42" s="320"/>
+      <c r="N42" s="335"/>
+      <c r="O42" s="335"/>
+      <c r="P42" s="335"/>
+      <c r="Q42" s="335"/>
+      <c r="R42" s="335"/>
+      <c r="S42" s="335"/>
       <c r="T42" s="201"/>
       <c r="U42" s="178"/>
     </row>
@@ -22708,15 +23134,15 @@
       <c r="I43" s="178"/>
       <c r="J43" s="178"/>
       <c r="K43" s="178"/>
-      <c r="M43" s="331" t="s">
+      <c r="M43" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="331"/>
-      <c r="O43" s="331"/>
-      <c r="P43" s="331"/>
-      <c r="Q43" s="331"/>
-      <c r="R43" s="331"/>
-      <c r="S43" s="331"/>
+      <c r="N43" s="349"/>
+      <c r="O43" s="349"/>
+      <c r="P43" s="349"/>
+      <c r="Q43" s="349"/>
+      <c r="R43" s="349"/>
+      <c r="S43" s="349"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="178"/>
@@ -22757,13 +23183,13 @@
       <c r="V44" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="X44" s="319"/>
-      <c r="Y44" s="319"/>
-      <c r="Z44" s="319"/>
-      <c r="AA44" s="319"/>
-      <c r="AB44" s="319"/>
-      <c r="AC44" s="319"/>
-      <c r="AD44" s="319"/>
+      <c r="X44" s="339"/>
+      <c r="Y44" s="339"/>
+      <c r="Z44" s="339"/>
+      <c r="AA44" s="339"/>
+      <c r="AB44" s="339"/>
+      <c r="AC44" s="339"/>
+      <c r="AD44" s="339"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="178"/>
@@ -22910,15 +23336,15 @@
       <c r="AD47" s="178"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="330"/>
-      <c r="B48" s="330"/>
-      <c r="C48" s="330"/>
-      <c r="D48" s="330"/>
-      <c r="E48" s="330"/>
-      <c r="F48" s="330"/>
-      <c r="G48" s="330"/>
-      <c r="H48" s="330"/>
-      <c r="I48" s="330"/>
+      <c r="A48" s="355"/>
+      <c r="B48" s="355"/>
+      <c r="C48" s="355"/>
+      <c r="D48" s="355"/>
+      <c r="E48" s="355"/>
+      <c r="F48" s="355"/>
+      <c r="G48" s="355"/>
+      <c r="H48" s="355"/>
+      <c r="I48" s="355"/>
       <c r="J48" s="197"/>
       <c r="K48" s="197"/>
       <c r="M48" s="180" t="s">
@@ -22969,15 +23395,15 @@
       <c r="I49" s="7"/>
       <c r="J49" s="178"/>
       <c r="K49" s="178"/>
-      <c r="M49" s="320" t="s">
+      <c r="M49" s="335" t="s">
         <v>57</v>
       </c>
-      <c r="N49" s="320"/>
-      <c r="O49" s="320"/>
-      <c r="P49" s="320"/>
-      <c r="Q49" s="320"/>
-      <c r="R49" s="320"/>
-      <c r="S49" s="320"/>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+      <c r="P49" s="335"/>
+      <c r="Q49" s="335"/>
+      <c r="R49" s="335"/>
+      <c r="S49" s="335"/>
       <c r="T49" s="178"/>
       <c r="U49" s="178"/>
       <c r="X49" s="178"/>
@@ -23000,40 +23426,18 @@
       <c r="I50" s="178"/>
       <c r="J50" s="178"/>
       <c r="K50" s="178"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
-      <c r="O50" s="320"/>
-      <c r="P50" s="320"/>
-      <c r="Q50" s="320"/>
-      <c r="R50" s="320"/>
-      <c r="S50" s="320"/>
+      <c r="M50" s="335"/>
+      <c r="N50" s="335"/>
+      <c r="O50" s="335"/>
+      <c r="P50" s="335"/>
+      <c r="Q50" s="335"/>
+      <c r="R50" s="335"/>
+      <c r="S50" s="335"/>
       <c r="T50" s="178"/>
       <c r="U50" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="M42:S42"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="Y30:AE30"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="Y36:AE36"/>
-    <mergeCell ref="Y39:AE39"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y28:AE28"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="M2:S2"/>
@@ -23047,6 +23451,28 @@
     <mergeCell ref="M30:S30"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A30:I30"/>
+    <mergeCell ref="X44:AD44"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="Y30:AE30"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="Y36:AE36"/>
+    <mergeCell ref="Y39:AE39"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y28:AE28"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="M42:S42"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Y2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -23097,15 +23523,15 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="339" t="s">
+      <c r="B2" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="357"/>
       <c r="J2" s="45" t="s">
         <v>65</v>
       </c>
@@ -23183,7 +23609,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="358" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -23236,7 +23662,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="340"/>
+      <c r="A5" s="358"/>
       <c r="B5" s="37" t="s">
         <v>290</v>
       </c>
@@ -23289,7 +23715,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="340" t="s">
+      <c r="A6" s="358" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -23343,7 +23769,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="340"/>
+      <c r="A7" s="358"/>
       <c r="B7" s="40" t="s">
         <v>292</v>
       </c>
@@ -23393,7 +23819,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="340" t="s">
+      <c r="A8" s="358" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -23443,7 +23869,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="340"/>
+      <c r="A9" s="358"/>
       <c r="B9" s="37" t="s">
         <v>294</v>
       </c>
@@ -23507,11 +23933,11 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="J11" s="338" t="s">
+      <c r="J11" s="356" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="338"/>
-      <c r="L11" s="338"/>
+      <c r="K11" s="356"/>
+      <c r="L11" s="356"/>
       <c r="R11" s="283"/>
       <c r="S11" s="283"/>
       <c r="T11" s="283"/>
@@ -23576,15 +24002,15 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="339"/>
-      <c r="D13" s="339"/>
-      <c r="E13" s="339"/>
-      <c r="F13" s="339"/>
-      <c r="G13" s="339"/>
-      <c r="H13" s="339"/>
+      <c r="B13" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="357"/>
+      <c r="D13" s="357"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="357"/>
+      <c r="H13" s="357"/>
       <c r="I13" s="283"/>
       <c r="J13" s="283"/>
       <c r="K13" s="283"/>
@@ -23923,12 +24349,12 @@
       <c r="S18" s="283"/>
       <c r="T18" s="283"/>
       <c r="U18" s="283"/>
-      <c r="V18" s="338" t="s">
+      <c r="V18" s="356" t="s">
         <v>288</v>
       </c>
-      <c r="W18" s="338"/>
-      <c r="X18" s="338"/>
-      <c r="Y18" s="338"/>
+      <c r="W18" s="356"/>
+      <c r="X18" s="356"/>
+      <c r="Y18" s="356"/>
       <c r="Z18" s="283">
         <v>7</v>
       </c>
@@ -24364,12 +24790,12 @@
       <c r="B43">
         <v>0.47005071531687659</v>
       </c>
-      <c r="F43" s="341" t="s">
+      <c r="F43" s="359" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="341"/>
-      <c r="H43" s="341"/>
-      <c r="I43" s="341"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
@@ -24521,11 +24947,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="361" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
       <c r="E1" s="77" t="s">
         <v>92</v>
       </c>
@@ -24549,12 +24975,12 @@
       <c r="O1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="342"/>
-      <c r="S1" s="342"/>
-      <c r="T1" s="342"/>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
+      <c r="R1" s="360"/>
+      <c r="S1" s="360"/>
+      <c r="T1" s="360"/>
+      <c r="U1" s="360"/>
+      <c r="V1" s="360"/>
+      <c r="W1" s="360"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
@@ -24715,11 +25141,11 @@
       <c r="W5" s="61"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="343" t="s">
+      <c r="A6" s="361" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="343"/>
-      <c r="C6" s="343"/>
+      <c r="B6" s="361"/>
+      <c r="C6" s="361"/>
       <c r="E6" s="74">
         <v>5</v>
       </c>
@@ -24893,11 +25319,11 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="343" t="s">
+      <c r="A11" s="361" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="343"/>
-      <c r="C11" s="343"/>
+      <c r="B11" s="361"/>
+      <c r="C11" s="361"/>
       <c r="D11" s="65"/>
       <c r="E11" s="73">
         <v>2</v>
@@ -25081,11 +25507,11 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="343" t="s">
+      <c r="A16" s="361" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="343"/>
-      <c r="C16" s="343"/>
+      <c r="B16" s="361"/>
+      <c r="C16" s="361"/>
       <c r="D16" s="65"/>
       <c r="E16" s="73">
         <v>7</v>
@@ -25239,9 +25665,9 @@
       <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="342"/>
-      <c r="B21" s="342"/>
-      <c r="C21" s="342"/>
+      <c r="A21" s="360"/>
+      <c r="B21" s="360"/>
+      <c r="C21" s="360"/>
       <c r="D21" s="65"/>
       <c r="E21" s="73">
         <v>4</v>
@@ -25724,20 +26150,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="E1" s="317" t="s">
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="E1" s="338" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="317"/>
+      <c r="F1" s="338"/>
       <c r="G1" s="89"/>
-      <c r="H1" s="317" t="s">
+      <c r="H1" s="338" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="317"/>
+      <c r="I1" s="338"/>
       <c r="K1" s="288" t="s">
         <v>300</v>
       </c>
@@ -25756,30 +26182,30 @@
       <c r="P1" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="340" t="s">
+      <c r="Q1" s="305"/>
+      <c r="R1" s="358" t="s">
         <v>308</v>
       </c>
-      <c r="S1" s="313" t="s">
+      <c r="S1" s="315" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="313" t="s">
+      <c r="T1" s="315" t="s">
         <v>130</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>307</v>
       </c>
       <c r="V1" s="103"/>
-      <c r="W1" s="345" t="s">
+      <c r="W1" s="363" t="s">
         <v>309</v>
       </c>
-      <c r="X1" s="313" t="s">
+      <c r="X1" s="315" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" s="313" t="s">
+      <c r="Y1" s="315" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" s="313" t="s">
+      <c r="Z1" s="315" t="s">
         <v>310</v>
       </c>
       <c r="AA1" s="64"/>
@@ -25836,37 +26262,37 @@
       <c r="I2" s="88">
         <v>4</v>
       </c>
-      <c r="K2" s="305" t="s">
+      <c r="K2" s="307" t="s">
         <v>301</v>
       </c>
-      <c r="L2" s="306" t="s">
+      <c r="L2" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="306" t="s">
+      <c r="M2" s="308" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="306" t="s">
+      <c r="N2" s="308" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="307">
-        <v>2</v>
-      </c>
-      <c r="P2" s="308">
+      <c r="O2" s="309">
+        <v>2</v>
+      </c>
+      <c r="P2" s="310">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q2" s="314"/>
-      <c r="R2" s="340"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="358"/>
       <c r="S2" s="291">
         <v>1</v>
       </c>
-      <c r="T2" s="309">
+      <c r="T2" s="311">
         <v>1</v>
       </c>
       <c r="U2" s="292">
         <v>1</v>
       </c>
       <c r="V2" s="289"/>
-      <c r="W2" s="345"/>
+      <c r="W2" s="363"/>
       <c r="X2" s="203">
         <v>1</v>
       </c>
@@ -25939,23 +26365,23 @@
       <c r="O3" s="91">
         <v>4</v>
       </c>
-      <c r="P3" s="304">
+      <c r="P3" s="306">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="315"/>
-      <c r="R3" s="340"/>
+      <c r="Q3" s="317"/>
+      <c r="R3" s="358"/>
       <c r="S3" s="291">
         <v>2</v>
       </c>
-      <c r="T3" s="309">
+      <c r="T3" s="311">
         <v>1</v>
       </c>
       <c r="U3" s="292">
         <v>3</v>
       </c>
       <c r="V3" s="289"/>
-      <c r="W3" s="345"/>
-      <c r="X3" s="311">
+      <c r="W3" s="363"/>
+      <c r="X3" s="313">
         <v>2</v>
       </c>
       <c r="Y3" s="291">
@@ -26012,38 +26438,38 @@
       <c r="I4" s="88">
         <v>4</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="307" t="s">
         <v>303</v>
       </c>
-      <c r="L4" s="306" t="s">
+      <c r="L4" s="308" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="306" t="s">
+      <c r="M4" s="308" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="306" t="s">
+      <c r="N4" s="308" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="307">
+      <c r="O4" s="309">
         <v>7</v>
       </c>
-      <c r="P4" s="308">
+      <c r="P4" s="310">
         <v>2.1</v>
       </c>
-      <c r="Q4" s="314"/>
-      <c r="R4" s="340"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="358"/>
       <c r="S4" s="291">
         <v>3</v>
       </c>
-      <c r="T4" s="309">
+      <c r="T4" s="311">
         <v>1</v>
       </c>
       <c r="U4" s="292">
         <v>1</v>
       </c>
       <c r="V4" s="289"/>
-      <c r="W4" s="345"/>
-      <c r="X4" s="311">
+      <c r="W4" s="363"/>
+      <c r="X4" s="313">
         <v>2</v>
       </c>
       <c r="Y4" s="291">
@@ -26074,7 +26500,7 @@
       <c r="AI4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="AJ4" s="318">
+      <c r="AJ4" s="334">
         <v>7</v>
       </c>
     </row>
@@ -26104,23 +26530,23 @@
       <c r="O5" s="91">
         <v>5</v>
       </c>
-      <c r="P5" s="304">
+      <c r="P5" s="306">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q5" s="315"/>
-      <c r="R5" s="340"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="358"/>
       <c r="S5" s="291">
         <v>2</v>
       </c>
-      <c r="T5" s="310">
+      <c r="T5" s="312">
         <v>2</v>
       </c>
       <c r="U5" s="292">
         <v>1</v>
       </c>
       <c r="V5" s="289"/>
-      <c r="W5" s="345"/>
-      <c r="X5" s="312">
+      <c r="W5" s="363"/>
+      <c r="X5" s="314">
         <v>3</v>
       </c>
       <c r="Y5" s="291">
@@ -26151,43 +26577,43 @@
       <c r="AI5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" s="318"/>
+      <c r="AJ5" s="334"/>
     </row>
     <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="290"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="305" t="s">
+      <c r="K6" s="307" t="s">
         <v>305</v>
       </c>
-      <c r="L6" s="306" t="s">
+      <c r="L6" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="306" t="s">
+      <c r="M6" s="308" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="306" t="s">
+      <c r="N6" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="307">
-        <v>4</v>
-      </c>
-      <c r="P6" s="308">
+      <c r="O6" s="309">
+        <v>4</v>
+      </c>
+      <c r="P6" s="310">
         <v>3.1</v>
       </c>
-      <c r="Q6" s="314"/>
-      <c r="R6" s="340"/>
+      <c r="Q6" s="316"/>
+      <c r="R6" s="358"/>
       <c r="S6" s="291">
         <v>3</v>
       </c>
-      <c r="T6" s="310">
+      <c r="T6" s="312">
         <v>2</v>
       </c>
       <c r="U6" s="292">
@@ -26218,7 +26644,7 @@
       <c r="AI6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ6" s="318">
+      <c r="AJ6" s="334">
         <v>5</v>
       </c>
     </row>
@@ -26248,15 +26674,15 @@
       <c r="O7" s="91">
         <v>4</v>
       </c>
-      <c r="P7" s="304">
+      <c r="P7" s="306">
         <v>3.2</v>
       </c>
-      <c r="Q7" s="315"/>
-      <c r="R7" s="340"/>
+      <c r="Q7" s="317"/>
+      <c r="R7" s="358"/>
       <c r="S7" s="291">
         <v>1</v>
       </c>
-      <c r="T7" s="312">
+      <c r="T7" s="314">
         <v>3</v>
       </c>
       <c r="U7" s="292">
@@ -26287,16 +26713,16 @@
       <c r="AI7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="318"/>
+      <c r="AJ7" s="334"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E8" s="98"/>
       <c r="F8" s="98"/>
-      <c r="R8" s="340"/>
+      <c r="R8" s="358"/>
       <c r="S8" s="291">
         <v>2</v>
       </c>
-      <c r="T8" s="312">
+      <c r="T8" s="314">
         <v>3</v>
       </c>
       <c r="U8" s="292">
@@ -26327,18 +26753,18 @@
       <c r="AI8" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" s="321">
+      <c r="AJ8" s="336">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E9" s="98"/>
       <c r="F9" s="98"/>
-      <c r="R9" s="340"/>
+      <c r="R9" s="358"/>
       <c r="S9" s="291">
         <v>3</v>
       </c>
-      <c r="T9" s="312">
+      <c r="T9" s="314">
         <v>3</v>
       </c>
       <c r="U9" s="292">
@@ -26369,7 +26795,7 @@
       <c r="AI9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="321"/>
+      <c r="AJ9" s="336"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S10" s="33"/>
@@ -26400,7 +26826,7 @@
       <c r="AI10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="318">
+      <c r="AJ10" s="334">
         <v>4</v>
       </c>
     </row>
@@ -26433,7 +26859,7 @@
       <c r="AI11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" s="318"/>
+      <c r="AJ11" s="334"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S12" s="33"/>
@@ -26447,11 +26873,11 @@
       <c r="AC12" s="60"/>
       <c r="AD12" s="60"/>
       <c r="AE12" s="60"/>
-      <c r="AG12" s="320" t="s">
+      <c r="AG12" s="335" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="320"/>
-      <c r="AI12" s="320"/>
+      <c r="AH12" s="335"/>
+      <c r="AI12" s="335"/>
       <c r="AJ12" s="105"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -26741,9 +27167,9 @@
         <v>2</v>
       </c>
       <c r="T24" s="3"/>
-      <c r="AG24" s="344"/>
-      <c r="AH24" s="344"/>
-      <c r="AI24" s="344"/>
+      <c r="AG24" s="362"/>
+      <c r="AH24" s="362"/>
+      <c r="AI24" s="362"/>
     </row>
     <row r="25" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D25" s="87"/>
@@ -26966,6 +27392,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AG12:AI12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
@@ -26973,11 +27404,6 @@
     <mergeCell ref="AG24:AI24"/>
     <mergeCell ref="R1:R9"/>
     <mergeCell ref="W1:W5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AG12:AI12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -27026,17 +27452,17 @@
       <c r="U1" s="235"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="366" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
-      <c r="I2" s="349"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
       <c r="J2" s="151"/>
     </row>
     <row r="3" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27409,24 +27835,24 @@
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="352" t="s">
+      <c r="A13" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="352"/>
-      <c r="K13" s="353" t="s">
+      <c r="B13" s="370"/>
+      <c r="C13" s="370"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="370"/>
+      <c r="F13" s="370"/>
+      <c r="G13" s="370"/>
+      <c r="K13" s="371" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="353"/>
-      <c r="M13" s="353"/>
-      <c r="N13" s="353"/>
-      <c r="O13" s="353"/>
-      <c r="P13" s="353"/>
-      <c r="Q13" s="353"/>
+      <c r="L13" s="371"/>
+      <c r="M13" s="371"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="371"/>
+      <c r="P13" s="371"/>
+      <c r="Q13" s="371"/>
       <c r="R13" s="64"/>
       <c r="S13" s="142"/>
       <c r="T13" s="33"/>
@@ -27956,28 +28382,28 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="352" t="s">
+      <c r="A24" s="370" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="352"/>
-      <c r="C24" s="352"/>
-      <c r="D24" s="352"/>
-      <c r="E24" s="352"/>
-      <c r="F24" s="352"/>
-      <c r="G24" s="352"/>
-      <c r="H24" s="352"/>
-      <c r="I24" s="352"/>
-      <c r="K24" s="352" t="s">
+      <c r="B24" s="370"/>
+      <c r="C24" s="370"/>
+      <c r="D24" s="370"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="370"/>
+      <c r="H24" s="370"/>
+      <c r="I24" s="370"/>
+      <c r="K24" s="370" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="352"/>
-      <c r="M24" s="352"/>
-      <c r="N24" s="352"/>
-      <c r="O24" s="352"/>
-      <c r="P24" s="352"/>
-      <c r="Q24" s="352"/>
-      <c r="R24" s="352"/>
-      <c r="S24" s="352"/>
+      <c r="L24" s="370"/>
+      <c r="M24" s="370"/>
+      <c r="N24" s="370"/>
+      <c r="O24" s="370"/>
+      <c r="P24" s="370"/>
+      <c r="Q24" s="370"/>
+      <c r="R24" s="370"/>
+      <c r="S24" s="370"/>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="121"/>
@@ -28370,17 +28796,17 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K32" s="351" t="s">
+      <c r="K32" s="369" t="s">
         <v>172</v>
       </c>
-      <c r="L32" s="351"/>
-      <c r="M32" s="351"/>
-      <c r="N32" s="351"/>
-      <c r="O32" s="351"/>
-      <c r="P32" s="351"/>
-      <c r="Q32" s="351"/>
-      <c r="R32" s="351"/>
-      <c r="S32" s="351"/>
+      <c r="L32" s="369"/>
+      <c r="M32" s="369"/>
+      <c r="N32" s="369"/>
+      <c r="O32" s="369"/>
+      <c r="P32" s="369"/>
+      <c r="Q32" s="369"/>
+      <c r="R32" s="369"/>
+      <c r="S32" s="369"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K33" s="33"/>
@@ -28407,14 +28833,14 @@
       <c r="H34" s="145"/>
       <c r="I34" s="145"/>
       <c r="K34" s="33"/>
-      <c r="L34" s="350" t="s">
+      <c r="L34" s="368" t="s">
         <v>181</v>
       </c>
-      <c r="M34" s="350"/>
-      <c r="N34" s="350"/>
-      <c r="O34" s="350"/>
-      <c r="P34" s="350"/>
-      <c r="Q34" s="350"/>
+      <c r="M34" s="368"/>
+      <c r="N34" s="368"/>
+      <c r="O34" s="368"/>
+      <c r="P34" s="368"/>
+      <c r="Q34" s="368"/>
       <c r="R34" s="64"/>
       <c r="S34" s="243"/>
       <c r="T34" s="244" t="s">
@@ -29017,10 +29443,10 @@
         <f>J41/K44</f>
         <v>-4.8410748142123552E-2</v>
       </c>
-      <c r="O45" s="341" t="s">
+      <c r="O45" s="359" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="341"/>
+      <c r="P45" s="359"/>
       <c r="Q45" s="126">
         <f>Q44/O44</f>
         <v>0.25</v>
@@ -29052,24 +29478,24 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="353" t="s">
+      <c r="A47" s="371" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="353"/>
-      <c r="C47" s="353"/>
-      <c r="D47" s="353"/>
-      <c r="E47" s="353"/>
-      <c r="F47" s="353"/>
-      <c r="G47" s="353"/>
-      <c r="K47" s="353" t="s">
+      <c r="B47" s="371"/>
+      <c r="C47" s="371"/>
+      <c r="D47" s="371"/>
+      <c r="E47" s="371"/>
+      <c r="F47" s="371"/>
+      <c r="G47" s="371"/>
+      <c r="K47" s="371" t="s">
         <v>195</v>
       </c>
-      <c r="L47" s="353"/>
-      <c r="M47" s="353"/>
-      <c r="N47" s="353"/>
-      <c r="O47" s="353"/>
-      <c r="P47" s="353"/>
-      <c r="Q47" s="353"/>
+      <c r="L47" s="371"/>
+      <c r="M47" s="371"/>
+      <c r="N47" s="371"/>
+      <c r="O47" s="371"/>
+      <c r="P47" s="371"/>
+      <c r="Q47" s="371"/>
     </row>
     <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="121" t="s">
@@ -29735,18 +30161,18 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="346" t="s">
+      <c r="A64" s="364" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="347"/>
-      <c r="C64" s="347"/>
-      <c r="D64" s="347"/>
-      <c r="E64" s="347"/>
-      <c r="F64" s="347"/>
-      <c r="G64" s="347"/>
-      <c r="H64" s="347"/>
-      <c r="I64" s="347"/>
-      <c r="J64" s="347"/>
+      <c r="B64" s="365"/>
+      <c r="C64" s="365"/>
+      <c r="D64" s="365"/>
+      <c r="E64" s="365"/>
+      <c r="F64" s="365"/>
+      <c r="G64" s="365"/>
+      <c r="H64" s="365"/>
+      <c r="I64" s="365"/>
+      <c r="J64" s="365"/>
     </row>
     <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">

--- a/minhashing-example.xlsx
+++ b/minhashing-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Documents\algorithms-for-big-data\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827EBB2D-B11D-48A9-8D84-922E5F1491EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E871A4-9839-4CA2-BAB2-D0F1F9F1569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="326">
   <si>
     <t>Characteristic Matrix</t>
   </si>
@@ -1266,6 +1266,12 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>T =</t>
+  </si>
+  <si>
+    <t>P =</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2097,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="384">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2838,16 +2844,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2938,8 +2935,41 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2947,25 +2977,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,10 +2995,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2995,13 +3022,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,6 +3076,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3065,15 +3092,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4064,25 +4082,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="339" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
       <c r="D1" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="338" t="s">
+      <c r="E1" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="338"/>
+      <c r="F1" s="340"/>
       <c r="G1" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="338" t="s">
+      <c r="H1" s="340" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="338"/>
+      <c r="I1" s="340"/>
       <c r="L1" s="3" t="s">
         <v>126</v>
       </c>
@@ -4410,7 +4428,7 @@
       <c r="AI4" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="AJ4" s="334">
+      <c r="AJ4" s="341">
         <v>7</v>
       </c>
     </row>
@@ -4478,11 +4496,11 @@
       <c r="AI5" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" s="334"/>
+      <c r="AJ5" s="341"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E6" s="339"/>
-      <c r="F6" s="339"/>
+      <c r="E6" s="342"/>
+      <c r="F6" s="342"/>
       <c r="K6" s="208" t="s">
         <v>119</v>
       </c>
@@ -4536,7 +4554,7 @@
       <c r="AI6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ6" s="334">
+      <c r="AJ6" s="341">
         <v>5</v>
       </c>
     </row>
@@ -4596,7 +4614,7 @@
       <c r="AI7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="334"/>
+      <c r="AJ7" s="341"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E8" s="98"/>
@@ -4639,7 +4657,7 @@
       <c r="AI8" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" s="336">
+      <c r="AJ8" s="344">
         <v>4</v>
       </c>
     </row>
@@ -4684,7 +4702,7 @@
       <c r="AI9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="336"/>
+      <c r="AJ9" s="344"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q10" s="64"/>
@@ -4717,7 +4735,7 @@
       <c r="AI10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="334">
+      <c r="AJ10" s="341">
         <v>4</v>
       </c>
     </row>
@@ -4752,7 +4770,7 @@
       <c r="AI11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" s="334"/>
+      <c r="AJ11" s="341"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q12" s="64"/>
@@ -4768,11 +4786,11 @@
       <c r="AC12" s="207"/>
       <c r="AD12" s="207"/>
       <c r="AE12" s="207"/>
-      <c r="AG12" s="335" t="s">
+      <c r="AG12" s="343" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="335"/>
-      <c r="AI12" s="335"/>
+      <c r="AH12" s="343"/>
+      <c r="AI12" s="343"/>
       <c r="AJ12" s="220" t="s">
         <v>157</v>
       </c>
@@ -4982,7 +5000,7 @@
       <c r="AI19" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="AJ19" s="334">
+      <c r="AJ19" s="341">
         <v>7</v>
       </c>
     </row>
@@ -5021,7 +5039,7 @@
       <c r="AI20" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="AJ20" s="334"/>
+      <c r="AJ20" s="341"/>
     </row>
     <row r="21" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K21" s="223">
@@ -5058,7 +5076,7 @@
       <c r="AI21" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ21" s="334">
+      <c r="AJ21" s="341">
         <v>5</v>
       </c>
     </row>
@@ -5097,7 +5115,7 @@
       <c r="AI22" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ22" s="334"/>
+      <c r="AJ22" s="341"/>
     </row>
     <row r="23" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K23" s="208">
@@ -5134,7 +5152,7 @@
       <c r="AI23" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ23" s="336">
+      <c r="AJ23" s="344">
         <v>4</v>
       </c>
     </row>
@@ -5168,7 +5186,7 @@
       <c r="AI24" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ24" s="336"/>
+      <c r="AJ24" s="344"/>
     </row>
     <row r="25" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K25" s="221">
@@ -5200,7 +5218,7 @@
       <c r="AI25" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ25" s="334">
+      <c r="AJ25" s="341">
         <v>4</v>
       </c>
     </row>
@@ -5234,7 +5252,7 @@
       <c r="AI26" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ26" s="334"/>
+      <c r="AJ26" s="341"/>
     </row>
     <row r="27" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K27" s="223">
@@ -5257,11 +5275,11 @@
       <c r="S27" s="102">
         <v>1</v>
       </c>
-      <c r="AG27" s="335" t="s">
+      <c r="AG27" s="343" t="s">
         <v>138</v>
       </c>
-      <c r="AH27" s="335"/>
-      <c r="AI27" s="335"/>
+      <c r="AH27" s="343"/>
+      <c r="AI27" s="343"/>
       <c r="AJ27" s="220" t="s">
         <v>157</v>
       </c>
@@ -5407,12 +5425,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AJ25:AJ26"/>
     <mergeCell ref="AG27:AI27"/>
     <mergeCell ref="AJ8:AJ9"/>
@@ -5421,6 +5433,12 @@
     <mergeCell ref="AJ19:AJ20"/>
     <mergeCell ref="AJ21:AJ22"/>
     <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5433,15 +5451,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E4583-A74F-4BE4-8E2C-5878D1C2F5DA}">
-  <dimension ref="B4:AA49"/>
+  <dimension ref="A2:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="7" width="5.140625" customWidth="1"/>
@@ -5468,1526 +5486,1655 @@
     <col min="28" max="28" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D2" s="322" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="322" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="323" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="323" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="M2" s="323" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="O2" s="322" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="322" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q2" s="322" t="s">
+        <v>312</v>
+      </c>
+      <c r="R2" s="322" t="s">
+        <v>312</v>
+      </c>
+      <c r="S2" s="326" t="s">
+        <v>313</v>
+      </c>
+      <c r="T2" s="326" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="321" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="100">
+        <v>0</v>
+      </c>
+      <c r="E3" s="286">
+        <v>0</v>
+      </c>
+      <c r="F3" s="286">
+        <v>0</v>
+      </c>
+      <c r="G3" s="286">
+        <v>0</v>
+      </c>
+      <c r="H3" s="286">
+        <v>0</v>
+      </c>
+      <c r="I3" s="286">
+        <v>0</v>
+      </c>
+      <c r="J3" s="286">
+        <v>0</v>
+      </c>
+      <c r="K3" s="286">
+        <v>0</v>
+      </c>
+      <c r="L3" s="286">
+        <v>0</v>
+      </c>
+      <c r="M3" s="286">
+        <v>0</v>
+      </c>
+      <c r="N3" s="286">
+        <v>0</v>
+      </c>
+      <c r="O3" s="296">
+        <v>0</v>
+      </c>
+      <c r="P3" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="296">
+        <v>0</v>
+      </c>
+      <c r="R3" s="296">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D4" s="325" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="325" t="s">
+      <c r="C4" s="323" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="286">
+        <v>1</v>
+      </c>
+      <c r="E4" s="286">
+        <v>1</v>
+      </c>
+      <c r="F4" s="286">
+        <v>1</v>
+      </c>
+      <c r="G4" s="286">
+        <v>1</v>
+      </c>
+      <c r="H4" s="286">
+        <v>1</v>
+      </c>
+      <c r="I4" s="286">
+        <v>0</v>
+      </c>
+      <c r="J4" s="188">
+        <v>0</v>
+      </c>
+      <c r="K4" s="286">
+        <v>1</v>
+      </c>
+      <c r="L4" s="286">
+        <v>1</v>
+      </c>
+      <c r="M4" s="286">
+        <v>1</v>
+      </c>
+      <c r="N4" s="286">
+        <v>1</v>
+      </c>
+      <c r="O4" s="286">
+        <v>1</v>
+      </c>
+      <c r="P4" s="286">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="286">
+        <v>0</v>
+      </c>
+      <c r="R4" s="286">
+        <v>0</v>
+      </c>
+      <c r="S4" s="296">
+        <v>1</v>
+      </c>
+      <c r="T4" s="296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="286">
+        <v>2</v>
+      </c>
+      <c r="E5" s="286">
+        <v>2</v>
+      </c>
+      <c r="F5" s="286">
+        <v>2</v>
+      </c>
+      <c r="G5" s="286">
+        <v>2</v>
+      </c>
+      <c r="H5" s="286">
+        <v>2</v>
+      </c>
+      <c r="I5" s="286">
+        <v>1</v>
+      </c>
+      <c r="J5" s="286">
+        <v>1</v>
+      </c>
+      <c r="K5" s="188">
+        <v>0</v>
+      </c>
+      <c r="L5" s="286">
+        <v>1</v>
+      </c>
+      <c r="M5" s="286">
+        <v>2</v>
+      </c>
+      <c r="N5" s="286">
+        <v>2</v>
+      </c>
+      <c r="O5" s="286">
+        <v>2</v>
+      </c>
+      <c r="P5" s="286">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="286">
+        <v>1</v>
+      </c>
+      <c r="R5" s="286">
+        <v>1</v>
+      </c>
+      <c r="S5" s="296">
+        <v>1</v>
+      </c>
+      <c r="T5" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="323" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="286">
+        <v>3</v>
+      </c>
+      <c r="E6" s="286">
+        <v>3</v>
+      </c>
+      <c r="F6" s="286">
+        <v>3</v>
+      </c>
+      <c r="G6" s="286">
+        <v>3</v>
+      </c>
+      <c r="H6" s="286">
+        <v>3</v>
+      </c>
+      <c r="I6" s="286">
+        <v>2</v>
+      </c>
+      <c r="J6" s="286">
+        <v>1</v>
+      </c>
+      <c r="K6" s="188">
+        <v>1</v>
+      </c>
+      <c r="L6" s="286">
+        <v>1</v>
+      </c>
+      <c r="M6" s="286">
+        <v>2</v>
+      </c>
+      <c r="N6" s="286">
+        <v>3</v>
+      </c>
+      <c r="O6" s="286">
+        <v>3</v>
+      </c>
+      <c r="P6" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="286">
+        <v>1</v>
+      </c>
+      <c r="R6" s="286">
+        <v>1</v>
+      </c>
+      <c r="S6" s="296">
+        <v>2</v>
+      </c>
+      <c r="T6" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="D7" s="286">
+        <v>4</v>
+      </c>
+      <c r="E7" s="286">
+        <v>3</v>
+      </c>
+      <c r="F7" s="286">
+        <v>4</v>
+      </c>
+      <c r="G7" s="286">
+        <v>3</v>
+      </c>
+      <c r="H7" s="286">
+        <v>3</v>
+      </c>
+      <c r="I7" s="286">
+        <v>3</v>
+      </c>
+      <c r="J7" s="286">
+        <v>2</v>
+      </c>
+      <c r="K7" s="286">
+        <v>2</v>
+      </c>
+      <c r="L7" s="188">
+        <v>1</v>
+      </c>
+      <c r="M7" s="286">
+        <v>2</v>
+      </c>
+      <c r="N7" s="286">
+        <v>2</v>
+      </c>
+      <c r="O7" s="286">
+        <v>3</v>
+      </c>
+      <c r="P7" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="286">
+        <v>2</v>
+      </c>
+      <c r="R7" s="286">
+        <v>2</v>
+      </c>
+      <c r="S7" s="296">
+        <v>1</v>
+      </c>
+      <c r="T7" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="323" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="325" t="s">
+      <c r="D8" s="286">
+        <v>5</v>
+      </c>
+      <c r="E8" s="286">
+        <v>4</v>
+      </c>
+      <c r="F8" s="286">
+        <v>3</v>
+      </c>
+      <c r="G8" s="286">
+        <v>4</v>
+      </c>
+      <c r="H8" s="286">
+        <v>4</v>
+      </c>
+      <c r="I8" s="286">
+        <v>4</v>
+      </c>
+      <c r="J8" s="286">
+        <v>3</v>
+      </c>
+      <c r="K8" s="286">
+        <v>3</v>
+      </c>
+      <c r="L8" s="286">
+        <v>2</v>
+      </c>
+      <c r="M8" s="188">
+        <v>1</v>
+      </c>
+      <c r="N8" s="286">
+        <v>2</v>
+      </c>
+      <c r="O8" s="286">
+        <v>2</v>
+      </c>
+      <c r="P8" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="286">
+        <v>3</v>
+      </c>
+      <c r="R8" s="286">
+        <v>3</v>
+      </c>
+      <c r="S8" s="296">
+        <v>2</v>
+      </c>
+      <c r="T8" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="I4" s="326" t="s">
+      <c r="D9" s="286">
+        <v>6</v>
+      </c>
+      <c r="E9" s="286">
+        <v>5</v>
+      </c>
+      <c r="F9" s="286">
+        <v>4</v>
+      </c>
+      <c r="G9" s="286">
+        <v>3</v>
+      </c>
+      <c r="H9" s="286">
+        <v>4</v>
+      </c>
+      <c r="I9" s="286">
+        <v>5</v>
+      </c>
+      <c r="J9" s="286">
+        <v>4</v>
+      </c>
+      <c r="K9" s="286">
+        <v>4</v>
+      </c>
+      <c r="L9" s="286">
+        <v>3</v>
+      </c>
+      <c r="M9" s="286">
+        <v>2</v>
+      </c>
+      <c r="N9" s="188">
+        <v>1</v>
+      </c>
+      <c r="O9" s="286">
+        <v>2</v>
+      </c>
+      <c r="P9" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="286">
+        <v>4</v>
+      </c>
+      <c r="R9" s="286">
+        <v>4</v>
+      </c>
+      <c r="S9" s="296">
+        <v>3</v>
+      </c>
+      <c r="T9" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="323" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="326" t="s">
-        <v>312</v>
-      </c>
-      <c r="K4" s="326" t="s">
+      <c r="D10" s="286">
+        <v>7</v>
+      </c>
+      <c r="E10" s="286">
+        <v>6</v>
+      </c>
+      <c r="F10" s="286">
+        <v>5</v>
+      </c>
+      <c r="G10" s="286">
+        <v>4</v>
+      </c>
+      <c r="H10" s="286">
+        <v>4</v>
+      </c>
+      <c r="I10" s="286">
+        <v>4</v>
+      </c>
+      <c r="J10" s="286">
+        <v>5</v>
+      </c>
+      <c r="K10" s="286">
+        <v>5</v>
+      </c>
+      <c r="L10" s="286">
+        <v>4</v>
+      </c>
+      <c r="M10" s="286">
+        <v>3</v>
+      </c>
+      <c r="N10" s="286">
+        <v>2</v>
+      </c>
+      <c r="O10" s="188">
+        <v>2</v>
+      </c>
+      <c r="P10" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="286">
+        <v>3</v>
+      </c>
+      <c r="R10" s="286">
+        <v>4</v>
+      </c>
+      <c r="S10" s="296">
+        <v>4</v>
+      </c>
+      <c r="T10" s="296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="323" t="s">
         <v>276</v>
       </c>
-      <c r="L4" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="M4" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="N4" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="O4" s="325" t="s">
-        <v>274</v>
-      </c>
-      <c r="P4" s="325" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q4" s="325" t="s">
-        <v>312</v>
-      </c>
-      <c r="R4" s="325" t="s">
-        <v>312</v>
-      </c>
-      <c r="S4" s="329" t="s">
-        <v>313</v>
-      </c>
-      <c r="T4" s="329" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="324" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="100">
-        <v>0</v>
-      </c>
-      <c r="E5" s="286">
-        <v>0</v>
-      </c>
-      <c r="F5" s="286">
-        <v>0</v>
-      </c>
-      <c r="G5" s="286">
-        <v>0</v>
-      </c>
-      <c r="H5" s="286">
-        <v>0</v>
-      </c>
-      <c r="I5" s="286">
-        <v>0</v>
-      </c>
-      <c r="J5" s="286">
-        <v>0</v>
-      </c>
-      <c r="K5" s="286">
-        <v>0</v>
-      </c>
-      <c r="L5" s="286">
-        <v>0</v>
-      </c>
-      <c r="M5" s="286">
-        <v>0</v>
-      </c>
-      <c r="N5" s="286">
-        <v>0</v>
-      </c>
-      <c r="O5" s="296">
-        <v>0</v>
-      </c>
-      <c r="P5" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="296">
-        <v>0</v>
-      </c>
-      <c r="R5" s="296">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="326" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="286">
-        <v>1</v>
-      </c>
-      <c r="E6" s="286">
-        <v>1</v>
-      </c>
-      <c r="F6" s="286">
-        <v>1</v>
-      </c>
-      <c r="G6" s="286">
-        <v>1</v>
-      </c>
-      <c r="H6" s="286">
-        <v>1</v>
-      </c>
-      <c r="I6" s="286">
-        <v>0</v>
-      </c>
-      <c r="J6" s="188">
-        <v>0</v>
-      </c>
-      <c r="K6" s="286">
-        <v>1</v>
-      </c>
-      <c r="L6" s="286">
-        <v>1</v>
-      </c>
-      <c r="M6" s="286">
-        <v>1</v>
-      </c>
-      <c r="N6" s="286">
-        <v>1</v>
-      </c>
-      <c r="O6" s="286">
-        <v>1</v>
-      </c>
-      <c r="P6" s="286">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="286">
-        <v>0</v>
-      </c>
-      <c r="R6" s="286">
-        <v>0</v>
-      </c>
-      <c r="S6" s="296">
-        <v>1</v>
-      </c>
-      <c r="T6" s="296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="326" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="286">
-        <v>2</v>
-      </c>
-      <c r="E7" s="286">
-        <v>2</v>
-      </c>
-      <c r="F7" s="286">
-        <v>2</v>
-      </c>
-      <c r="G7" s="286">
-        <v>2</v>
-      </c>
-      <c r="H7" s="286">
-        <v>2</v>
-      </c>
-      <c r="I7" s="286">
-        <v>1</v>
-      </c>
-      <c r="J7" s="286">
-        <v>1</v>
-      </c>
-      <c r="K7" s="188">
-        <v>0</v>
-      </c>
-      <c r="L7" s="286">
-        <v>1</v>
-      </c>
-      <c r="M7" s="286">
-        <v>2</v>
-      </c>
-      <c r="N7" s="286">
-        <v>2</v>
-      </c>
-      <c r="O7" s="286">
-        <v>2</v>
-      </c>
-      <c r="P7" s="286">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="286">
-        <v>1</v>
-      </c>
-      <c r="R7" s="286">
-        <v>1</v>
-      </c>
-      <c r="S7" s="296">
-        <v>1</v>
-      </c>
-      <c r="T7" s="296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="326" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="286">
-        <v>3</v>
-      </c>
-      <c r="E8" s="286">
-        <v>3</v>
-      </c>
-      <c r="F8" s="286">
-        <v>3</v>
-      </c>
-      <c r="G8" s="286">
-        <v>3</v>
-      </c>
-      <c r="H8" s="286">
-        <v>3</v>
-      </c>
-      <c r="I8" s="286">
-        <v>2</v>
-      </c>
-      <c r="J8" s="286">
-        <v>1</v>
-      </c>
-      <c r="K8" s="188">
-        <v>1</v>
-      </c>
-      <c r="L8" s="286">
-        <v>1</v>
-      </c>
-      <c r="M8" s="286">
-        <v>2</v>
-      </c>
-      <c r="N8" s="286">
-        <v>3</v>
-      </c>
-      <c r="O8" s="286">
-        <v>3</v>
-      </c>
-      <c r="P8" s="286">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="286">
-        <v>1</v>
-      </c>
-      <c r="R8" s="286">
-        <v>1</v>
-      </c>
-      <c r="S8" s="296">
-        <v>2</v>
-      </c>
-      <c r="T8" s="296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="286">
-        <v>4</v>
-      </c>
-      <c r="E9" s="286">
-        <v>3</v>
-      </c>
-      <c r="F9" s="286">
-        <v>4</v>
-      </c>
-      <c r="G9" s="286">
-        <v>3</v>
-      </c>
-      <c r="H9" s="286">
-        <v>3</v>
-      </c>
-      <c r="I9" s="286">
-        <v>3</v>
-      </c>
-      <c r="J9" s="286">
-        <v>2</v>
-      </c>
-      <c r="K9" s="286">
-        <v>2</v>
-      </c>
-      <c r="L9" s="188">
-        <v>1</v>
-      </c>
-      <c r="M9" s="286">
-        <v>2</v>
-      </c>
-      <c r="N9" s="286">
-        <v>2</v>
-      </c>
-      <c r="O9" s="286">
-        <v>3</v>
-      </c>
-      <c r="P9" s="286">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="286">
-        <v>2</v>
-      </c>
-      <c r="R9" s="286">
-        <v>2</v>
-      </c>
-      <c r="S9" s="296">
-        <v>1</v>
-      </c>
-      <c r="T9" s="296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="286">
+      <c r="D11" s="296">
+        <v>8</v>
+      </c>
+      <c r="E11" s="286">
+        <v>7</v>
+      </c>
+      <c r="F11" s="286">
+        <v>6</v>
+      </c>
+      <c r="G11" s="286">
         <v>5</v>
       </c>
-      <c r="E10" s="286">
-        <v>4</v>
-      </c>
-      <c r="F10" s="286">
-        <v>3</v>
-      </c>
-      <c r="G10" s="286">
-        <v>4</v>
-      </c>
-      <c r="H10" s="286">
-        <v>4</v>
-      </c>
-      <c r="I10" s="286">
-        <v>4</v>
-      </c>
-      <c r="J10" s="286">
-        <v>3</v>
-      </c>
-      <c r="K10" s="286">
-        <v>3</v>
-      </c>
-      <c r="L10" s="286">
-        <v>2</v>
-      </c>
-      <c r="M10" s="188">
-        <v>1</v>
-      </c>
-      <c r="N10" s="286">
-        <v>2</v>
-      </c>
-      <c r="O10" s="286">
-        <v>2</v>
-      </c>
-      <c r="P10" s="286">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="286">
-        <v>3</v>
-      </c>
-      <c r="R10" s="286">
-        <v>3</v>
-      </c>
-      <c r="S10" s="296">
-        <v>2</v>
-      </c>
-      <c r="T10" s="296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="286">
-        <v>6</v>
-      </c>
-      <c r="E11" s="286">
+      <c r="H11" s="286">
         <v>5</v>
-      </c>
-      <c r="F11" s="286">
-        <v>4</v>
-      </c>
-      <c r="G11" s="286">
-        <v>3</v>
-      </c>
-      <c r="H11" s="286">
-        <v>4</v>
       </c>
       <c r="I11" s="286">
         <v>5</v>
       </c>
       <c r="J11" s="286">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="286">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="286">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="286">
-        <v>2</v>
-      </c>
-      <c r="N11" s="188">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="N11" s="286">
+        <v>3</v>
       </c>
       <c r="O11" s="286">
-        <v>2</v>
-      </c>
-      <c r="P11" s="286">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="P11" s="188">
+        <v>2</v>
       </c>
       <c r="Q11" s="286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11" s="286">
         <v>4</v>
       </c>
       <c r="S11" s="296">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" s="296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E14" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="322" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="297" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" s="297" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="286">
+      <c r="J14" s="324" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" s="324" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="325" t="s">
+        <v>313</v>
+      </c>
+      <c r="M14" s="297" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" s="297" t="s">
+        <v>313</v>
+      </c>
+      <c r="O14" s="306" t="s">
+        <v>274</v>
+      </c>
+      <c r="P14" s="322" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q14" s="322" t="s">
+        <v>312</v>
+      </c>
+      <c r="R14" s="322" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E15" s="310" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="310" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="310" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="310" t="s">
+        <v>313</v>
+      </c>
+      <c r="I15" s="310" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" s="310" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="310" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" s="310" t="s">
+        <v>276</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E16" s="296" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="296" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="296" t="s">
+        <v>313</v>
+      </c>
+      <c r="I16" s="296" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" s="296" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="304" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="370" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" s="370"/>
+      <c r="G18" s="370"/>
+      <c r="H18" s="370"/>
+      <c r="I18" s="370"/>
+      <c r="J18" s="370"/>
+      <c r="K18" s="370"/>
+      <c r="L18" s="370"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="370"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="299" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="299" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="299" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="330" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" s="330" t="s">
+        <v>313</v>
+      </c>
+      <c r="I19" s="330" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" s="330" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="330" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="330" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" s="330" t="s">
+        <v>276</v>
+      </c>
+      <c r="N19" s="297" t="s">
+        <v>312</v>
+      </c>
+      <c r="O19" s="297" t="s">
+        <v>313</v>
+      </c>
+      <c r="P19" s="297" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q19" s="297" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="328"/>
+      <c r="C20" s="321" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="100">
+        <v>0</v>
+      </c>
+      <c r="E20" s="286">
+        <v>0</v>
+      </c>
+      <c r="F20" s="286">
+        <v>0</v>
+      </c>
+      <c r="G20" s="286">
+        <v>0</v>
+      </c>
+      <c r="H20" s="286">
+        <v>0</v>
+      </c>
+      <c r="I20" s="286">
+        <v>0</v>
+      </c>
+      <c r="J20" s="286">
+        <v>0</v>
+      </c>
+      <c r="K20" s="286">
+        <v>0</v>
+      </c>
+      <c r="L20" s="286">
+        <v>0</v>
+      </c>
+      <c r="M20" s="286">
+        <v>0</v>
+      </c>
+      <c r="N20" s="286">
+        <v>0</v>
+      </c>
+      <c r="O20" s="296">
+        <v>0</v>
+      </c>
+      <c r="P20" s="296">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="377" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="330" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="286">
+        <v>1</v>
+      </c>
+      <c r="E21" s="286">
+        <v>1</v>
+      </c>
+      <c r="F21" s="286">
+        <v>1</v>
+      </c>
+      <c r="G21" s="108">
+        <v>0</v>
+      </c>
+      <c r="H21" s="286">
+        <v>1</v>
+      </c>
+      <c r="I21" s="286">
+        <v>1</v>
+      </c>
+      <c r="J21" s="286">
+        <v>1</v>
+      </c>
+      <c r="K21" s="286">
+        <v>1</v>
+      </c>
+      <c r="L21" s="286">
+        <v>0</v>
+      </c>
+      <c r="M21" s="286">
+        <v>1</v>
+      </c>
+      <c r="N21" s="286">
+        <v>1</v>
+      </c>
+      <c r="O21" s="286">
+        <v>1</v>
+      </c>
+      <c r="P21" s="286">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="377"/>
+      <c r="C22" s="330" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="286">
+        <v>2</v>
+      </c>
+      <c r="E22" s="286">
+        <v>1</v>
+      </c>
+      <c r="F22" s="286">
+        <v>2</v>
+      </c>
+      <c r="G22" s="286">
+        <v>1</v>
+      </c>
+      <c r="H22" s="108">
+        <v>0</v>
+      </c>
+      <c r="I22" s="108">
+        <v>1</v>
+      </c>
+      <c r="J22" s="286">
+        <v>2</v>
+      </c>
+      <c r="K22" s="286">
+        <v>1</v>
+      </c>
+      <c r="L22" s="286">
+        <v>1</v>
+      </c>
+      <c r="M22" s="286">
+        <v>1</v>
+      </c>
+      <c r="N22" s="286">
+        <v>2</v>
+      </c>
+      <c r="O22" s="286">
+        <v>1</v>
+      </c>
+      <c r="P22" s="286">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="377"/>
+      <c r="C23" s="330" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="286">
+        <v>3</v>
+      </c>
+      <c r="E23" s="286">
+        <v>2</v>
+      </c>
+      <c r="F23" s="286">
+        <v>1</v>
+      </c>
+      <c r="G23" s="286">
+        <v>2</v>
+      </c>
+      <c r="H23" s="286">
+        <v>1</v>
+      </c>
+      <c r="I23" s="286">
+        <v>1</v>
+      </c>
+      <c r="J23" s="108">
+        <v>1</v>
+      </c>
+      <c r="K23" s="286">
+        <v>2</v>
+      </c>
+      <c r="L23" s="286">
+        <v>2</v>
+      </c>
+      <c r="M23" s="286">
+        <v>2</v>
+      </c>
+      <c r="N23" s="286">
+        <v>1</v>
+      </c>
+      <c r="O23" s="286">
+        <v>2</v>
+      </c>
+      <c r="P23" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="377"/>
+      <c r="C24" s="330" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="286">
+        <v>4</v>
+      </c>
+      <c r="E24" s="286">
+        <v>3</v>
+      </c>
+      <c r="F24" s="286">
+        <v>2</v>
+      </c>
+      <c r="G24" s="286">
+        <v>2</v>
+      </c>
+      <c r="H24" s="286">
+        <v>2</v>
+      </c>
+      <c r="I24" s="286">
+        <v>2</v>
+      </c>
+      <c r="J24" s="286">
+        <v>2</v>
+      </c>
+      <c r="K24" s="108">
+        <v>1</v>
+      </c>
+      <c r="L24" s="286">
+        <v>2</v>
+      </c>
+      <c r="M24" s="286">
+        <v>3</v>
+      </c>
+      <c r="N24" s="286">
+        <v>2</v>
+      </c>
+      <c r="O24" s="286">
+        <v>1</v>
+      </c>
+      <c r="P24" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="377"/>
+      <c r="C25" s="330" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="286">
+        <v>5</v>
+      </c>
+      <c r="E25" s="286">
+        <v>4</v>
+      </c>
+      <c r="F25" s="286">
+        <v>3</v>
+      </c>
+      <c r="G25" s="286">
+        <v>3</v>
+      </c>
+      <c r="H25" s="286">
+        <v>2</v>
+      </c>
+      <c r="I25" s="286">
+        <v>3</v>
+      </c>
+      <c r="J25" s="286">
+        <v>3</v>
+      </c>
+      <c r="K25" s="108">
+        <v>2</v>
+      </c>
+      <c r="L25" s="286">
+        <v>2</v>
+      </c>
+      <c r="M25" s="286">
+        <v>3</v>
+      </c>
+      <c r="N25" s="286">
+        <v>3</v>
+      </c>
+      <c r="O25" s="286">
+        <v>2</v>
+      </c>
+      <c r="P25" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="377"/>
+      <c r="C26" s="330" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="286">
+        <v>6</v>
+      </c>
+      <c r="E26" s="286">
+        <v>5</v>
+      </c>
+      <c r="F26" s="286">
+        <v>4</v>
+      </c>
+      <c r="G26" s="286">
+        <v>3</v>
+      </c>
+      <c r="H26" s="286">
+        <v>3</v>
+      </c>
+      <c r="I26" s="286">
+        <v>3</v>
+      </c>
+      <c r="J26" s="286">
+        <v>4</v>
+      </c>
+      <c r="K26" s="286">
+        <v>3</v>
+      </c>
+      <c r="L26" s="108">
+        <v>2</v>
+      </c>
+      <c r="M26" s="286">
+        <v>3</v>
+      </c>
+      <c r="N26" s="286">
+        <v>4</v>
+      </c>
+      <c r="O26" s="286">
+        <v>3</v>
+      </c>
+      <c r="P26" s="286">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="377"/>
+      <c r="C27" s="330" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="286">
         <v>7</v>
       </c>
-      <c r="E12" s="286">
+      <c r="E27" s="286">
         <v>6</v>
       </c>
-      <c r="F12" s="286">
+      <c r="F27" s="286">
         <v>5</v>
       </c>
-      <c r="G12" s="286">
-        <v>4</v>
-      </c>
-      <c r="H12" s="286">
-        <v>4</v>
-      </c>
-      <c r="I12" s="286">
-        <v>4</v>
-      </c>
-      <c r="J12" s="286">
+      <c r="G27" s="286">
+        <v>4</v>
+      </c>
+      <c r="H27" s="286">
+        <v>3</v>
+      </c>
+      <c r="I27" s="286">
+        <v>4</v>
+      </c>
+      <c r="J27" s="286">
+        <v>4</v>
+      </c>
+      <c r="K27" s="286">
+        <v>4</v>
+      </c>
+      <c r="L27" s="286">
+        <v>3</v>
+      </c>
+      <c r="M27" s="108">
+        <v>3</v>
+      </c>
+      <c r="N27" s="286">
+        <v>4</v>
+      </c>
+      <c r="O27" s="286">
+        <v>4</v>
+      </c>
+      <c r="P27" s="286">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="377"/>
+      <c r="C28" s="330" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="296">
+        <v>8</v>
+      </c>
+      <c r="E28" s="286">
+        <v>7</v>
+      </c>
+      <c r="F28" s="286">
+        <v>6</v>
+      </c>
+      <c r="G28" s="286">
         <v>5</v>
       </c>
-      <c r="K12" s="286">
+      <c r="H28" s="286">
+        <v>4</v>
+      </c>
+      <c r="I28" s="286">
+        <v>4</v>
+      </c>
+      <c r="J28" s="286">
+        <v>4</v>
+      </c>
+      <c r="K28" s="286">
         <v>5</v>
       </c>
-      <c r="L12" s="286">
-        <v>4</v>
-      </c>
-      <c r="M12" s="286">
-        <v>3</v>
-      </c>
-      <c r="N12" s="286">
-        <v>2</v>
-      </c>
-      <c r="O12" s="188">
-        <v>2</v>
-      </c>
-      <c r="P12" s="286">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="286">
-        <v>3</v>
-      </c>
-      <c r="R12" s="286">
-        <v>4</v>
-      </c>
-      <c r="S12" s="296">
-        <v>4</v>
-      </c>
-      <c r="T12" s="296">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="326" t="s">
+      <c r="L28" s="286">
+        <v>4</v>
+      </c>
+      <c r="M28" s="286">
+        <v>4</v>
+      </c>
+      <c r="N28" s="108">
+        <v>3</v>
+      </c>
+      <c r="O28" s="286">
+        <v>4</v>
+      </c>
+      <c r="P28" s="286">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E30" s="301" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="301" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="301" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="301" t="s">
+        <v>318</v>
+      </c>
+      <c r="I30" s="301" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="296">
+      <c r="J30" s="301" t="s">
+        <v>312</v>
+      </c>
+      <c r="K30" s="301" t="s">
+        <v>313</v>
+      </c>
+      <c r="L30" s="91" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="N30" s="329" t="s">
+        <v>314</v>
+      </c>
+      <c r="O30" s="301" t="s">
+        <v>312</v>
+      </c>
+      <c r="P30" s="300"/>
+      <c r="Q30" s="300"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="332" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="332" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="332" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="332" t="s">
+        <v>318</v>
+      </c>
+      <c r="I31" s="332" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" s="332" t="s">
+        <v>312</v>
+      </c>
+      <c r="K31" s="332" t="s">
+        <v>313</v>
+      </c>
+      <c r="L31" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="M31" s="332" t="s">
+        <v>274</v>
+      </c>
+      <c r="N31" s="329" t="s">
+        <v>313</v>
+      </c>
+      <c r="O31" s="332" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="N32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="379" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="379"/>
+      <c r="G33" s="379"/>
+      <c r="H33" s="379"/>
+      <c r="I33" s="379"/>
+      <c r="J33" s="379"/>
+      <c r="K33" s="379"/>
+      <c r="L33" s="379"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="315" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="337" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="336" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" s="336" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="336" t="s">
+        <v>274</v>
+      </c>
+      <c r="H34" s="336" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" s="336" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" s="336" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" s="336" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" s="336" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" s="319"/>
+      <c r="Q34" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="R34" s="322" t="s">
+        <v>311</v>
+      </c>
+      <c r="S34" s="322" t="s">
+        <v>274</v>
+      </c>
+      <c r="T34" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="U34" s="323" t="s">
+        <v>274</v>
+      </c>
+      <c r="V34" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="W34" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" s="323" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y34" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z34" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA34" s="323" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="321" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="100">
+        <v>0</v>
+      </c>
+      <c r="E35" s="286">
+        <v>1</v>
+      </c>
+      <c r="F35" s="286">
+        <v>2</v>
+      </c>
+      <c r="G35" s="286">
+        <v>3</v>
+      </c>
+      <c r="H35" s="286">
+        <v>4</v>
+      </c>
+      <c r="I35" s="286">
+        <v>5</v>
+      </c>
+      <c r="J35" s="286">
+        <v>6</v>
+      </c>
+      <c r="K35" s="286">
+        <v>7</v>
+      </c>
+      <c r="L35" s="286">
         <v>8</v>
       </c>
-      <c r="E13" s="286">
+      <c r="M35" s="316"/>
+      <c r="Q35" s="321" t="s">
+        <v>311</v>
+      </c>
+      <c r="R35" s="100">
+        <v>0</v>
+      </c>
+      <c r="S35" s="286">
+        <v>1</v>
+      </c>
+      <c r="T35" s="286">
+        <v>2</v>
+      </c>
+      <c r="U35" s="286">
+        <v>3</v>
+      </c>
+      <c r="V35" s="286">
+        <v>4</v>
+      </c>
+      <c r="W35" s="286">
+        <v>5</v>
+      </c>
+      <c r="X35" s="286">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="286">
         <v>7</v>
       </c>
-      <c r="F13" s="286">
+      <c r="Z35" s="286">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="378" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="338" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="286">
+        <v>1</v>
+      </c>
+      <c r="E36" s="333">
+        <v>0</v>
+      </c>
+      <c r="F36" s="286">
+        <v>1</v>
+      </c>
+      <c r="G36" s="286">
+        <v>2</v>
+      </c>
+      <c r="H36" s="286">
+        <v>3</v>
+      </c>
+      <c r="I36" s="286">
+        <v>4</v>
+      </c>
+      <c r="J36" s="286">
+        <v>5</v>
+      </c>
+      <c r="K36" s="286">
         <v>6</v>
       </c>
-      <c r="G13" s="286">
+      <c r="L36" s="286">
+        <v>7</v>
+      </c>
+      <c r="M36" s="316"/>
+      <c r="Q36" s="323" t="s">
+        <v>274</v>
+      </c>
+      <c r="R36" s="286">
+        <v>1</v>
+      </c>
+      <c r="S36" s="286">
+        <v>0</v>
+      </c>
+      <c r="T36" s="286">
+        <v>1</v>
+      </c>
+      <c r="U36" s="286">
+        <v>2</v>
+      </c>
+      <c r="V36" s="286">
+        <v>3</v>
+      </c>
+      <c r="W36" s="286">
+        <v>4</v>
+      </c>
+      <c r="X36" s="286">
         <v>5</v>
       </c>
-      <c r="H13" s="286">
+      <c r="Y36" s="286">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="286">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="378"/>
+      <c r="C37" s="338" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" s="286">
+        <v>2</v>
+      </c>
+      <c r="E37" s="286">
+        <v>1</v>
+      </c>
+      <c r="F37" s="333">
+        <v>0</v>
+      </c>
+      <c r="G37" s="286">
+        <v>1</v>
+      </c>
+      <c r="H37" s="286">
+        <v>2</v>
+      </c>
+      <c r="I37" s="286">
+        <v>3</v>
+      </c>
+      <c r="J37" s="286">
+        <v>4</v>
+      </c>
+      <c r="K37" s="286">
         <v>5</v>
       </c>
-      <c r="I13" s="286">
+      <c r="L37" s="286">
+        <v>6</v>
+      </c>
+      <c r="M37" s="316"/>
+      <c r="Q37" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="R37" s="286">
+        <v>2</v>
+      </c>
+      <c r="S37" s="286">
+        <v>1</v>
+      </c>
+      <c r="T37" s="286">
+        <v>0</v>
+      </c>
+      <c r="U37" s="286">
+        <v>1</v>
+      </c>
+      <c r="V37" s="286">
+        <v>2</v>
+      </c>
+      <c r="W37" s="286">
+        <v>3</v>
+      </c>
+      <c r="X37" s="286">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="286">
         <v>5</v>
       </c>
-      <c r="J13" s="286">
+      <c r="Z37" s="286">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="378"/>
+      <c r="C38" s="338" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="286">
+        <v>3</v>
+      </c>
+      <c r="E38" s="286">
+        <v>2</v>
+      </c>
+      <c r="F38" s="286">
+        <v>1</v>
+      </c>
+      <c r="G38" s="333">
+        <v>1</v>
+      </c>
+      <c r="H38" s="286">
+        <v>2</v>
+      </c>
+      <c r="I38" s="286">
+        <v>3</v>
+      </c>
+      <c r="J38" s="286">
+        <v>3</v>
+      </c>
+      <c r="K38" s="100">
+        <v>4</v>
+      </c>
+      <c r="L38" s="286">
         <v>5</v>
       </c>
-      <c r="K13" s="286">
+      <c r="M38" s="316"/>
+      <c r="Q38" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="R38" s="286">
+        <v>3</v>
+      </c>
+      <c r="S38" s="286">
+        <v>2</v>
+      </c>
+      <c r="T38" s="286">
+        <v>1</v>
+      </c>
+      <c r="U38" s="286">
+        <v>1</v>
+      </c>
+      <c r="V38" s="286">
+        <v>2</v>
+      </c>
+      <c r="W38" s="286">
+        <v>3</v>
+      </c>
+      <c r="X38" s="286">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="286">
         <v>5</v>
       </c>
-      <c r="L13" s="286">
+      <c r="Z38" s="286">
         <v>5</v>
       </c>
-      <c r="M13" s="286">
-        <v>4</v>
-      </c>
-      <c r="N13" s="286">
-        <v>3</v>
-      </c>
-      <c r="O13" s="286">
-        <v>3</v>
-      </c>
-      <c r="P13" s="188">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="286">
-        <v>3</v>
-      </c>
-      <c r="R13" s="286">
-        <v>4</v>
-      </c>
-      <c r="S13" s="296">
+      <c r="AA38" s="286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="378"/>
+      <c r="C39" s="338" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="286">
+        <v>4</v>
+      </c>
+      <c r="E39" s="286">
+        <v>3</v>
+      </c>
+      <c r="F39" s="286">
+        <v>2</v>
+      </c>
+      <c r="G39" s="286">
+        <v>2</v>
+      </c>
+      <c r="H39" s="333">
+        <v>1</v>
+      </c>
+      <c r="I39" s="286">
+        <v>2</v>
+      </c>
+      <c r="J39" s="286">
+        <v>3</v>
+      </c>
+      <c r="K39" s="286">
+        <v>4</v>
+      </c>
+      <c r="L39" s="286">
         <v>5</v>
       </c>
-      <c r="T13" s="296">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E16" s="325" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="325" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="325" t="s">
-        <v>313</v>
-      </c>
-      <c r="H16" s="297" t="s">
-        <v>313</v>
-      </c>
-      <c r="I16" s="297" t="s">
+      <c r="M39" s="316"/>
+      <c r="Q39" s="323" t="s">
         <v>312</v>
       </c>
-      <c r="J16" s="327" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="327" t="s">
-        <v>276</v>
-      </c>
-      <c r="L16" s="328" t="s">
-        <v>313</v>
-      </c>
-      <c r="M16" s="297" t="s">
-        <v>274</v>
-      </c>
-      <c r="N16" s="297" t="s">
-        <v>313</v>
-      </c>
-      <c r="O16" s="309" t="s">
-        <v>274</v>
-      </c>
-      <c r="P16" s="325" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="325" t="s">
-        <v>312</v>
-      </c>
-      <c r="R16" s="325" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E17" s="313" t="s">
-        <v>312</v>
-      </c>
-      <c r="F17" s="313" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="313" t="s">
-        <v>312</v>
-      </c>
-      <c r="H17" s="313" t="s">
-        <v>313</v>
-      </c>
-      <c r="I17" s="313" t="s">
-        <v>274</v>
-      </c>
-      <c r="J17" s="313" t="s">
-        <v>313</v>
-      </c>
-      <c r="K17" s="313" t="s">
-        <v>312</v>
-      </c>
-      <c r="L17" s="313" t="s">
-        <v>276</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E18" s="296" t="s">
-        <v>312</v>
-      </c>
-      <c r="F18" s="296" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="203" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" s="296" t="s">
-        <v>313</v>
-      </c>
-      <c r="I18" s="296" t="s">
-        <v>274</v>
-      </c>
-      <c r="J18" s="296" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="307" t="s">
-        <v>312</v>
-      </c>
-      <c r="L18" s="296" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E20" s="365" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="365"/>
-      <c r="G20" s="365"/>
-      <c r="H20" s="365"/>
-      <c r="I20" s="365"/>
-      <c r="J20" s="365"/>
-      <c r="K20" s="365"/>
-      <c r="L20" s="365"/>
-      <c r="M20" s="365"/>
-      <c r="N20" s="365"/>
-      <c r="O20" s="365"/>
-      <c r="P20" s="365"/>
-      <c r="Q20" s="365"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="302" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" s="302" t="s">
-        <v>313</v>
-      </c>
-      <c r="F21" s="302" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" s="333" t="s">
-        <v>274</v>
-      </c>
-      <c r="H21" s="333" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" s="333" t="s">
-        <v>276</v>
-      </c>
-      <c r="J21" s="333" t="s">
-        <v>312</v>
-      </c>
-      <c r="K21" s="333" t="s">
-        <v>313</v>
-      </c>
-      <c r="L21" s="333" t="s">
-        <v>274</v>
-      </c>
-      <c r="M21" s="333" t="s">
-        <v>276</v>
-      </c>
-      <c r="N21" s="297" t="s">
-        <v>312</v>
-      </c>
-      <c r="O21" s="297" t="s">
-        <v>313</v>
-      </c>
-      <c r="P21" s="297" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q21" s="297" t="s">
-        <v>276</v>
-      </c>
-      <c r="R21" s="301"/>
-      <c r="S21" s="301"/>
-      <c r="T21" s="301"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="331"/>
-      <c r="C22" s="324" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" s="100">
-        <v>0</v>
-      </c>
-      <c r="E22" s="286">
-        <v>0</v>
-      </c>
-      <c r="F22" s="286">
-        <v>0</v>
-      </c>
-      <c r="G22" s="286">
-        <v>0</v>
-      </c>
-      <c r="H22" s="286">
-        <v>0</v>
-      </c>
-      <c r="I22" s="286">
-        <v>0</v>
-      </c>
-      <c r="J22" s="286">
-        <v>0</v>
-      </c>
-      <c r="K22" s="286">
-        <v>0</v>
-      </c>
-      <c r="L22" s="286">
-        <v>0</v>
-      </c>
-      <c r="M22" s="286">
-        <v>0</v>
-      </c>
-      <c r="N22" s="286">
-        <v>0</v>
-      </c>
-      <c r="O22" s="296">
-        <v>0</v>
-      </c>
-      <c r="P22" s="296">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="296">
-        <v>0</v>
-      </c>
-      <c r="R22" s="298"/>
-      <c r="S22" s="298"/>
-      <c r="T22" s="298"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="372" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="333" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="286">
-        <v>1</v>
-      </c>
-      <c r="E23" s="286">
-        <v>1</v>
-      </c>
-      <c r="F23" s="286">
-        <v>1</v>
-      </c>
-      <c r="G23" s="300">
-        <v>0</v>
-      </c>
-      <c r="H23" s="286">
-        <v>1</v>
-      </c>
-      <c r="I23" s="286">
-        <v>1</v>
-      </c>
-      <c r="J23" s="286">
-        <v>1</v>
-      </c>
-      <c r="K23" s="286">
-        <v>1</v>
-      </c>
-      <c r="L23" s="286">
-        <v>0</v>
-      </c>
-      <c r="M23" s="286">
-        <v>1</v>
-      </c>
-      <c r="N23" s="286">
-        <v>1</v>
-      </c>
-      <c r="O23" s="286">
-        <v>1</v>
-      </c>
-      <c r="P23" s="286">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="286">
-        <v>1</v>
-      </c>
-      <c r="R23" s="298"/>
-      <c r="S23" s="298"/>
-      <c r="T23" s="298"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="372"/>
-      <c r="C24" s="333" t="s">
-        <v>313</v>
-      </c>
-      <c r="D24" s="286">
-        <v>2</v>
-      </c>
-      <c r="E24" s="286">
-        <v>1</v>
-      </c>
-      <c r="F24" s="286">
-        <v>2</v>
-      </c>
-      <c r="G24" s="286">
-        <v>1</v>
-      </c>
-      <c r="H24" s="300">
-        <v>0</v>
-      </c>
-      <c r="I24" s="300">
-        <v>1</v>
-      </c>
-      <c r="J24" s="286">
-        <v>2</v>
-      </c>
-      <c r="K24" s="286">
-        <v>1</v>
-      </c>
-      <c r="L24" s="286">
-        <v>1</v>
-      </c>
-      <c r="M24" s="286">
-        <v>1</v>
-      </c>
-      <c r="N24" s="286">
-        <v>2</v>
-      </c>
-      <c r="O24" s="286">
-        <v>1</v>
-      </c>
-      <c r="P24" s="286">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="286">
-        <v>1</v>
-      </c>
-      <c r="R24" s="298"/>
-      <c r="S24" s="298"/>
-      <c r="T24" s="298"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="372"/>
-      <c r="C25" s="333" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="286">
-        <v>3</v>
-      </c>
-      <c r="E25" s="286">
-        <v>2</v>
-      </c>
-      <c r="F25" s="286">
-        <v>1</v>
-      </c>
-      <c r="G25" s="113">
-        <v>2</v>
-      </c>
-      <c r="H25" s="286">
-        <v>1</v>
-      </c>
-      <c r="I25" s="286">
-        <v>1</v>
-      </c>
-      <c r="J25" s="300">
-        <v>1</v>
-      </c>
-      <c r="K25" s="286">
-        <v>2</v>
-      </c>
-      <c r="L25" s="286">
-        <v>2</v>
-      </c>
-      <c r="M25" s="286">
-        <v>2</v>
-      </c>
-      <c r="N25" s="286">
-        <v>1</v>
-      </c>
-      <c r="O25" s="286">
-        <v>2</v>
-      </c>
-      <c r="P25" s="286">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="286">
-        <v>2</v>
-      </c>
-      <c r="R25" s="298"/>
-      <c r="S25" s="298"/>
-      <c r="T25" s="298"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="372"/>
-      <c r="C26" s="333" t="s">
-        <v>313</v>
-      </c>
-      <c r="D26" s="286">
-        <v>4</v>
-      </c>
-      <c r="E26" s="286">
-        <v>3</v>
-      </c>
-      <c r="F26" s="286">
-        <v>2</v>
-      </c>
-      <c r="G26" s="286">
-        <v>2</v>
-      </c>
-      <c r="H26" s="286">
-        <v>2</v>
-      </c>
-      <c r="I26" s="286">
-        <v>2</v>
-      </c>
-      <c r="J26" s="286">
-        <v>2</v>
-      </c>
-      <c r="K26" s="300">
-        <v>1</v>
-      </c>
-      <c r="L26" s="286">
-        <v>2</v>
-      </c>
-      <c r="M26" s="286">
-        <v>3</v>
-      </c>
-      <c r="N26" s="286">
-        <v>2</v>
-      </c>
-      <c r="O26" s="286">
-        <v>1</v>
-      </c>
-      <c r="P26" s="286">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="286">
-        <v>3</v>
-      </c>
-      <c r="R26" s="298"/>
-      <c r="S26" s="298"/>
-      <c r="T26" s="298"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="372"/>
-      <c r="C27" s="333" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="286">
-        <v>5</v>
-      </c>
-      <c r="E27" s="286">
-        <v>4</v>
-      </c>
-      <c r="F27" s="286">
-        <v>3</v>
-      </c>
-      <c r="G27" s="286">
-        <v>3</v>
-      </c>
-      <c r="H27" s="286">
-        <v>2</v>
-      </c>
-      <c r="I27" s="286">
-        <v>3</v>
-      </c>
-      <c r="J27" s="286">
-        <v>3</v>
-      </c>
-      <c r="K27" s="300">
-        <v>2</v>
-      </c>
-      <c r="L27" s="286">
-        <v>2</v>
-      </c>
-      <c r="M27" s="286">
-        <v>3</v>
-      </c>
-      <c r="N27" s="286">
-        <v>3</v>
-      </c>
-      <c r="O27" s="286">
-        <v>2</v>
-      </c>
-      <c r="P27" s="286">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="286">
-        <v>3</v>
-      </c>
-      <c r="R27" s="298"/>
-      <c r="S27" s="298"/>
-      <c r="T27" s="298"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="372"/>
-      <c r="C28" s="333" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="286">
-        <v>6</v>
-      </c>
-      <c r="E28" s="286">
-        <v>5</v>
-      </c>
-      <c r="F28" s="286">
-        <v>4</v>
-      </c>
-      <c r="G28" s="286">
-        <v>3</v>
-      </c>
-      <c r="H28" s="286">
-        <v>3</v>
-      </c>
-      <c r="I28" s="286">
-        <v>3</v>
-      </c>
-      <c r="J28" s="286">
-        <v>4</v>
-      </c>
-      <c r="K28" s="286">
-        <v>3</v>
-      </c>
-      <c r="L28" s="300">
-        <v>2</v>
-      </c>
-      <c r="M28" s="286">
-        <v>3</v>
-      </c>
-      <c r="N28" s="286">
-        <v>4</v>
-      </c>
-      <c r="O28" s="286">
-        <v>3</v>
-      </c>
-      <c r="P28" s="286">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="286">
-        <v>3</v>
-      </c>
-      <c r="R28" s="298"/>
-      <c r="S28" s="298"/>
-      <c r="T28" s="298"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="372"/>
-      <c r="C29" s="333" t="s">
-        <v>313</v>
-      </c>
-      <c r="D29" s="286">
-        <v>7</v>
-      </c>
-      <c r="E29" s="286">
-        <v>6</v>
-      </c>
-      <c r="F29" s="286">
-        <v>5</v>
-      </c>
-      <c r="G29" s="286">
-        <v>4</v>
-      </c>
-      <c r="H29" s="286">
-        <v>3</v>
-      </c>
-      <c r="I29" s="286">
-        <v>4</v>
-      </c>
-      <c r="J29" s="286">
-        <v>4</v>
-      </c>
-      <c r="K29" s="286">
-        <v>4</v>
-      </c>
-      <c r="L29" s="286">
-        <v>3</v>
-      </c>
-      <c r="M29" s="300">
-        <v>3</v>
-      </c>
-      <c r="N29" s="286">
-        <v>4</v>
-      </c>
-      <c r="O29" s="286">
-        <v>4</v>
-      </c>
-      <c r="P29" s="286">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="286">
-        <v>3</v>
-      </c>
-      <c r="R29" s="298"/>
-      <c r="S29" s="298"/>
-      <c r="T29" s="298"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="372"/>
-      <c r="C30" s="333" t="s">
-        <v>312</v>
-      </c>
-      <c r="D30" s="296">
-        <v>8</v>
-      </c>
-      <c r="E30" s="286">
-        <v>7</v>
-      </c>
-      <c r="F30" s="286">
-        <v>6</v>
-      </c>
-      <c r="G30" s="286">
-        <v>5</v>
-      </c>
-      <c r="H30" s="286">
-        <v>4</v>
-      </c>
-      <c r="I30" s="286">
-        <v>4</v>
-      </c>
-      <c r="J30" s="286">
-        <v>4</v>
-      </c>
-      <c r="K30" s="286">
-        <v>5</v>
-      </c>
-      <c r="L30" s="286">
-        <v>4</v>
-      </c>
-      <c r="M30" s="286">
-        <v>4</v>
-      </c>
-      <c r="N30" s="300">
-        <v>3</v>
-      </c>
-      <c r="O30" s="286">
-        <v>4</v>
-      </c>
-      <c r="P30" s="286">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="286">
-        <v>4</v>
-      </c>
-      <c r="R30" s="298"/>
-      <c r="S30" s="298"/>
-      <c r="T30" s="298"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E32" s="304" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32" s="304" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="304" t="s">
-        <v>274</v>
-      </c>
-      <c r="H32" s="304" t="s">
-        <v>318</v>
-      </c>
-      <c r="I32" s="304" t="s">
-        <v>276</v>
-      </c>
-      <c r="J32" s="304" t="s">
-        <v>312</v>
-      </c>
-      <c r="K32" s="304" t="s">
-        <v>313</v>
-      </c>
-      <c r="L32" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="M32" s="91" t="s">
-        <v>319</v>
-      </c>
-      <c r="N32" s="332" t="s">
-        <v>314</v>
-      </c>
-      <c r="O32" s="304" t="s">
-        <v>312</v>
-      </c>
-      <c r="P32" s="303"/>
-      <c r="Q32" s="303"/>
-      <c r="R32" s="303"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="E33" s="304" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="304" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="304" t="s">
-        <v>274</v>
-      </c>
-      <c r="H33" s="304" t="s">
-        <v>318</v>
-      </c>
-      <c r="I33" s="304" t="s">
-        <v>320</v>
-      </c>
-      <c r="J33" s="304" t="s">
-        <v>312</v>
-      </c>
-      <c r="K33" s="304" t="s">
-        <v>313</v>
-      </c>
-      <c r="L33" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="M33" s="304" t="s">
-        <v>274</v>
-      </c>
-      <c r="N33" s="332" t="s">
-        <v>313</v>
-      </c>
-      <c r="O33" s="304" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C36" s="318" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="325" t="s">
-        <v>311</v>
-      </c>
-      <c r="E36" s="325" t="s">
-        <v>274</v>
-      </c>
-      <c r="F36" s="325" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="H36" s="326" t="s">
-        <v>312</v>
-      </c>
-      <c r="I36" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="J36" s="326" t="s">
-        <v>276</v>
-      </c>
-      <c r="K36" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="L36" s="326" t="s">
-        <v>276</v>
-      </c>
-      <c r="M36" s="322"/>
-      <c r="Q36" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="R36" s="325" t="s">
-        <v>311</v>
-      </c>
-      <c r="S36" s="325" t="s">
-        <v>274</v>
-      </c>
-      <c r="T36" s="325" t="s">
-        <v>313</v>
-      </c>
-      <c r="U36" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="V36" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="W36" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="X36" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y36" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z36" s="326" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA36" s="326" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C37" s="324" t="s">
-        <v>311</v>
-      </c>
-      <c r="D37" s="100">
-        <v>0</v>
-      </c>
-      <c r="E37" s="286">
-        <v>1</v>
-      </c>
-      <c r="F37" s="286">
-        <v>2</v>
-      </c>
-      <c r="G37" s="286">
-        <v>3</v>
-      </c>
-      <c r="H37" s="286">
-        <v>4</v>
-      </c>
-      <c r="I37" s="286">
-        <v>5</v>
-      </c>
-      <c r="J37" s="286">
-        <v>6</v>
-      </c>
-      <c r="K37" s="286">
-        <v>7</v>
-      </c>
-      <c r="L37" s="286">
-        <v>8</v>
-      </c>
-      <c r="M37" s="319"/>
-      <c r="Q37" s="324" t="s">
-        <v>311</v>
-      </c>
-      <c r="R37" s="100">
-        <v>0</v>
-      </c>
-      <c r="S37" s="286">
-        <v>1</v>
-      </c>
-      <c r="T37" s="286">
-        <v>2</v>
-      </c>
-      <c r="U37" s="286">
-        <v>3</v>
-      </c>
-      <c r="V37" s="286">
-        <v>4</v>
-      </c>
-      <c r="W37" s="286">
-        <v>5</v>
-      </c>
-      <c r="X37" s="286">
-        <v>6</v>
-      </c>
-      <c r="Y37" s="286">
-        <v>7</v>
-      </c>
-      <c r="Z37" s="286">
-        <v>8</v>
-      </c>
-      <c r="AA37" s="286">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C38" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="286">
-        <v>1</v>
-      </c>
-      <c r="E38" s="377">
-        <v>0</v>
-      </c>
-      <c r="F38" s="286">
-        <v>1</v>
-      </c>
-      <c r="G38" s="286">
-        <v>2</v>
-      </c>
-      <c r="H38" s="286">
-        <v>3</v>
-      </c>
-      <c r="I38" s="286">
-        <v>4</v>
-      </c>
-      <c r="J38" s="286">
-        <v>5</v>
-      </c>
-      <c r="K38" s="286">
-        <v>6</v>
-      </c>
-      <c r="L38" s="286">
-        <v>7</v>
-      </c>
-      <c r="M38" s="319"/>
-      <c r="Q38" s="326" t="s">
-        <v>274</v>
-      </c>
-      <c r="R38" s="286">
-        <v>1</v>
-      </c>
-      <c r="S38" s="286">
-        <v>0</v>
-      </c>
-      <c r="T38" s="286">
-        <v>1</v>
-      </c>
-      <c r="U38" s="286">
-        <v>2</v>
-      </c>
-      <c r="V38" s="286">
-        <v>3</v>
-      </c>
-      <c r="W38" s="286">
-        <v>4</v>
-      </c>
-      <c r="X38" s="286">
-        <v>5</v>
-      </c>
-      <c r="Y38" s="286">
-        <v>6</v>
-      </c>
-      <c r="Z38" s="286">
-        <v>7</v>
-      </c>
-      <c r="AA38" s="286">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C39" s="326" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="286">
-        <v>2</v>
-      </c>
-      <c r="E39" s="286">
-        <v>1</v>
-      </c>
-      <c r="F39" s="377">
-        <v>0</v>
-      </c>
-      <c r="G39" s="286">
-        <v>1</v>
-      </c>
-      <c r="H39" s="286">
-        <v>2</v>
-      </c>
-      <c r="I39" s="286">
-        <v>3</v>
-      </c>
-      <c r="J39" s="286">
-        <v>4</v>
-      </c>
-      <c r="K39" s="286">
-        <v>5</v>
-      </c>
-      <c r="L39" s="286">
-        <v>6</v>
-      </c>
-      <c r="M39" s="319"/>
-      <c r="Q39" s="326" t="s">
-        <v>313</v>
-      </c>
       <c r="R39" s="286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S39" s="286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39" s="286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" s="286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" s="286">
         <v>2</v>
@@ -7005,67 +7152,68 @@
         <v>6</v>
       </c>
       <c r="AA39" s="286">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C40" s="326" t="s">
-        <v>276</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B40" s="378"/>
+      <c r="C40" s="338" t="s">
+        <v>313</v>
       </c>
       <c r="D40" s="286">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="286">
-        <v>1</v>
-      </c>
-      <c r="G40" s="377">
-        <v>1</v>
-      </c>
-      <c r="H40" s="286">
+        <v>3</v>
+      </c>
+      <c r="G40" s="286">
+        <v>3</v>
+      </c>
+      <c r="H40" s="333">
         <v>2</v>
       </c>
       <c r="I40" s="286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="286">
         <v>3</v>
       </c>
-      <c r="K40" s="100">
-        <v>4</v>
-      </c>
-      <c r="L40" s="286">
+      <c r="K40" s="286">
+        <v>3</v>
+      </c>
+      <c r="L40" s="100">
+        <v>4</v>
+      </c>
+      <c r="M40" s="316"/>
+      <c r="Q40" s="323" t="s">
+        <v>313</v>
+      </c>
+      <c r="R40" s="286">
         <v>5</v>
       </c>
-      <c r="M40" s="319"/>
-      <c r="Q40" s="326" t="s">
-        <v>276</v>
-      </c>
-      <c r="R40" s="286">
-        <v>3</v>
-      </c>
       <c r="S40" s="286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T40" s="286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U40" s="286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V40" s="286">
         <v>2</v>
       </c>
       <c r="W40" s="286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X40" s="286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y40" s="286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z40" s="286">
         <v>5</v>
@@ -7074,433 +7222,612 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C41" s="326" t="s">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B41" s="378"/>
+      <c r="C41" s="338" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="286">
+        <v>6</v>
+      </c>
+      <c r="E41" s="286">
+        <v>5</v>
+      </c>
+      <c r="F41" s="286">
+        <v>4</v>
+      </c>
+      <c r="G41" s="286">
+        <v>4</v>
+      </c>
+      <c r="H41" s="286">
+        <v>3</v>
+      </c>
+      <c r="I41" s="333">
+        <v>2</v>
+      </c>
+      <c r="J41" s="333">
+        <v>3</v>
+      </c>
+      <c r="K41" s="286">
+        <v>4</v>
+      </c>
+      <c r="L41" s="286">
+        <v>4</v>
+      </c>
+      <c r="M41" s="316"/>
+      <c r="Q41" s="323" t="s">
+        <v>274</v>
+      </c>
+      <c r="R41" s="286">
+        <v>6</v>
+      </c>
+      <c r="S41" s="286">
+        <v>5</v>
+      </c>
+      <c r="T41" s="286">
+        <v>4</v>
+      </c>
+      <c r="U41" s="286">
+        <v>3</v>
+      </c>
+      <c r="V41" s="286">
+        <v>3</v>
+      </c>
+      <c r="W41" s="286">
+        <v>3</v>
+      </c>
+      <c r="X41" s="286">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="286">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="286">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="378"/>
+      <c r="C42" s="338" t="s">
+        <v>313</v>
+      </c>
+      <c r="D42" s="286">
+        <v>7</v>
+      </c>
+      <c r="E42" s="286">
+        <v>6</v>
+      </c>
+      <c r="F42" s="286">
+        <v>5</v>
+      </c>
+      <c r="G42" s="286">
+        <v>5</v>
+      </c>
+      <c r="H42" s="286">
+        <v>4</v>
+      </c>
+      <c r="I42" s="286">
+        <v>3</v>
+      </c>
+      <c r="J42" s="286">
+        <v>3</v>
+      </c>
+      <c r="K42" s="333">
+        <v>3</v>
+      </c>
+      <c r="L42" s="335">
+        <v>4</v>
+      </c>
+      <c r="M42" s="316"/>
+      <c r="Q42" s="323" t="s">
+        <v>276</v>
+      </c>
+      <c r="R42" s="286">
+        <v>7</v>
+      </c>
+      <c r="S42" s="286">
+        <v>6</v>
+      </c>
+      <c r="T42" s="286">
+        <v>5</v>
+      </c>
+      <c r="U42" s="286">
+        <v>4</v>
+      </c>
+      <c r="V42" s="286">
+        <v>4</v>
+      </c>
+      <c r="W42" s="286">
+        <v>4</v>
+      </c>
+      <c r="X42" s="286">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="286">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="29">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="319" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="320" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="320" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="327" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" s="286" t="s">
         <v>312</v>
       </c>
-      <c r="D41" s="286">
-        <v>4</v>
-      </c>
-      <c r="E41" s="286">
-        <v>3</v>
-      </c>
-      <c r="F41" s="286">
-        <v>2</v>
-      </c>
-      <c r="G41" s="286">
-        <v>2</v>
-      </c>
-      <c r="H41" s="377">
-        <v>1</v>
-      </c>
-      <c r="I41" s="286">
-        <v>2</v>
-      </c>
-      <c r="J41" s="286">
-        <v>3</v>
-      </c>
-      <c r="K41" s="286">
-        <v>4</v>
-      </c>
-      <c r="L41" s="286">
-        <v>5</v>
-      </c>
-      <c r="M41" s="319"/>
-      <c r="Q41" s="326" t="s">
+      <c r="H44" s="329" t="s">
+        <v>320</v>
+      </c>
+      <c r="I44" s="320" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" s="325" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" s="320" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" s="325" t="s">
+        <v>276</v>
+      </c>
+      <c r="M44" s="319"/>
+      <c r="N44" s="319"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="319" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="286" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="286" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" s="286" t="s">
         <v>312</v>
       </c>
-      <c r="R41" s="286">
-        <v>4</v>
-      </c>
-      <c r="S41" s="286">
-        <v>3</v>
-      </c>
-      <c r="T41" s="286">
-        <v>2</v>
-      </c>
-      <c r="U41" s="286">
-        <v>2</v>
-      </c>
-      <c r="V41" s="286">
-        <v>2</v>
-      </c>
-      <c r="W41" s="286">
-        <v>3</v>
-      </c>
-      <c r="X41" s="286">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="286">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="286">
-        <v>6</v>
-      </c>
-      <c r="AA41" s="286">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C42" s="326" t="s">
+      <c r="H45" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="D42" s="286">
-        <v>5</v>
-      </c>
-      <c r="E42" s="286">
-        <v>4</v>
-      </c>
-      <c r="F42" s="286">
-        <v>3</v>
-      </c>
-      <c r="G42" s="286">
-        <v>3</v>
-      </c>
-      <c r="H42" s="377">
-        <v>2</v>
-      </c>
-      <c r="I42" s="286">
-        <v>2</v>
-      </c>
-      <c r="J42" s="286">
-        <v>3</v>
-      </c>
-      <c r="K42" s="286">
-        <v>3</v>
-      </c>
-      <c r="L42" s="100">
-        <v>4</v>
-      </c>
-      <c r="M42" s="319"/>
-      <c r="Q42" s="326" t="s">
+      <c r="I45" s="286" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="203" t="s">
+        <v>320</v>
+      </c>
+      <c r="K45" s="286" t="s">
         <v>313</v>
       </c>
-      <c r="R42" s="286">
-        <v>5</v>
-      </c>
-      <c r="S42" s="286">
-        <v>4</v>
-      </c>
-      <c r="T42" s="286">
-        <v>3</v>
-      </c>
-      <c r="U42" s="286">
-        <v>3</v>
-      </c>
-      <c r="V42" s="286">
-        <v>2</v>
-      </c>
-      <c r="W42" s="286">
-        <v>2</v>
-      </c>
-      <c r="X42" s="286">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="286">
-        <v>4</v>
-      </c>
-      <c r="Z42" s="286">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="286">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C43" s="326" t="s">
+      <c r="L45" s="203" t="s">
+        <v>320</v>
+      </c>
+      <c r="M45" s="316"/>
+      <c r="N45" s="316"/>
+      <c r="R45" s="322" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="286">
-        <v>6</v>
-      </c>
-      <c r="E43" s="286">
-        <v>5</v>
-      </c>
-      <c r="F43" s="286">
-        <v>4</v>
-      </c>
-      <c r="G43" s="286">
-        <v>4</v>
-      </c>
-      <c r="H43" s="286">
-        <v>3</v>
-      </c>
-      <c r="I43" s="377">
-        <v>2</v>
-      </c>
-      <c r="J43" s="377">
-        <v>3</v>
-      </c>
-      <c r="K43" s="286">
-        <v>4</v>
-      </c>
-      <c r="L43" s="286">
-        <v>4</v>
-      </c>
-      <c r="M43" s="319"/>
-      <c r="Q43" s="326" t="s">
+      <c r="S45" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="T45" s="324" t="s">
+        <v>320</v>
+      </c>
+      <c r="U45" s="203" t="s">
         <v>274</v>
       </c>
-      <c r="R43" s="286">
-        <v>6</v>
-      </c>
-      <c r="S43" s="286">
-        <v>5</v>
-      </c>
-      <c r="T43" s="286">
-        <v>4</v>
-      </c>
-      <c r="U43" s="286">
-        <v>3</v>
-      </c>
-      <c r="V43" s="286">
-        <v>3</v>
-      </c>
-      <c r="W43" s="286">
-        <v>3</v>
-      </c>
-      <c r="X43" s="286">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="286">
-        <v>3</v>
-      </c>
-      <c r="Z43" s="286">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="286">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C44" s="326" t="s">
+      <c r="V45" s="320" t="s">
         <v>313</v>
       </c>
-      <c r="D44" s="286">
-        <v>7</v>
-      </c>
-      <c r="E44" s="286">
-        <v>6</v>
-      </c>
-      <c r="F44" s="286">
-        <v>5</v>
-      </c>
-      <c r="G44" s="286">
-        <v>5</v>
-      </c>
-      <c r="H44" s="286">
-        <v>4</v>
-      </c>
-      <c r="I44" s="286">
-        <v>3</v>
-      </c>
-      <c r="J44" s="286">
-        <v>3</v>
-      </c>
-      <c r="K44" s="377">
-        <v>3</v>
-      </c>
-      <c r="L44" s="379">
-        <v>4</v>
-      </c>
-      <c r="M44" s="319"/>
-      <c r="Q44" s="326" t="s">
+      <c r="W45" s="324" t="s">
+        <v>313</v>
+      </c>
+      <c r="X45" s="324" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y45" s="324" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z45" s="324" t="s">
         <v>276</v>
       </c>
-      <c r="R44" s="286">
-        <v>7</v>
-      </c>
-      <c r="S44" s="286">
-        <v>6</v>
-      </c>
-      <c r="T44" s="286">
-        <v>5</v>
-      </c>
-      <c r="U44" s="286">
-        <v>4</v>
-      </c>
-      <c r="V44" s="286">
-        <v>4</v>
-      </c>
-      <c r="W44" s="286">
-        <v>4</v>
-      </c>
-      <c r="X44" s="286">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="286">
-        <v>3</v>
-      </c>
-      <c r="Z44" s="29">
-        <v>3</v>
-      </c>
-      <c r="AA44" s="286">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="323" t="s">
+      <c r="AA45" s="324"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="334"/>
+      <c r="H46" s="298" t="s">
+        <v>277</v>
+      </c>
+      <c r="I46" s="298"/>
+      <c r="J46" s="298" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" s="298"/>
+      <c r="L46" s="298" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" s="318"/>
+      <c r="N46" s="5"/>
+      <c r="R46" s="317" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="323" t="s">
+      <c r="S46" s="317" t="s">
         <v>313</v>
       </c>
-      <c r="F46" s="330" t="s">
+      <c r="T46" s="317" t="s">
+        <v>276</v>
+      </c>
+      <c r="U46" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="V46" s="317" t="s">
+        <v>313</v>
+      </c>
+      <c r="W46" s="317" t="s">
+        <v>320</v>
+      </c>
+      <c r="X46" s="317" t="s">
         <v>274</v>
       </c>
-      <c r="G46" s="286" t="s">
+      <c r="Y46" s="317" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z46" s="317" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA46" s="19"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="331" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="337" t="s">
+        <v>311</v>
+      </c>
+      <c r="E47" s="336" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="336" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="336" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="336" t="s">
         <v>312</v>
       </c>
-      <c r="H46" s="328" t="s">
-        <v>320</v>
-      </c>
-      <c r="I46" s="323" t="s">
+      <c r="I47" s="336" t="s">
         <v>274</v>
       </c>
-      <c r="J46" s="323" t="s">
+      <c r="J47" s="336" t="s">
         <v>276</v>
       </c>
-      <c r="K46" s="323" t="s">
+      <c r="K47" s="336" t="s">
         <v>313</v>
       </c>
-      <c r="L46" s="323" t="s">
+      <c r="L47" s="336" t="s">
         <v>276</v>
       </c>
-      <c r="M46" s="322"/>
-      <c r="N46" s="322"/>
-    </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="286" t="s">
+      <c r="N47" s="5"/>
+      <c r="T47" s="318" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="318" t="s">
+        <v>72</v>
+      </c>
+      <c r="V47" s="318"/>
+      <c r="W47" s="318" t="s">
+        <v>132</v>
+      </c>
+      <c r="X47" s="318"/>
+      <c r="Y47" s="318" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z47" s="318"/>
+      <c r="AA47" s="318"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="321" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="100">
+        <v>0</v>
+      </c>
+      <c r="E48" s="286">
+        <v>8</v>
+      </c>
+      <c r="F48" s="286">
+        <v>16</v>
+      </c>
+      <c r="G48" s="286">
+        <v>24</v>
+      </c>
+      <c r="H48" s="286">
+        <v>32</v>
+      </c>
+      <c r="I48" s="286">
+        <v>40</v>
+      </c>
+      <c r="J48" s="286">
+        <v>48</v>
+      </c>
+      <c r="K48" s="286">
+        <v>56</v>
+      </c>
+      <c r="L48" s="286">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="378" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="338" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="286" t="s">
+      <c r="D49" s="286">
+        <v>8</v>
+      </c>
+      <c r="E49" s="333">
+        <v>0</v>
+      </c>
+      <c r="F49" s="286">
+        <v>8</v>
+      </c>
+      <c r="G49" s="286">
+        <v>16</v>
+      </c>
+      <c r="H49" s="286">
+        <v>24</v>
+      </c>
+      <c r="I49" s="286">
+        <v>32</v>
+      </c>
+      <c r="J49" s="286">
+        <v>40</v>
+      </c>
+      <c r="K49" s="286">
+        <v>48</v>
+      </c>
+      <c r="L49" s="286">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="378"/>
+      <c r="C50" s="338" t="s">
         <v>313</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="D50" s="286">
+        <v>16</v>
+      </c>
+      <c r="E50" s="286">
+        <v>8</v>
+      </c>
+      <c r="F50" s="333">
+        <v>0</v>
+      </c>
+      <c r="G50" s="286">
+        <v>8</v>
+      </c>
+      <c r="H50" s="286">
+        <v>16</v>
+      </c>
+      <c r="I50" s="286">
+        <v>24</v>
+      </c>
+      <c r="J50" s="286">
+        <v>32</v>
+      </c>
+      <c r="K50" s="286">
+        <v>40</v>
+      </c>
+      <c r="L50" s="286">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="378"/>
+      <c r="C51" s="338" t="s">
         <v>276</v>
       </c>
-      <c r="G47" s="286" t="s">
+      <c r="D51" s="286">
+        <v>24</v>
+      </c>
+      <c r="E51" s="286">
+        <v>16</v>
+      </c>
+      <c r="F51" s="286">
+        <v>8</v>
+      </c>
+      <c r="G51" s="333">
+        <v>4</v>
+      </c>
+      <c r="H51" s="286">
+        <v>12</v>
+      </c>
+      <c r="I51" s="286">
+        <v>20</v>
+      </c>
+      <c r="J51" s="286">
+        <v>28</v>
+      </c>
+      <c r="K51" s="100">
+        <v>36</v>
+      </c>
+      <c r="L51" s="286">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="378"/>
+      <c r="C52" s="338" t="s">
         <v>312</v>
       </c>
-      <c r="H47" s="203" t="s">
+      <c r="D52" s="286">
+        <v>32</v>
+      </c>
+      <c r="E52" s="286">
+        <v>24</v>
+      </c>
+      <c r="F52" s="286">
+        <v>16</v>
+      </c>
+      <c r="G52" s="286">
+        <v>12</v>
+      </c>
+      <c r="H52" s="333">
+        <v>4</v>
+      </c>
+      <c r="I52" s="286">
+        <v>12</v>
+      </c>
+      <c r="J52" s="286">
+        <v>20</v>
+      </c>
+      <c r="K52" s="286">
+        <v>28</v>
+      </c>
+      <c r="L52" s="286">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="378"/>
+      <c r="C53" s="338" t="s">
         <v>313</v>
       </c>
-      <c r="I47" s="286" t="s">
+      <c r="D53" s="286">
+        <v>40</v>
+      </c>
+      <c r="E53" s="286">
+        <v>32</v>
+      </c>
+      <c r="F53" s="286">
+        <v>24</v>
+      </c>
+      <c r="G53" s="286">
+        <v>20</v>
+      </c>
+      <c r="H53" s="333">
+        <v>12</v>
+      </c>
+      <c r="I53" s="286">
+        <v>12</v>
+      </c>
+      <c r="J53" s="286">
+        <v>20</v>
+      </c>
+      <c r="K53" s="286">
+        <v>28</v>
+      </c>
+      <c r="L53" s="100">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="378"/>
+      <c r="C54" s="338" t="s">
         <v>274</v>
       </c>
-      <c r="J47" s="286" t="s">
-        <v>320</v>
-      </c>
-      <c r="K47" s="286" t="s">
+      <c r="D54" s="286">
+        <v>48</v>
+      </c>
+      <c r="E54" s="286">
+        <v>40</v>
+      </c>
+      <c r="F54" s="286">
+        <v>32</v>
+      </c>
+      <c r="G54" s="286">
+        <v>28</v>
+      </c>
+      <c r="H54" s="286">
+        <v>20</v>
+      </c>
+      <c r="I54" s="333">
+        <v>12</v>
+      </c>
+      <c r="J54" s="333">
+        <v>20</v>
+      </c>
+      <c r="K54" s="286">
+        <v>28</v>
+      </c>
+      <c r="L54" s="286">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="378"/>
+      <c r="C55" s="338" t="s">
         <v>313</v>
       </c>
-      <c r="L47" s="286" t="s">
-        <v>320</v>
-      </c>
-      <c r="M47" s="319"/>
-      <c r="N47" s="319"/>
-      <c r="R47" s="325" t="s">
-        <v>274</v>
-      </c>
-      <c r="S47" s="325" t="s">
-        <v>313</v>
-      </c>
-      <c r="T47" s="327" t="s">
-        <v>320</v>
-      </c>
-      <c r="U47" s="203" t="s">
-        <v>274</v>
-      </c>
-      <c r="V47" s="323" t="s">
-        <v>313</v>
-      </c>
-      <c r="W47" s="327" t="s">
-        <v>313</v>
-      </c>
-      <c r="X47" s="327" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y47" s="327" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z47" s="327" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA47" s="327"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="378"/>
-      <c r="H48" s="299" t="s">
-        <v>277</v>
-      </c>
-      <c r="I48" s="299"/>
-      <c r="J48" s="299" t="s">
-        <v>323</v>
-      </c>
-      <c r="K48" s="299"/>
-      <c r="L48" s="299" t="s">
-        <v>323</v>
-      </c>
-      <c r="M48" s="321"/>
-      <c r="N48" s="5"/>
-      <c r="R48" s="320" t="s">
-        <v>274</v>
-      </c>
-      <c r="S48" s="320" t="s">
-        <v>313</v>
-      </c>
-      <c r="T48" s="320" t="s">
-        <v>276</v>
-      </c>
-      <c r="U48" s="203" t="s">
-        <v>312</v>
-      </c>
-      <c r="V48" s="320" t="s">
-        <v>313</v>
-      </c>
-      <c r="W48" s="320" t="s">
-        <v>320</v>
-      </c>
-      <c r="X48" s="320" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y48" s="320" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z48" s="320" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA48" s="19"/>
-    </row>
-    <row r="49" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N49" s="5"/>
-      <c r="T49" s="321" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="321" t="s">
-        <v>72</v>
-      </c>
-      <c r="V49" s="321"/>
-      <c r="W49" s="321" t="s">
-        <v>132</v>
-      </c>
-      <c r="X49" s="321"/>
-      <c r="Y49" s="321" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z49" s="321"/>
-      <c r="AA49" s="321"/>
+      <c r="D55" s="286">
+        <v>56</v>
+      </c>
+      <c r="E55" s="286">
+        <v>48</v>
+      </c>
+      <c r="F55" s="286">
+        <v>40</v>
+      </c>
+      <c r="G55" s="286">
+        <v>32</v>
+      </c>
+      <c r="H55" s="286">
+        <v>24</v>
+      </c>
+      <c r="I55" s="286">
+        <v>20</v>
+      </c>
+      <c r="J55" s="286">
+        <v>20</v>
+      </c>
+      <c r="K55" s="333">
+        <v>20</v>
+      </c>
+      <c r="L55" s="335">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="E20:Q20"/>
+  <mergeCells count="5">
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="B49:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7529,38 +7856,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="340" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="G1" s="337" t="s">
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="G1" s="339" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="337"/>
-      <c r="J1" s="338" t="s">
+      <c r="H1" s="339"/>
+      <c r="J1" s="340" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="P1" s="338" t="s">
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="P1" s="340" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="338"/>
-      <c r="S1" s="338"/>
-      <c r="T1" s="338"/>
-      <c r="V1" s="347" t="s">
+      <c r="Q1" s="340"/>
+      <c r="R1" s="340"/>
+      <c r="S1" s="340"/>
+      <c r="T1" s="340"/>
+      <c r="V1" s="350" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="347"/>
-      <c r="X1" s="347"/>
-      <c r="Y1" s="347"/>
-      <c r="Z1" s="347"/>
+      <c r="W1" s="350"/>
+      <c r="X1" s="350"/>
+      <c r="Y1" s="350"/>
+      <c r="Z1" s="350"/>
       <c r="AA1" t="s">
         <v>157</v>
       </c>
@@ -7940,13 +8267,13 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V7" s="373" t="s">
+      <c r="V7" s="380" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="373"/>
-      <c r="X7" s="373"/>
-      <c r="Y7" s="373"/>
-      <c r="Z7" s="374"/>
+      <c r="W7" s="380"/>
+      <c r="X7" s="380"/>
+      <c r="Y7" s="380"/>
+      <c r="Z7" s="381"/>
       <c r="AA7" s="185">
         <f>SUM(AA2:AA6)</f>
         <v>52.155432816864746</v>
@@ -7956,13 +8283,13 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V8" s="375" t="s">
+      <c r="V8" s="382" t="s">
         <v>133</v>
       </c>
-      <c r="W8" s="375"/>
-      <c r="X8" s="375"/>
-      <c r="Y8" s="375"/>
-      <c r="Z8" s="376"/>
+      <c r="W8" s="382"/>
+      <c r="X8" s="382"/>
+      <c r="Y8" s="382"/>
+      <c r="Z8" s="383"/>
       <c r="AA8" s="3">
         <v>23</v>
       </c>
@@ -7971,13 +8298,13 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V9" s="335" t="s">
+      <c r="V9" s="343" t="s">
         <v>204</v>
       </c>
-      <c r="W9" s="335"/>
-      <c r="X9" s="335"/>
-      <c r="Y9" s="335"/>
-      <c r="Z9" s="335"/>
+      <c r="W9" s="343"/>
+      <c r="X9" s="343"/>
+      <c r="Y9" s="343"/>
+      <c r="Z9" s="343"/>
       <c r="AA9" s="175">
         <f>SQRT(AA7/AA8)</f>
         <v>1.5058643742969444</v>
@@ -8022,19 +8349,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="369" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
-      <c r="K2" s="365"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
+      <c r="H2" s="370"/>
+      <c r="I2" s="370"/>
+      <c r="J2" s="370"/>
+      <c r="K2" s="370"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
@@ -8407,15 +8734,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
       <c r="V1" s="120" t="s">
         <v>154</v>
       </c>
@@ -8547,16 +8874,16 @@
       <c r="G2" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="370" t="s">
+      <c r="I2" s="375" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="370"/>
-      <c r="K2" s="370"/>
-      <c r="L2" s="370"/>
-      <c r="M2" s="370"/>
-      <c r="N2" s="370"/>
-      <c r="O2" s="370"/>
-      <c r="P2" s="370"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375"/>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
+      <c r="N2" s="375"/>
+      <c r="O2" s="375"/>
+      <c r="P2" s="375"/>
       <c r="U2" s="3" t="s">
         <v>143</v>
       </c>
@@ -10643,17 +10970,17 @@
       </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A16" s="366" t="s">
+      <c r="A16" s="371" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="367"/>
-      <c r="C16" s="367"/>
-      <c r="D16" s="367"/>
-      <c r="E16" s="367"/>
-      <c r="F16" s="367"/>
-      <c r="G16" s="367"/>
-      <c r="H16" s="367"/>
-      <c r="I16" s="367"/>
+      <c r="B16" s="372"/>
+      <c r="C16" s="372"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="372"/>
+      <c r="H16" s="372"/>
+      <c r="I16" s="372"/>
       <c r="U16" s="3" t="s">
         <v>143</v>
       </c>
@@ -12327,17 +12654,17 @@
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="I28" s="364" t="s">
+      <c r="I28" s="369" t="s">
         <v>268</v>
       </c>
-      <c r="J28" s="365"/>
-      <c r="K28" s="365"/>
-      <c r="L28" s="365"/>
-      <c r="M28" s="365"/>
-      <c r="N28" s="365"/>
-      <c r="O28" s="365"/>
-      <c r="P28" s="365"/>
-      <c r="Q28" s="365"/>
+      <c r="J28" s="370"/>
+      <c r="K28" s="370"/>
+      <c r="L28" s="370"/>
+      <c r="M28" s="370"/>
+      <c r="N28" s="370"/>
+      <c r="O28" s="370"/>
+      <c r="P28" s="370"/>
+      <c r="Q28" s="370"/>
     </row>
     <row r="29" spans="1:75" ht="30" x14ac:dyDescent="0.25">
       <c r="I29" s="173" t="s">
@@ -18822,31 +19149,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="340" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="G1" s="338" t="s">
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="G1" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="344" t="s">
+      <c r="M1" s="347" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="345"/>
-      <c r="O1" s="345"/>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="346"/>
+      <c r="N1" s="348"/>
+      <c r="O1" s="348"/>
+      <c r="P1" s="348"/>
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348"/>
+      <c r="S1" s="348"/>
+      <c r="T1" s="349"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -19191,35 +19518,35 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M8" s="341" t="s">
+      <c r="M8" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="341"/>
-      <c r="O8" s="341"/>
-      <c r="P8" s="341"/>
-      <c r="Q8" s="341"/>
-      <c r="R8" s="341"/>
-      <c r="S8" s="341"/>
-      <c r="T8" s="341"/>
+      <c r="N8" s="346"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="346"/>
+      <c r="T8" s="346"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="347" t="s">
+      <c r="M9" s="350" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="347"/>
-      <c r="T9" s="347"/>
-      <c r="V9" s="340" t="s">
+      <c r="N9" s="350"/>
+      <c r="O9" s="350"/>
+      <c r="P9" s="350"/>
+      <c r="Q9" s="350"/>
+      <c r="R9" s="350"/>
+      <c r="S9" s="350"/>
+      <c r="T9" s="350"/>
+      <c r="V9" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="340"/>
-      <c r="X9" s="340"/>
-      <c r="Y9" s="340"/>
-      <c r="Z9" s="340"/>
+      <c r="W9" s="345"/>
+      <c r="X9" s="345"/>
+      <c r="Y9" s="345"/>
+      <c r="Z9" s="345"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V10" s="181" t="s">
@@ -19239,14 +19566,14 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F11" s="342" t="s">
+      <c r="F11" s="351" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="343"/>
-      <c r="H11" s="343"/>
-      <c r="I11" s="343"/>
-      <c r="J11" s="343"/>
-      <c r="K11" s="343"/>
+      <c r="G11" s="352"/>
+      <c r="H11" s="352"/>
+      <c r="I11" s="352"/>
+      <c r="J11" s="352"/>
+      <c r="K11" s="352"/>
       <c r="M11" s="293"/>
       <c r="N11" s="293" t="s">
         <v>22</v>
@@ -19367,13 +19694,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="285"/>
-      <c r="V13" s="341" t="s">
+      <c r="V13" s="346" t="s">
         <v>223</v>
       </c>
-      <c r="W13" s="341"/>
-      <c r="X13" s="341"/>
-      <c r="Y13" s="341"/>
-      <c r="Z13" s="341"/>
+      <c r="W13" s="346"/>
+      <c r="X13" s="346"/>
+      <c r="Y13" s="346"/>
+      <c r="Z13" s="346"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" s="8">
@@ -19414,13 +19741,13 @@
         <v>1</v>
       </c>
       <c r="T14" s="285"/>
-      <c r="V14" s="340" t="s">
+      <c r="V14" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="340"/>
-      <c r="X14" s="340"/>
-      <c r="Y14" s="340"/>
-      <c r="Z14" s="340"/>
+      <c r="W14" s="345"/>
+      <c r="X14" s="345"/>
+      <c r="Y14" s="345"/>
+      <c r="Z14" s="345"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" s="8">
@@ -19588,25 +19915,25 @@
       </c>
     </row>
     <row r="18" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="V18" s="341" t="s">
+      <c r="V18" s="346" t="s">
         <v>224</v>
       </c>
-      <c r="W18" s="341"/>
-      <c r="X18" s="341"/>
-      <c r="Y18" s="341"/>
-      <c r="Z18" s="341"/>
+      <c r="W18" s="346"/>
+      <c r="X18" s="346"/>
+      <c r="Y18" s="346"/>
+      <c r="Z18" s="346"/>
     </row>
     <row r="19" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M19" s="293"/>
-      <c r="N19" s="338" t="s">
+      <c r="N19" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="338"/>
-      <c r="P19" s="338"/>
-      <c r="Q19" s="338"/>
-      <c r="R19" s="338"/>
-      <c r="S19" s="338"/>
-      <c r="T19" s="338"/>
+      <c r="O19" s="340"/>
+      <c r="P19" s="340"/>
+      <c r="Q19" s="340"/>
+      <c r="R19" s="340"/>
+      <c r="S19" s="340"/>
+      <c r="T19" s="340"/>
     </row>
     <row r="20" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M20" s="4"/>
@@ -19741,13 +20068,13 @@
       </c>
     </row>
     <row r="26" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="N26" s="340" t="s">
+      <c r="N26" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="340"/>
-      <c r="P26" s="340"/>
-      <c r="Q26" s="340"/>
-      <c r="R26" s="340"/>
+      <c r="O26" s="345"/>
+      <c r="P26" s="345"/>
+      <c r="Q26" s="345"/>
+      <c r="R26" s="345"/>
     </row>
     <row r="27" spans="6:36" x14ac:dyDescent="0.25">
       <c r="N27" s="12" t="s">
@@ -19801,27 +20128,27 @@
       </c>
     </row>
     <row r="30" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="N30" s="340" t="s">
+      <c r="N30" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="340"/>
-      <c r="P30" s="340"/>
-      <c r="Q30" s="340"/>
-      <c r="R30" s="340"/>
-      <c r="V30" s="340" t="s">
+      <c r="O30" s="345"/>
+      <c r="P30" s="345"/>
+      <c r="Q30" s="345"/>
+      <c r="R30" s="345"/>
+      <c r="V30" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="W30" s="340"/>
-      <c r="X30" s="340"/>
-      <c r="Y30" s="340"/>
-      <c r="Z30" s="340"/>
-      <c r="AD30" s="340" t="s">
+      <c r="W30" s="345"/>
+      <c r="X30" s="345"/>
+      <c r="Y30" s="345"/>
+      <c r="Z30" s="345"/>
+      <c r="AD30" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="AE30" s="340"/>
-      <c r="AF30" s="340"/>
-      <c r="AG30" s="340"/>
-      <c r="AH30" s="340"/>
+      <c r="AE30" s="345"/>
+      <c r="AF30" s="345"/>
+      <c r="AG30" s="345"/>
+      <c r="AH30" s="345"/>
     </row>
     <row r="31" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L31" s="5"/>
@@ -20002,53 +20329,53 @@
     </row>
     <row r="34" spans="12:36" x14ac:dyDescent="0.25">
       <c r="L34" s="5"/>
-      <c r="N34" s="341" t="s">
+      <c r="N34" s="346" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="341"/>
-      <c r="P34" s="341"/>
-      <c r="Q34" s="341"/>
-      <c r="R34" s="341"/>
+      <c r="O34" s="346"/>
+      <c r="P34" s="346"/>
+      <c r="Q34" s="346"/>
+      <c r="R34" s="346"/>
       <c r="S34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T34" s="13"/>
-      <c r="V34" s="341" t="s">
+      <c r="V34" s="346" t="s">
         <v>33</v>
       </c>
-      <c r="W34" s="341"/>
-      <c r="X34" s="341"/>
-      <c r="Y34" s="341"/>
-      <c r="Z34" s="341"/>
+      <c r="W34" s="346"/>
+      <c r="X34" s="346"/>
+      <c r="Y34" s="346"/>
+      <c r="Z34" s="346"/>
       <c r="AA34" t="s">
         <v>37</v>
       </c>
-      <c r="AD34" s="341" t="s">
+      <c r="AD34" s="346" t="s">
         <v>39</v>
       </c>
-      <c r="AE34" s="341"/>
-      <c r="AF34" s="341"/>
-      <c r="AG34" s="341"/>
-      <c r="AH34" s="341"/>
+      <c r="AE34" s="346"/>
+      <c r="AF34" s="346"/>
+      <c r="AG34" s="346"/>
+      <c r="AH34" s="346"/>
       <c r="AI34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="12:36" x14ac:dyDescent="0.25">
-      <c r="N35" s="340" t="s">
+      <c r="N35" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="O35" s="340"/>
-      <c r="P35" s="340"/>
-      <c r="Q35" s="340"/>
-      <c r="R35" s="340"/>
-      <c r="V35" s="340" t="s">
+      <c r="O35" s="345"/>
+      <c r="P35" s="345"/>
+      <c r="Q35" s="345"/>
+      <c r="R35" s="345"/>
+      <c r="V35" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="340"/>
-      <c r="X35" s="340"/>
-      <c r="Y35" s="340"/>
-      <c r="Z35" s="340"/>
+      <c r="W35" s="345"/>
+      <c r="X35" s="345"/>
+      <c r="Y35" s="345"/>
+      <c r="Z35" s="345"/>
     </row>
     <row r="36" spans="12:36" x14ac:dyDescent="0.25">
       <c r="L36" s="5"/>
@@ -20171,51 +20498,51 @@
       </c>
     </row>
     <row r="39" spans="12:36" x14ac:dyDescent="0.25">
-      <c r="N39" s="341" t="s">
+      <c r="N39" s="346" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="341"/>
-      <c r="P39" s="341"/>
-      <c r="Q39" s="341"/>
-      <c r="R39" s="341"/>
+      <c r="O39" s="346"/>
+      <c r="P39" s="346"/>
+      <c r="Q39" s="346"/>
+      <c r="R39" s="346"/>
       <c r="S39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="341" t="s">
+      <c r="V39" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="W39" s="341"/>
-      <c r="X39" s="341"/>
-      <c r="Y39" s="341"/>
-      <c r="Z39" s="341"/>
+      <c r="W39" s="346"/>
+      <c r="X39" s="346"/>
+      <c r="Y39" s="346"/>
+      <c r="Z39" s="346"/>
       <c r="AA39" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V39:Z39"/>
     <mergeCell ref="N19:T19"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="N30:R30"/>
     <mergeCell ref="N35:R35"/>
     <mergeCell ref="V35:Z35"/>
     <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="F11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -20258,50 +20585,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="340" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338" t="s">
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="M1" s="348" t="s">
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="M1" s="360" t="s">
         <v>298</v>
       </c>
-      <c r="N1" s="348"/>
-      <c r="O1" s="348"/>
-      <c r="P1" s="348"/>
-      <c r="Q1" s="348"/>
-      <c r="R1" s="348"/>
-      <c r="S1" s="348"/>
-      <c r="Y1" s="348" t="s">
+      <c r="N1" s="360"/>
+      <c r="O1" s="360"/>
+      <c r="P1" s="360"/>
+      <c r="Q1" s="360"/>
+      <c r="R1" s="360"/>
+      <c r="S1" s="360"/>
+      <c r="Y1" s="360" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="348"/>
-      <c r="AA1" s="348"/>
-      <c r="AB1" s="348"/>
-      <c r="AC1" s="348"/>
-      <c r="AD1" s="348"/>
-      <c r="AE1" s="348"/>
+      <c r="Z1" s="360"/>
+      <c r="AA1" s="360"/>
+      <c r="AB1" s="360"/>
+      <c r="AC1" s="360"/>
+      <c r="AD1" s="360"/>
+      <c r="AE1" s="360"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
+      <c r="A2" s="351" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="352"/>
       <c r="H2" s="176" t="s">
         <v>18</v>
       </c>
@@ -20314,26 +20641,26 @@
       <c r="K2" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="349" t="s">
+      <c r="M2" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="349"/>
-      <c r="O2" s="349"/>
-      <c r="P2" s="349"/>
-      <c r="Q2" s="349"/>
-      <c r="R2" s="349"/>
-      <c r="S2" s="349"/>
+      <c r="N2" s="354"/>
+      <c r="O2" s="354"/>
+      <c r="P2" s="354"/>
+      <c r="Q2" s="354"/>
+      <c r="R2" s="354"/>
+      <c r="S2" s="354"/>
       <c r="T2" s="178"/>
       <c r="U2" s="178"/>
-      <c r="Y2" s="349" t="s">
+      <c r="Y2" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="349"/>
-      <c r="AA2" s="349"/>
-      <c r="AB2" s="349"/>
-      <c r="AC2" s="349"/>
-      <c r="AD2" s="349"/>
-      <c r="AE2" s="349"/>
+      <c r="Z2" s="354"/>
+      <c r="AA2" s="354"/>
+      <c r="AB2" s="354"/>
+      <c r="AC2" s="354"/>
+      <c r="AD2" s="354"/>
+      <c r="AE2" s="354"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -20801,15 +21128,15 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M8" s="353" t="s">
+      <c r="M8" s="355" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="353"/>
-      <c r="O8" s="353"/>
-      <c r="P8" s="353"/>
-      <c r="Q8" s="353"/>
-      <c r="R8" s="353"/>
-      <c r="S8" s="353"/>
+      <c r="N8" s="355"/>
+      <c r="O8" s="355"/>
+      <c r="P8" s="355"/>
+      <c r="Q8" s="355"/>
+      <c r="R8" s="355"/>
+      <c r="S8" s="355"/>
       <c r="T8" s="178"/>
       <c r="U8" s="7"/>
       <c r="V8" s="177" t="s">
@@ -20860,13 +21187,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="350"/>
-      <c r="N9" s="351"/>
-      <c r="O9" s="351"/>
-      <c r="P9" s="351"/>
-      <c r="Q9" s="351"/>
-      <c r="R9" s="351"/>
-      <c r="S9" s="352"/>
+      <c r="M9" s="357"/>
+      <c r="N9" s="358"/>
+      <c r="O9" s="358"/>
+      <c r="P9" s="358"/>
+      <c r="Q9" s="358"/>
+      <c r="R9" s="358"/>
+      <c r="S9" s="359"/>
       <c r="T9" s="7"/>
       <c r="U9" s="177"/>
       <c r="Y9" s="178"/>
@@ -20985,16 +21312,16 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="344" t="s">
+      <c r="A12" s="347" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="345"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
+      <c r="B12" s="348"/>
+      <c r="C12" s="348"/>
+      <c r="D12" s="348"/>
+      <c r="E12" s="348"/>
+      <c r="F12" s="348"/>
+      <c r="G12" s="348"/>
+      <c r="H12" s="348"/>
       <c r="I12" s="204"/>
       <c r="J12" s="186"/>
       <c r="K12" s="186"/>
@@ -21186,30 +21513,30 @@
       </c>
       <c r="J15" s="181"/>
       <c r="K15" s="181"/>
-      <c r="M15" s="353" t="s">
+      <c r="M15" s="355" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="353"/>
-      <c r="O15" s="353"/>
-      <c r="P15" s="353"/>
-      <c r="Q15" s="353"/>
-      <c r="R15" s="353"/>
-      <c r="S15" s="353"/>
+      <c r="N15" s="355"/>
+      <c r="O15" s="355"/>
+      <c r="P15" s="355"/>
+      <c r="Q15" s="355"/>
+      <c r="R15" s="355"/>
+      <c r="S15" s="355"/>
       <c r="T15" s="178"/>
       <c r="U15" s="177"/>
       <c r="V15" s="179" t="s">
         <v>213</v>
       </c>
       <c r="W15" s="178"/>
-      <c r="Y15" s="354" t="s">
+      <c r="Y15" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="Z15" s="354"/>
-      <c r="AA15" s="354"/>
-      <c r="AB15" s="354"/>
-      <c r="AC15" s="354"/>
-      <c r="AD15" s="354"/>
-      <c r="AE15" s="354"/>
+      <c r="Z15" s="356"/>
+      <c r="AA15" s="356"/>
+      <c r="AB15" s="356"/>
+      <c r="AC15" s="356"/>
+      <c r="AD15" s="356"/>
+      <c r="AE15" s="356"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -21242,15 +21569,15 @@
       </c>
       <c r="J16" s="181"/>
       <c r="K16" s="181"/>
-      <c r="M16" s="349" t="s">
+      <c r="M16" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="349"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
+      <c r="N16" s="354"/>
+      <c r="O16" s="354"/>
+      <c r="P16" s="354"/>
+      <c r="Q16" s="354"/>
+      <c r="R16" s="354"/>
+      <c r="S16" s="354"/>
       <c r="T16" s="178"/>
       <c r="U16" s="178"/>
       <c r="Y16" s="181" t="s">
@@ -21604,17 +21931,17 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="340" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="338"/>
-      <c r="C21" s="338"/>
-      <c r="D21" s="338"/>
-      <c r="E21" s="338"/>
-      <c r="F21" s="338"/>
-      <c r="G21" s="338"/>
-      <c r="H21" s="338"/>
-      <c r="I21" s="338"/>
+      <c r="B21" s="340"/>
+      <c r="C21" s="340"/>
+      <c r="D21" s="340"/>
+      <c r="E21" s="340"/>
+      <c r="F21" s="340"/>
+      <c r="G21" s="340"/>
+      <c r="H21" s="340"/>
+      <c r="I21" s="340"/>
       <c r="J21" s="186"/>
       <c r="K21" s="186"/>
       <c r="M21" s="285" t="s">
@@ -21645,15 +21972,15 @@
       <c r="V21" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="Y21" s="347" t="s">
+      <c r="Y21" s="350" t="s">
         <v>225</v>
       </c>
-      <c r="Z21" s="347"/>
-      <c r="AA21" s="347"/>
-      <c r="AB21" s="347"/>
-      <c r="AC21" s="347"/>
-      <c r="AD21" s="347"/>
-      <c r="AE21" s="347"/>
+      <c r="Z21" s="350"/>
+      <c r="AA21" s="350"/>
+      <c r="AB21" s="350"/>
+      <c r="AC21" s="350"/>
+      <c r="AD21" s="350"/>
+      <c r="AE21" s="350"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -21687,27 +22014,27 @@
         <v>41</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="M22" s="353" t="s">
+      <c r="M22" s="355" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="353"/>
-      <c r="O22" s="353"/>
-      <c r="P22" s="353"/>
-      <c r="Q22" s="353"/>
-      <c r="R22" s="353"/>
-      <c r="S22" s="353"/>
+      <c r="N22" s="355"/>
+      <c r="O22" s="355"/>
+      <c r="P22" s="355"/>
+      <c r="Q22" s="355"/>
+      <c r="R22" s="355"/>
+      <c r="S22" s="355"/>
       <c r="T22" s="179"/>
       <c r="U22" s="178"/>
       <c r="V22" s="5"/>
-      <c r="Y22" s="354" t="s">
+      <c r="Y22" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="Z22" s="354"/>
-      <c r="AA22" s="354"/>
-      <c r="AB22" s="354"/>
-      <c r="AC22" s="354"/>
-      <c r="AD22" s="354"/>
-      <c r="AE22" s="354"/>
+      <c r="Z22" s="356"/>
+      <c r="AA22" s="356"/>
+      <c r="AB22" s="356"/>
+      <c r="AC22" s="356"/>
+      <c r="AD22" s="356"/>
+      <c r="AE22" s="356"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="180">
@@ -21743,15 +22070,15 @@
         <v>0</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="M23" s="349" t="s">
+      <c r="M23" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="349"/>
-      <c r="O23" s="349"/>
-      <c r="P23" s="349"/>
-      <c r="Q23" s="349"/>
-      <c r="R23" s="349"/>
-      <c r="S23" s="349"/>
+      <c r="N23" s="354"/>
+      <c r="O23" s="354"/>
+      <c r="P23" s="354"/>
+      <c r="Q23" s="354"/>
+      <c r="R23" s="354"/>
+      <c r="S23" s="354"/>
       <c r="T23" s="179"/>
       <c r="U23" s="179"/>
       <c r="Y23" s="181" t="s">
@@ -22176,15 +22503,15 @@
         <v>213</v>
       </c>
       <c r="W28" s="179"/>
-      <c r="Y28" s="347" t="s">
+      <c r="Y28" s="350" t="s">
         <v>226</v>
       </c>
-      <c r="Z28" s="347"/>
-      <c r="AA28" s="347"/>
-      <c r="AB28" s="347"/>
-      <c r="AC28" s="347"/>
-      <c r="AD28" s="347"/>
-      <c r="AE28" s="347"/>
+      <c r="Z28" s="350"/>
+      <c r="AA28" s="350"/>
+      <c r="AB28" s="350"/>
+      <c r="AC28" s="350"/>
+      <c r="AD28" s="350"/>
+      <c r="AE28" s="350"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -22219,55 +22546,55 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M29" s="335" t="s">
+      <c r="M29" s="343" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="335"/>
-      <c r="O29" s="335"/>
-      <c r="P29" s="335"/>
-      <c r="Q29" s="335"/>
-      <c r="R29" s="335"/>
-      <c r="S29" s="335"/>
+      <c r="N29" s="343"/>
+      <c r="O29" s="343"/>
+      <c r="P29" s="343"/>
+      <c r="Q29" s="343"/>
+      <c r="R29" s="343"/>
+      <c r="S29" s="343"/>
       <c r="T29" s="193"/>
       <c r="U29" s="193"/>
       <c r="V29" s="179"/>
       <c r="W29" s="179"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="344" t="s">
+      <c r="A30" s="347" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="345"/>
-      <c r="C30" s="345"/>
-      <c r="D30" s="345"/>
-      <c r="E30" s="345"/>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345"/>
-      <c r="H30" s="345"/>
-      <c r="I30" s="345"/>
+      <c r="B30" s="348"/>
+      <c r="C30" s="348"/>
+      <c r="D30" s="348"/>
+      <c r="E30" s="348"/>
+      <c r="F30" s="348"/>
+      <c r="G30" s="348"/>
+      <c r="H30" s="348"/>
+      <c r="I30" s="348"/>
       <c r="J30" s="186"/>
       <c r="K30" s="186"/>
-      <c r="M30" s="349" t="s">
+      <c r="M30" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="349"/>
-      <c r="O30" s="349"/>
-      <c r="P30" s="349"/>
-      <c r="Q30" s="349"/>
-      <c r="R30" s="349"/>
-      <c r="S30" s="349"/>
+      <c r="N30" s="354"/>
+      <c r="O30" s="354"/>
+      <c r="P30" s="354"/>
+      <c r="Q30" s="354"/>
+      <c r="R30" s="354"/>
+      <c r="S30" s="354"/>
       <c r="T30" s="193"/>
       <c r="U30" s="193"/>
       <c r="V30" s="177"/>
-      <c r="Y30" s="335" t="s">
+      <c r="Y30" s="343" t="s">
         <v>222</v>
       </c>
-      <c r="Z30" s="335"/>
-      <c r="AA30" s="335"/>
-      <c r="AB30" s="335"/>
-      <c r="AC30" s="335"/>
-      <c r="AD30" s="335"/>
-      <c r="AE30" s="335"/>
+      <c r="Z30" s="343"/>
+      <c r="AA30" s="343"/>
+      <c r="AB30" s="343"/>
+      <c r="AC30" s="343"/>
+      <c r="AD30" s="343"/>
+      <c r="AE30" s="343"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -22503,15 +22830,15 @@
         <v>29</v>
       </c>
       <c r="W33" s="179"/>
-      <c r="Y33" s="335" t="s">
+      <c r="Y33" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="Z33" s="335"/>
-      <c r="AA33" s="335"/>
-      <c r="AB33" s="335"/>
-      <c r="AC33" s="335"/>
-      <c r="AD33" s="335"/>
-      <c r="AE33" s="335"/>
+      <c r="Z33" s="343"/>
+      <c r="AA33" s="343"/>
+      <c r="AB33" s="343"/>
+      <c r="AC33" s="343"/>
+      <c r="AD33" s="343"/>
+      <c r="AE33" s="343"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -22721,26 +23048,26 @@
         <v>4</v>
       </c>
       <c r="L36" s="193"/>
-      <c r="M36" s="349" t="s">
+      <c r="M36" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="349"/>
-      <c r="O36" s="349"/>
-      <c r="P36" s="349"/>
-      <c r="Q36" s="349"/>
-      <c r="R36" s="349"/>
-      <c r="S36" s="349"/>
+      <c r="N36" s="354"/>
+      <c r="O36" s="354"/>
+      <c r="P36" s="354"/>
+      <c r="Q36" s="354"/>
+      <c r="R36" s="354"/>
+      <c r="S36" s="354"/>
       <c r="T36" s="178"/>
       <c r="U36" s="178"/>
-      <c r="Y36" s="335" t="s">
+      <c r="Y36" s="343" t="s">
         <v>220</v>
       </c>
-      <c r="Z36" s="335"/>
-      <c r="AA36" s="335"/>
-      <c r="AB36" s="335"/>
-      <c r="AC36" s="335"/>
-      <c r="AD36" s="335"/>
-      <c r="AE36" s="335"/>
+      <c r="Z36" s="343"/>
+      <c r="AA36" s="343"/>
+      <c r="AB36" s="343"/>
+      <c r="AC36" s="343"/>
+      <c r="AD36" s="343"/>
+      <c r="AE36" s="343"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="180">
@@ -22919,15 +23246,15 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="355"/>
-      <c r="B39" s="355"/>
-      <c r="C39" s="355"/>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="355"/>
+      <c r="A39" s="353"/>
+      <c r="B39" s="353"/>
+      <c r="C39" s="353"/>
+      <c r="D39" s="353"/>
+      <c r="E39" s="353"/>
+      <c r="F39" s="353"/>
+      <c r="G39" s="353"/>
+      <c r="H39" s="353"/>
+      <c r="I39" s="353"/>
       <c r="J39" s="197"/>
       <c r="K39" s="197"/>
       <c r="L39" s="177"/>
@@ -22960,25 +23287,25 @@
         <v>42</v>
       </c>
       <c r="W39" s="179"/>
-      <c r="Y39" s="335" t="s">
+      <c r="Y39" s="343" t="s">
         <v>221</v>
       </c>
-      <c r="Z39" s="335"/>
-      <c r="AA39" s="335"/>
-      <c r="AB39" s="335"/>
-      <c r="AC39" s="335"/>
-      <c r="AD39" s="335"/>
-      <c r="AE39" s="335"/>
+      <c r="Z39" s="343"/>
+      <c r="AA39" s="343"/>
+      <c r="AB39" s="343"/>
+      <c r="AC39" s="343"/>
+      <c r="AD39" s="343"/>
+      <c r="AE39" s="343"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="178"/>
-      <c r="B40" s="339"/>
-      <c r="C40" s="339"/>
-      <c r="D40" s="339"/>
-      <c r="E40" s="339"/>
-      <c r="F40" s="339"/>
-      <c r="G40" s="339"/>
-      <c r="H40" s="339"/>
+      <c r="B40" s="342"/>
+      <c r="C40" s="342"/>
+      <c r="D40" s="342"/>
+      <c r="E40" s="342"/>
+      <c r="F40" s="342"/>
+      <c r="G40" s="342"/>
+      <c r="H40" s="342"/>
       <c r="I40" s="7"/>
       <c r="J40" s="178"/>
       <c r="K40" s="178"/>
@@ -23110,15 +23437,15 @@
       <c r="I42" s="178"/>
       <c r="J42" s="178"/>
       <c r="K42" s="178"/>
-      <c r="M42" s="335" t="s">
+      <c r="M42" s="343" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="335"/>
-      <c r="O42" s="335"/>
-      <c r="P42" s="335"/>
-      <c r="Q42" s="335"/>
-      <c r="R42" s="335"/>
-      <c r="S42" s="335"/>
+      <c r="N42" s="343"/>
+      <c r="O42" s="343"/>
+      <c r="P42" s="343"/>
+      <c r="Q42" s="343"/>
+      <c r="R42" s="343"/>
+      <c r="S42" s="343"/>
       <c r="T42" s="201"/>
       <c r="U42" s="178"/>
     </row>
@@ -23134,15 +23461,15 @@
       <c r="I43" s="178"/>
       <c r="J43" s="178"/>
       <c r="K43" s="178"/>
-      <c r="M43" s="349" t="s">
+      <c r="M43" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="349"/>
-      <c r="O43" s="349"/>
-      <c r="P43" s="349"/>
-      <c r="Q43" s="349"/>
-      <c r="R43" s="349"/>
-      <c r="S43" s="349"/>
+      <c r="N43" s="354"/>
+      <c r="O43" s="354"/>
+      <c r="P43" s="354"/>
+      <c r="Q43" s="354"/>
+      <c r="R43" s="354"/>
+      <c r="S43" s="354"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="178"/>
@@ -23183,13 +23510,13 @@
       <c r="V44" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="X44" s="339"/>
-      <c r="Y44" s="339"/>
-      <c r="Z44" s="339"/>
-      <c r="AA44" s="339"/>
-      <c r="AB44" s="339"/>
-      <c r="AC44" s="339"/>
-      <c r="AD44" s="339"/>
+      <c r="X44" s="342"/>
+      <c r="Y44" s="342"/>
+      <c r="Z44" s="342"/>
+      <c r="AA44" s="342"/>
+      <c r="AB44" s="342"/>
+      <c r="AC44" s="342"/>
+      <c r="AD44" s="342"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="178"/>
@@ -23336,15 +23663,15 @@
       <c r="AD47" s="178"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="355"/>
-      <c r="B48" s="355"/>
-      <c r="C48" s="355"/>
-      <c r="D48" s="355"/>
-      <c r="E48" s="355"/>
-      <c r="F48" s="355"/>
-      <c r="G48" s="355"/>
-      <c r="H48" s="355"/>
-      <c r="I48" s="355"/>
+      <c r="A48" s="353"/>
+      <c r="B48" s="353"/>
+      <c r="C48" s="353"/>
+      <c r="D48" s="353"/>
+      <c r="E48" s="353"/>
+      <c r="F48" s="353"/>
+      <c r="G48" s="353"/>
+      <c r="H48" s="353"/>
+      <c r="I48" s="353"/>
       <c r="J48" s="197"/>
       <c r="K48" s="197"/>
       <c r="M48" s="180" t="s">
@@ -23395,15 +23722,15 @@
       <c r="I49" s="7"/>
       <c r="J49" s="178"/>
       <c r="K49" s="178"/>
-      <c r="M49" s="335" t="s">
+      <c r="M49" s="343" t="s">
         <v>57</v>
       </c>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="335"/>
+      <c r="N49" s="343"/>
+      <c r="O49" s="343"/>
+      <c r="P49" s="343"/>
+      <c r="Q49" s="343"/>
+      <c r="R49" s="343"/>
+      <c r="S49" s="343"/>
       <c r="T49" s="178"/>
       <c r="U49" s="178"/>
       <c r="X49" s="178"/>
@@ -23426,18 +23753,40 @@
       <c r="I50" s="178"/>
       <c r="J50" s="178"/>
       <c r="K50" s="178"/>
-      <c r="M50" s="335"/>
-      <c r="N50" s="335"/>
-      <c r="O50" s="335"/>
-      <c r="P50" s="335"/>
-      <c r="Q50" s="335"/>
-      <c r="R50" s="335"/>
-      <c r="S50" s="335"/>
+      <c r="M50" s="343"/>
+      <c r="N50" s="343"/>
+      <c r="O50" s="343"/>
+      <c r="P50" s="343"/>
+      <c r="Q50" s="343"/>
+      <c r="R50" s="343"/>
+      <c r="S50" s="343"/>
       <c r="T50" s="178"/>
       <c r="U50" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="M42:S42"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="X44:AD44"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="Y30:AE30"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="Y36:AE36"/>
+    <mergeCell ref="Y39:AE39"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y28:AE28"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="M2:S2"/>
@@ -23451,28 +23800,6 @@
     <mergeCell ref="M30:S30"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A30:I30"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="Y30:AE30"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="Y36:AE36"/>
-    <mergeCell ref="Y39:AE39"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y28:AE28"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="M42:S42"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Y2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -23523,15 +23850,15 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="357" t="s">
+      <c r="B2" s="362" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
       <c r="J2" s="45" t="s">
         <v>65</v>
       </c>
@@ -23609,7 +23936,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="363" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -23662,7 +23989,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="358"/>
+      <c r="A5" s="363"/>
       <c r="B5" s="37" t="s">
         <v>290</v>
       </c>
@@ -23715,7 +24042,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="358" t="s">
+      <c r="A6" s="363" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -23769,7 +24096,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="358"/>
+      <c r="A7" s="363"/>
       <c r="B7" s="40" t="s">
         <v>292</v>
       </c>
@@ -23819,7 +24146,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="358" t="s">
+      <c r="A8" s="363" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -23869,7 +24196,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="358"/>
+      <c r="A9" s="363"/>
       <c r="B9" s="37" t="s">
         <v>294</v>
       </c>
@@ -23933,11 +24260,11 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="J11" s="356" t="s">
+      <c r="J11" s="361" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="356"/>
-      <c r="L11" s="356"/>
+      <c r="K11" s="361"/>
+      <c r="L11" s="361"/>
       <c r="R11" s="283"/>
       <c r="S11" s="283"/>
       <c r="T11" s="283"/>
@@ -24002,15 +24329,15 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="357" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="357"/>
-      <c r="D13" s="357"/>
-      <c r="E13" s="357"/>
-      <c r="F13" s="357"/>
-      <c r="G13" s="357"/>
-      <c r="H13" s="357"/>
+      <c r="B13" s="362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="362"/>
+      <c r="D13" s="362"/>
+      <c r="E13" s="362"/>
+      <c r="F13" s="362"/>
+      <c r="G13" s="362"/>
+      <c r="H13" s="362"/>
       <c r="I13" s="283"/>
       <c r="J13" s="283"/>
       <c r="K13" s="283"/>
@@ -24349,12 +24676,12 @@
       <c r="S18" s="283"/>
       <c r="T18" s="283"/>
       <c r="U18" s="283"/>
-      <c r="V18" s="356" t="s">
+      <c r="V18" s="361" t="s">
         <v>288</v>
       </c>
-      <c r="W18" s="356"/>
-      <c r="X18" s="356"/>
-      <c r="Y18" s="356"/>
+      <c r="W18" s="361"/>
+      <c r="X18" s="361"/>
+      <c r="Y18" s="361"/>
       <c r="Z18" s="283">
         <v>7</v>
       </c>
@@ -24790,12 +25117,12 @@
       <c r="B43">
         <v>0.47005071531687659</v>
       </c>
-      <c r="F43" s="359" t="s">
+      <c r="F43" s="364" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="359"/>
-      <c r="H43" s="359"/>
-      <c r="I43" s="359"/>
+      <c r="G43" s="364"/>
+      <c r="H43" s="364"/>
+      <c r="I43" s="364"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
@@ -24947,11 +25274,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="361" t="s">
+      <c r="A1" s="366" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="361"/>
-      <c r="C1" s="361"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
       <c r="E1" s="77" t="s">
         <v>92</v>
       </c>
@@ -24975,12 +25302,12 @@
       <c r="O1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="360"/>
-      <c r="S1" s="360"/>
-      <c r="T1" s="360"/>
-      <c r="U1" s="360"/>
-      <c r="V1" s="360"/>
-      <c r="W1" s="360"/>
+      <c r="R1" s="365"/>
+      <c r="S1" s="365"/>
+      <c r="T1" s="365"/>
+      <c r="U1" s="365"/>
+      <c r="V1" s="365"/>
+      <c r="W1" s="365"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
@@ -25141,11 +25468,11 @@
       <c r="W5" s="61"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="361" t="s">
+      <c r="A6" s="366" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="361"/>
-      <c r="C6" s="361"/>
+      <c r="B6" s="366"/>
+      <c r="C6" s="366"/>
       <c r="E6" s="74">
         <v>5</v>
       </c>
@@ -25319,11 +25646,11 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="366" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="361"/>
-      <c r="C11" s="361"/>
+      <c r="B11" s="366"/>
+      <c r="C11" s="366"/>
       <c r="D11" s="65"/>
       <c r="E11" s="73">
         <v>2</v>
@@ -25507,11 +25834,11 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="361" t="s">
+      <c r="A16" s="366" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="361"/>
-      <c r="C16" s="361"/>
+      <c r="B16" s="366"/>
+      <c r="C16" s="366"/>
       <c r="D16" s="65"/>
       <c r="E16" s="73">
         <v>7</v>
@@ -25665,9 +25992,9 @@
       <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="360"/>
-      <c r="B21" s="360"/>
-      <c r="C21" s="360"/>
+      <c r="A21" s="365"/>
+      <c r="B21" s="365"/>
+      <c r="C21" s="365"/>
       <c r="D21" s="65"/>
       <c r="E21" s="73">
         <v>4</v>
@@ -26150,20 +26477,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="340" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="E1" s="338" t="s">
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="E1" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="338"/>
+      <c r="F1" s="340"/>
       <c r="G1" s="89"/>
-      <c r="H1" s="338" t="s">
+      <c r="H1" s="340" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="338"/>
+      <c r="I1" s="340"/>
       <c r="K1" s="288" t="s">
         <v>300</v>
       </c>
@@ -26182,30 +26509,30 @@
       <c r="P1" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="358" t="s">
+      <c r="Q1" s="302"/>
+      <c r="R1" s="363" t="s">
         <v>308</v>
       </c>
-      <c r="S1" s="315" t="s">
+      <c r="S1" s="312" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="315" t="s">
+      <c r="T1" s="312" t="s">
         <v>130</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>307</v>
       </c>
       <c r="V1" s="103"/>
-      <c r="W1" s="363" t="s">
+      <c r="W1" s="368" t="s">
         <v>309</v>
       </c>
-      <c r="X1" s="315" t="s">
+      <c r="X1" s="312" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" s="315" t="s">
+      <c r="Y1" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" s="315" t="s">
+      <c r="Z1" s="312" t="s">
         <v>310</v>
       </c>
       <c r="AA1" s="64"/>
@@ -26262,37 +26589,37 @@
       <c r="I2" s="88">
         <v>4</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>301</v>
       </c>
-      <c r="L2" s="308" t="s">
+      <c r="L2" s="305" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="308" t="s">
+      <c r="M2" s="305" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="308" t="s">
+      <c r="N2" s="305" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="309">
-        <v>2</v>
-      </c>
-      <c r="P2" s="310">
+      <c r="O2" s="306">
+        <v>2</v>
+      </c>
+      <c r="P2" s="307">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="358"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="363"/>
       <c r="S2" s="291">
         <v>1</v>
       </c>
-      <c r="T2" s="311">
+      <c r="T2" s="308">
         <v>1</v>
       </c>
       <c r="U2" s="292">
         <v>1</v>
       </c>
       <c r="V2" s="289"/>
-      <c r="W2" s="363"/>
+      <c r="W2" s="368"/>
       <c r="X2" s="203">
         <v>1</v>
       </c>
@@ -26365,23 +26692,23 @@
       <c r="O3" s="91">
         <v>4</v>
       </c>
-      <c r="P3" s="306">
+      <c r="P3" s="303">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="317"/>
-      <c r="R3" s="358"/>
+      <c r="Q3" s="314"/>
+      <c r="R3" s="363"/>
       <c r="S3" s="291">
         <v>2</v>
       </c>
-      <c r="T3" s="311">
+      <c r="T3" s="308">
         <v>1</v>
       </c>
       <c r="U3" s="292">
         <v>3</v>
       </c>
       <c r="V3" s="289"/>
-      <c r="W3" s="363"/>
-      <c r="X3" s="313">
+      <c r="W3" s="368"/>
+      <c r="X3" s="310">
         <v>2</v>
       </c>
       <c r="Y3" s="291">
@@ -26438,38 +26765,38 @@
       <c r="I4" s="88">
         <v>4</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="K4" s="304" t="s">
         <v>303</v>
       </c>
-      <c r="L4" s="308" t="s">
+      <c r="L4" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="308" t="s">
+      <c r="M4" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="308" t="s">
+      <c r="N4" s="305" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="309">
+      <c r="O4" s="306">
         <v>7</v>
       </c>
-      <c r="P4" s="310">
+      <c r="P4" s="307">
         <v>2.1</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="358"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="363"/>
       <c r="S4" s="291">
         <v>3</v>
       </c>
-      <c r="T4" s="311">
+      <c r="T4" s="308">
         <v>1</v>
       </c>
       <c r="U4" s="292">
         <v>1</v>
       </c>
       <c r="V4" s="289"/>
-      <c r="W4" s="363"/>
-      <c r="X4" s="313">
+      <c r="W4" s="368"/>
+      <c r="X4" s="310">
         <v>2</v>
       </c>
       <c r="Y4" s="291">
@@ -26500,7 +26827,7 @@
       <c r="AI4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="AJ4" s="334">
+      <c r="AJ4" s="341">
         <v>7</v>
       </c>
     </row>
@@ -26530,23 +26857,23 @@
       <c r="O5" s="91">
         <v>5</v>
       </c>
-      <c r="P5" s="306">
+      <c r="P5" s="303">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q5" s="317"/>
-      <c r="R5" s="358"/>
+      <c r="Q5" s="314"/>
+      <c r="R5" s="363"/>
       <c r="S5" s="291">
         <v>2</v>
       </c>
-      <c r="T5" s="312">
+      <c r="T5" s="309">
         <v>2</v>
       </c>
       <c r="U5" s="292">
         <v>1</v>
       </c>
       <c r="V5" s="289"/>
-      <c r="W5" s="363"/>
-      <c r="X5" s="314">
+      <c r="W5" s="368"/>
+      <c r="X5" s="311">
         <v>3</v>
       </c>
       <c r="Y5" s="291">
@@ -26577,43 +26904,43 @@
       <c r="AI5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" s="334"/>
+      <c r="AJ5" s="341"/>
     </row>
     <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="290"/>
-      <c r="E6" s="339"/>
-      <c r="F6" s="339"/>
+      <c r="E6" s="342"/>
+      <c r="F6" s="342"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="307" t="s">
+      <c r="K6" s="304" t="s">
         <v>305</v>
       </c>
-      <c r="L6" s="308" t="s">
+      <c r="L6" s="305" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="308" t="s">
+      <c r="M6" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="308" t="s">
+      <c r="N6" s="305" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="309">
-        <v>4</v>
-      </c>
-      <c r="P6" s="310">
+      <c r="O6" s="306">
+        <v>4</v>
+      </c>
+      <c r="P6" s="307">
         <v>3.1</v>
       </c>
-      <c r="Q6" s="316"/>
-      <c r="R6" s="358"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="363"/>
       <c r="S6" s="291">
         <v>3</v>
       </c>
-      <c r="T6" s="312">
+      <c r="T6" s="309">
         <v>2</v>
       </c>
       <c r="U6" s="292">
@@ -26644,7 +26971,7 @@
       <c r="AI6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AJ6" s="334">
+      <c r="AJ6" s="341">
         <v>5</v>
       </c>
     </row>
@@ -26674,15 +27001,15 @@
       <c r="O7" s="91">
         <v>4</v>
       </c>
-      <c r="P7" s="306">
+      <c r="P7" s="303">
         <v>3.2</v>
       </c>
-      <c r="Q7" s="317"/>
-      <c r="R7" s="358"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="363"/>
       <c r="S7" s="291">
         <v>1</v>
       </c>
-      <c r="T7" s="314">
+      <c r="T7" s="311">
         <v>3</v>
       </c>
       <c r="U7" s="292">
@@ -26713,16 +27040,16 @@
       <c r="AI7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AJ7" s="334"/>
+      <c r="AJ7" s="341"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E8" s="98"/>
       <c r="F8" s="98"/>
-      <c r="R8" s="358"/>
+      <c r="R8" s="363"/>
       <c r="S8" s="291">
         <v>2</v>
       </c>
-      <c r="T8" s="314">
+      <c r="T8" s="311">
         <v>3</v>
       </c>
       <c r="U8" s="292">
@@ -26753,18 +27080,18 @@
       <c r="AI8" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" s="336">
+      <c r="AJ8" s="344">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E9" s="98"/>
       <c r="F9" s="98"/>
-      <c r="R9" s="358"/>
+      <c r="R9" s="363"/>
       <c r="S9" s="291">
         <v>3</v>
       </c>
-      <c r="T9" s="314">
+      <c r="T9" s="311">
         <v>3</v>
       </c>
       <c r="U9" s="292">
@@ -26795,7 +27122,7 @@
       <c r="AI9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="336"/>
+      <c r="AJ9" s="344"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S10" s="33"/>
@@ -26826,7 +27153,7 @@
       <c r="AI10" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" s="334">
+      <c r="AJ10" s="341">
         <v>4</v>
       </c>
     </row>
@@ -26859,7 +27186,7 @@
       <c r="AI11" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" s="334"/>
+      <c r="AJ11" s="341"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S12" s="33"/>
@@ -26873,11 +27200,11 @@
       <c r="AC12" s="60"/>
       <c r="AD12" s="60"/>
       <c r="AE12" s="60"/>
-      <c r="AG12" s="335" t="s">
+      <c r="AG12" s="343" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="335"/>
-      <c r="AI12" s="335"/>
+      <c r="AH12" s="343"/>
+      <c r="AI12" s="343"/>
       <c r="AJ12" s="105"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -27167,9 +27494,9 @@
         <v>2</v>
       </c>
       <c r="T24" s="3"/>
-      <c r="AG24" s="362"/>
-      <c r="AH24" s="362"/>
-      <c r="AI24" s="362"/>
+      <c r="AG24" s="367"/>
+      <c r="AH24" s="367"/>
+      <c r="AI24" s="367"/>
     </row>
     <row r="25" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D25" s="87"/>
@@ -27392,11 +27719,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AG12:AI12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
@@ -27404,6 +27726,11 @@
     <mergeCell ref="AG24:AI24"/>
     <mergeCell ref="R1:R9"/>
     <mergeCell ref="W1:W5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AG12:AI12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -27452,17 +27779,17 @@
       <c r="U1" s="235"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="371" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
       <c r="J2" s="151"/>
     </row>
     <row r="3" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27835,24 +28162,24 @@
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="370" t="s">
+      <c r="A13" s="375" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="370"/>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="370"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="370"/>
-      <c r="K13" s="371" t="s">
+      <c r="B13" s="375"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="375"/>
+      <c r="F13" s="375"/>
+      <c r="G13" s="375"/>
+      <c r="K13" s="376" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="371"/>
-      <c r="M13" s="371"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="371"/>
-      <c r="P13" s="371"/>
-      <c r="Q13" s="371"/>
+      <c r="L13" s="376"/>
+      <c r="M13" s="376"/>
+      <c r="N13" s="376"/>
+      <c r="O13" s="376"/>
+      <c r="P13" s="376"/>
+      <c r="Q13" s="376"/>
       <c r="R13" s="64"/>
       <c r="S13" s="142"/>
       <c r="T13" s="33"/>
@@ -28382,28 +28709,28 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="370" t="s">
+      <c r="A24" s="375" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="370"/>
-      <c r="C24" s="370"/>
-      <c r="D24" s="370"/>
-      <c r="E24" s="370"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="370"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="370"/>
-      <c r="K24" s="370" t="s">
+      <c r="B24" s="375"/>
+      <c r="C24" s="375"/>
+      <c r="D24" s="375"/>
+      <c r="E24" s="375"/>
+      <c r="F24" s="375"/>
+      <c r="G24" s="375"/>
+      <c r="H24" s="375"/>
+      <c r="I24" s="375"/>
+      <c r="K24" s="375" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="370"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="370"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
+      <c r="L24" s="375"/>
+      <c r="M24" s="375"/>
+      <c r="N24" s="375"/>
+      <c r="O24" s="375"/>
+      <c r="P24" s="375"/>
+      <c r="Q24" s="375"/>
+      <c r="R24" s="375"/>
+      <c r="S24" s="375"/>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="121"/>
@@ -28796,17 +29123,17 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K32" s="369" t="s">
+      <c r="K32" s="374" t="s">
         <v>172</v>
       </c>
-      <c r="L32" s="369"/>
-      <c r="M32" s="369"/>
-      <c r="N32" s="369"/>
-      <c r="O32" s="369"/>
-      <c r="P32" s="369"/>
-      <c r="Q32" s="369"/>
-      <c r="R32" s="369"/>
-      <c r="S32" s="369"/>
+      <c r="L32" s="374"/>
+      <c r="M32" s="374"/>
+      <c r="N32" s="374"/>
+      <c r="O32" s="374"/>
+      <c r="P32" s="374"/>
+      <c r="Q32" s="374"/>
+      <c r="R32" s="374"/>
+      <c r="S32" s="374"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K33" s="33"/>
@@ -28833,14 +29160,14 @@
       <c r="H34" s="145"/>
       <c r="I34" s="145"/>
       <c r="K34" s="33"/>
-      <c r="L34" s="368" t="s">
+      <c r="L34" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="M34" s="368"/>
-      <c r="N34" s="368"/>
-      <c r="O34" s="368"/>
-      <c r="P34" s="368"/>
-      <c r="Q34" s="368"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="373"/>
+      <c r="O34" s="373"/>
+      <c r="P34" s="373"/>
+      <c r="Q34" s="373"/>
       <c r="R34" s="64"/>
       <c r="S34" s="243"/>
       <c r="T34" s="244" t="s">
@@ -29443,10 +29770,10 @@
         <f>J41/K44</f>
         <v>-4.8410748142123552E-2</v>
       </c>
-      <c r="O45" s="359" t="s">
+      <c r="O45" s="364" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="359"/>
+      <c r="P45" s="364"/>
       <c r="Q45" s="126">
         <f>Q44/O44</f>
         <v>0.25</v>
@@ -29478,24 +29805,24 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="371" t="s">
+      <c r="A47" s="376" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="371"/>
-      <c r="C47" s="371"/>
-      <c r="D47" s="371"/>
-      <c r="E47" s="371"/>
-      <c r="F47" s="371"/>
-      <c r="G47" s="371"/>
-      <c r="K47" s="371" t="s">
+      <c r="B47" s="376"/>
+      <c r="C47" s="376"/>
+      <c r="D47" s="376"/>
+      <c r="E47" s="376"/>
+      <c r="F47" s="376"/>
+      <c r="G47" s="376"/>
+      <c r="K47" s="376" t="s">
         <v>195</v>
       </c>
-      <c r="L47" s="371"/>
-      <c r="M47" s="371"/>
-      <c r="N47" s="371"/>
-      <c r="O47" s="371"/>
-      <c r="P47" s="371"/>
-      <c r="Q47" s="371"/>
+      <c r="L47" s="376"/>
+      <c r="M47" s="376"/>
+      <c r="N47" s="376"/>
+      <c r="O47" s="376"/>
+      <c r="P47" s="376"/>
+      <c r="Q47" s="376"/>
     </row>
     <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="121" t="s">
@@ -30161,18 +30488,18 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="364" t="s">
+      <c r="A64" s="369" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="365"/>
-      <c r="C64" s="365"/>
-      <c r="D64" s="365"/>
-      <c r="E64" s="365"/>
-      <c r="F64" s="365"/>
-      <c r="G64" s="365"/>
-      <c r="H64" s="365"/>
-      <c r="I64" s="365"/>
-      <c r="J64" s="365"/>
+      <c r="B64" s="370"/>
+      <c r="C64" s="370"/>
+      <c r="D64" s="370"/>
+      <c r="E64" s="370"/>
+      <c r="F64" s="370"/>
+      <c r="G64" s="370"/>
+      <c r="H64" s="370"/>
+      <c r="I64" s="370"/>
+      <c r="J64" s="370"/>
     </row>
     <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">

--- a/minhashing-example.xlsx
+++ b/minhashing-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Documents\algorithms-for-big-data\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E871A4-9839-4CA2-BAB2-D0F1F9F1569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A1774F-6CE2-4E13-B2B7-D637E35B7EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E4583-A74F-4BE4-8E2C-5878D1C2F5DA}">
   <dimension ref="A2:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6201,7 +6201,7 @@
       <c r="M19" s="330" t="s">
         <v>276</v>
       </c>
-      <c r="N19" s="297" t="s">
+      <c r="N19" s="330" t="s">
         <v>312</v>
       </c>
       <c r="O19" s="297" t="s">

--- a/minhashing-example.xlsx
+++ b/minhashing-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy\Documents\algorithms-for-big-data\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A1774F-6CE2-4E13-B2B7-D637E35B7EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF80923A-8112-4506-9161-DFC81EE8E9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E4583-A74F-4BE4-8E2C-5878D1C2F5DA}">
   <dimension ref="A2:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6676,7 +6676,7 @@
       <c r="M30" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="N30" s="329" t="s">
+      <c r="N30" s="323" t="s">
         <v>314</v>
       </c>
       <c r="O30" s="301" t="s">
@@ -6713,7 +6713,7 @@
       <c r="M31" s="332" t="s">
         <v>274</v>
       </c>
-      <c r="N31" s="329" t="s">
+      <c r="N31" s="323" t="s">
         <v>313</v>
       </c>
       <c r="O31" s="332" t="s">
